--- a/Documents/Examples/CDISC_Pilot/CDISC_Pilot_Study.xlsx
+++ b/Documents/Examples/CDISC_Pilot/CDISC_Pilot_Study.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm_data/source_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm_data/source_data/CDISC_Pilot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC99F7B2-78B5-E645-B9B7-969098745501}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB6D0C9C-3862-684A-8FE7-5980D765FBEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31720" yWindow="5760" windowWidth="37320" windowHeight="20560" activeTab="7" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="31720" yWindow="5760" windowWidth="37320" windowHeight="20560" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1095" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1100" uniqueCount="319">
   <si>
     <t>Epoch</t>
   </si>
@@ -1017,6 +1017,15 @@
   </si>
   <si>
     <t>ICD-10-CM: G30.9=Alzheimer's disease; unspecified</t>
+  </si>
+  <si>
+    <t>ICD-10=1</t>
+  </si>
+  <si>
+    <t>ICD-10-CM=1</t>
+  </si>
+  <si>
+    <t>None set</t>
   </si>
 </sst>
 </file>
@@ -1585,8 +1594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2E79CD3-D94C-A14B-9EDC-9C26AFA63552}">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1692,7 +1701,9 @@
       <c r="C10" s="23" t="s">
         <v>278</v>
       </c>
-      <c r="D10" s="15"/>
+      <c r="D10" s="15" t="s">
+        <v>318</v>
+      </c>
       <c r="E10" s="1">
         <v>1</v>
       </c>
@@ -2436,11 +2447,9 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ED6534B-B4C9-924A-BB14-180C2C37C6F1}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
-    </sheetView>
+    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2448,7 +2457,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="29" t="s">
         <v>91</v>
       </c>
       <c r="B1" t="s">
@@ -2456,11 +2465,27 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="29" t="s">
         <v>91</v>
       </c>
       <c r="B2" t="s">
         <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="B3" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="B4" t="s">
+        <v>317</v>
       </c>
     </row>
   </sheetData>
@@ -5895,7 +5920,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A8C2F56-38DA-1440-8447-6C36029D01F5}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>

--- a/Documents/Examples/CDISC_Pilot/CDISC_Pilot_Study.xlsx
+++ b/Documents/Examples/CDISC_Pilot/CDISC_Pilot_Study.xlsx
@@ -1,32 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm_data/source_data/CDISC_Pilot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB6D0C9C-3862-684A-8FE7-5980D765FBEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0166703C-73A8-EA4C-B3D3-D41E03454D0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31720" yWindow="5760" windowWidth="37320" windowHeight="20560" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19480" activeTab="1" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
-    <sheet name="studyIdentifiers" sheetId="3" r:id="rId2"/>
-    <sheet name="studyDesign" sheetId="4" r:id="rId3"/>
-    <sheet name="studyDesignArms" sheetId="14" r:id="rId4"/>
-    <sheet name="studyDesignEpochs" sheetId="15" r:id="rId5"/>
-    <sheet name="mainTimeline" sheetId="1" r:id="rId6"/>
-    <sheet name="studyDesignII" sheetId="6" r:id="rId7"/>
-    <sheet name="studyDesignPopulations" sheetId="7" r:id="rId8"/>
-    <sheet name="studyDesignOE" sheetId="8" r:id="rId9"/>
-    <sheet name="studyDesignEstimands" sheetId="9" r:id="rId10"/>
-    <sheet name="studyDesignProcedures" sheetId="11" r:id="rId11"/>
-    <sheet name="studyDesignEncounters" sheetId="12" r:id="rId12"/>
-    <sheet name="studyDesignElements" sheetId="13" r:id="rId13"/>
-    <sheet name="configuration" sheetId="10" r:id="rId14"/>
+    <sheet name="studyDesignContent" sheetId="16" r:id="rId2"/>
+    <sheet name="studyIdentifiers" sheetId="3" r:id="rId3"/>
+    <sheet name="studyDesign" sheetId="4" r:id="rId4"/>
+    <sheet name="studyDesignArms" sheetId="14" r:id="rId5"/>
+    <sheet name="studyDesignEpochs" sheetId="15" r:id="rId6"/>
+    <sheet name="mainTimeline" sheetId="1" r:id="rId7"/>
+    <sheet name="studyDesignII" sheetId="6" r:id="rId8"/>
+    <sheet name="studyDesignPopulations" sheetId="7" r:id="rId9"/>
+    <sheet name="studyDesignOE" sheetId="8" r:id="rId10"/>
+    <sheet name="studyDesignEstimands" sheetId="9" r:id="rId11"/>
+    <sheet name="studyDesignProcedures" sheetId="11" r:id="rId12"/>
+    <sheet name="studyDesignEncounters" sheetId="12" r:id="rId13"/>
+    <sheet name="studyDesignElements" sheetId="13" r:id="rId14"/>
+    <sheet name="configuration" sheetId="10" r:id="rId15"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -49,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1100" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1378" uniqueCount="589">
   <si>
     <t>Epoch</t>
   </si>
@@ -819,10 +820,6 @@
     <t>50 years</t>
   </si>
   <si>
-    <t>Video-referenced Clinician’s Interview-based Impression of Change (CIBIC+) at
-Week 24</t>
-  </si>
-  <si>
     <t>Vital signs (weight, standing and supine blood pressure, heart rate)</t>
   </si>
   <si>
@@ -881,37 +878,12 @@
     <t>Treatment 3</t>
   </si>
   <si>
-    <t>Alzheimer\'s Disease Assessment Scale - Cognitive Subscale, total of 11 items
-[ADAS-Cog (11)] at Week 24</t>
-  </si>
-  <si>
-    <t>Safety and Efficacy of the Xanomeline Transdermal Therapeutic System (TTS) in Patients with Mild to Moderate Alzheimer\’s Disease</t>
-  </si>
-  <si>
-    <t>Safety and Efficacy of the Xanomeline
-Transdermal Therapeutic System (TTS) in Patients
-with Mild to Moderate Alzheimer\’s Disease</t>
-  </si>
-  <si>
     <t>SPONSOR: MILD_MOD_ALZ=Mild to Moderate Alzheimer\'s Disease, SNOMED: 26929004=Alzheimer\'s disease</t>
   </si>
   <si>
     <t>Patients with Probable Mild to Moderate Alzheimer\'s Disease</t>
   </si>
   <si>
-    <t>Safety and Efficacy of the Xanomeline Transdermal
-Therapeutic System (TTS) in Patients with Mild to
-Moderate Alzheimer\'s Disease</t>
-  </si>
-  <si>
-    <t>Alzheimer\'s Disease Assessment Scale - Cognitive Subscale, total of 11 items
-[ADAS-Cog (11)] at Weeks 8 and 16</t>
-  </si>
-  <si>
-    <t>Video-referenced Clinician\’s Interview-based Impression of Change (CIBIC+) at
-Weeks 8 and 16</t>
-  </si>
-  <si>
     <t>H2Q-MC-LZZT</t>
   </si>
   <si>
@@ -930,11 +902,6 @@
     <t>Laboratory evaluations (Change from Baseline)</t>
   </si>
   <si>
-    <t>The change from baseline laboratory value will be 
-calculated as the difference between the baseline lab value and the endpoint value (i.e.,
-the value at the specified visit) or the end of treatment observation</t>
-  </si>
-  <si>
     <t>Xanomeline High Dose</t>
   </si>
   <si>
@@ -1026,13 +993,989 @@
   </si>
   <si>
     <t>None set</t>
+  </si>
+  <si>
+    <t>sectionNumber</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>sectionTitle</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>PROTOCOL SUMMARY</t>
+  </si>
+  <si>
+    <t>1.1</t>
+  </si>
+  <si>
+    <t>Protocol Synopsis</t>
+  </si>
+  <si>
+    <t>1.2</t>
+  </si>
+  <si>
+    <t>Trial Schema</t>
+  </si>
+  <si>
+    <t>1.3</t>
+  </si>
+  <si>
+    <t>Schedule of Activities</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>INTRODUCTION</t>
+  </si>
+  <si>
+    <t>2.1</t>
+  </si>
+  <si>
+    <t>Purpose of Trial</t>
+  </si>
+  <si>
+    <t>2.2</t>
+  </si>
+  <si>
+    <t>Summary of Benefits and Risks</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>TRIAL OBJECTIVES, ENDPOINTS AND ESTIMANDS</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>TRIAL DESIGN</t>
+  </si>
+  <si>
+    <t>4.1</t>
+  </si>
+  <si>
+    <t>Description of Trial Design</t>
+  </si>
+  <si>
+    <t>4.1.1</t>
+  </si>
+  <si>
+    <t>Participant Input into Design</t>
+  </si>
+  <si>
+    <t>4.2</t>
+  </si>
+  <si>
+    <t>Rationale for Trial Design</t>
+  </si>
+  <si>
+    <t>4.2.1</t>
+  </si>
+  <si>
+    <t>Rationale for Comparator</t>
+  </si>
+  <si>
+    <t>4.2.2</t>
+  </si>
+  <si>
+    <t>Rationale for Adaptive or Novel Trial Design</t>
+  </si>
+  <si>
+    <t>4.2.3</t>
+  </si>
+  <si>
+    <t>Other Trial Design Considerations</t>
+  </si>
+  <si>
+    <t>4.3</t>
+  </si>
+  <si>
+    <t>Access to Trial Intervention After End of Trial</t>
+  </si>
+  <si>
+    <t>4.4</t>
+  </si>
+  <si>
+    <t>Start of Trial and End of Trial</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>TRIAL POPULATION</t>
+  </si>
+  <si>
+    <t>5.1</t>
+  </si>
+  <si>
+    <t>Selection of Trial Population</t>
+  </si>
+  <si>
+    <t>5.2</t>
+  </si>
+  <si>
+    <t>Rationale for Trial Population</t>
+  </si>
+  <si>
+    <t>5.3</t>
+  </si>
+  <si>
+    <t>Inclusion Criteria</t>
+  </si>
+  <si>
+    <t>5.4</t>
+  </si>
+  <si>
+    <t>Exclusion Criteria</t>
+  </si>
+  <si>
+    <t>5.5</t>
+  </si>
+  <si>
+    <t>Lifestyle Considerations</t>
+  </si>
+  <si>
+    <t>5.5.1</t>
+  </si>
+  <si>
+    <t>Meals and Dietary Restrictions</t>
+  </si>
+  <si>
+    <t>5.5.2</t>
+  </si>
+  <si>
+    <t>Caffeine, Alcohol, Tobacco, and Other Habits</t>
+  </si>
+  <si>
+    <t>5.5.3</t>
+  </si>
+  <si>
+    <t>Physical Activity</t>
+  </si>
+  <si>
+    <t>5.5.4</t>
+  </si>
+  <si>
+    <t>Other Activity</t>
+  </si>
+  <si>
+    <t>5.6</t>
+  </si>
+  <si>
+    <t>Screen Failures</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>TRIAL INTERVENTION AND CONCOMITANT THERAPY</t>
+  </si>
+  <si>
+    <t>6.1</t>
+  </si>
+  <si>
+    <t>Description of Trial Intervention</t>
+  </si>
+  <si>
+    <t>6.2</t>
+  </si>
+  <si>
+    <t>Rationale for Trial Intervention</t>
+  </si>
+  <si>
+    <t>6.3</t>
+  </si>
+  <si>
+    <t>Dosing and Administration</t>
+  </si>
+  <si>
+    <t>6.3.1</t>
+  </si>
+  <si>
+    <t>Trial Intervention Dose Modification</t>
+  </si>
+  <si>
+    <t>6.4</t>
+  </si>
+  <si>
+    <t>Treatment of Overdose</t>
+  </si>
+  <si>
+    <t>6.5</t>
+  </si>
+  <si>
+    <t>Preparation, Handling, Storage and Accountability</t>
+  </si>
+  <si>
+    <t>6.5.1</t>
+  </si>
+  <si>
+    <t>Preparation of Trial Intervention</t>
+  </si>
+  <si>
+    <t>6.5.2</t>
+  </si>
+  <si>
+    <t>Handling and Storage of Trial Intervention</t>
+  </si>
+  <si>
+    <t>6.5.3</t>
+  </si>
+  <si>
+    <t>Accountability of Trial Intervention</t>
+  </si>
+  <si>
+    <t>6.6</t>
+  </si>
+  <si>
+    <t>Participant Assignment, Randomisation and Blinding</t>
+  </si>
+  <si>
+    <t>6.6.1</t>
+  </si>
+  <si>
+    <t>Participant Assignment</t>
+  </si>
+  <si>
+    <t>6.6.2</t>
+  </si>
+  <si>
+    <t>Randomisation</t>
+  </si>
+  <si>
+    <t>6.6.3</t>
+  </si>
+  <si>
+    <t>Blinding and Unblinding</t>
+  </si>
+  <si>
+    <t>6.7</t>
+  </si>
+  <si>
+    <t>Trial Intervention Compliance</t>
+  </si>
+  <si>
+    <t>6.8</t>
+  </si>
+  <si>
+    <t>Concomitant Therapy</t>
+  </si>
+  <si>
+    <t>6.8.1</t>
+  </si>
+  <si>
+    <t>Prohibited Concomitant Therapy</t>
+  </si>
+  <si>
+    <t>6.8.2</t>
+  </si>
+  <si>
+    <t>Permitted Concomitant Therapy</t>
+  </si>
+  <si>
+    <t>6.8.3</t>
+  </si>
+  <si>
+    <t>Rescue Therapy</t>
+  </si>
+  <si>
+    <t>6.8.4</t>
+  </si>
+  <si>
+    <t>Other Therapy</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>DISCONTINUATION OF TRIAL INTERVENTION AND PARTICIPANT WITHDRAWAL FROM TRIAL</t>
+  </si>
+  <si>
+    <t>7.1</t>
+  </si>
+  <si>
+    <t>Discontinuation of Trial Intervention</t>
+  </si>
+  <si>
+    <t>7.1.1</t>
+  </si>
+  <si>
+    <t>Criteria for Permanent Discontinuation of Trial Intervention</t>
+  </si>
+  <si>
+    <t>7.1.2</t>
+  </si>
+  <si>
+    <t>Temporary Discontinuation or Interruption of Trial Intervention</t>
+  </si>
+  <si>
+    <t>7.1.3</t>
+  </si>
+  <si>
+    <t>Rechallenge</t>
+  </si>
+  <si>
+    <t>7.2</t>
+  </si>
+  <si>
+    <t>Participant Withdrawal from the Trial</t>
+  </si>
+  <si>
+    <t>7.3</t>
+  </si>
+  <si>
+    <t>Lost to Follow-Up</t>
+  </si>
+  <si>
+    <t>7.4</t>
+  </si>
+  <si>
+    <t>Trial Stopping Rules</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>TRIAL ASSESSMENTS AND PROCEDURES</t>
+  </si>
+  <si>
+    <t>8.1</t>
+  </si>
+  <si>
+    <t>Screening/Baseline Assessments and Procedures</t>
+  </si>
+  <si>
+    <t>8.2</t>
+  </si>
+  <si>
+    <t>Efficacy Assessments and Procedures</t>
+  </si>
+  <si>
+    <t>8.3</t>
+  </si>
+  <si>
+    <t>Safety Assessments and Procedures</t>
+  </si>
+  <si>
+    <t>8.3.1</t>
+  </si>
+  <si>
+    <t>Physical Examination</t>
+  </si>
+  <si>
+    <t>8.3.2</t>
+  </si>
+  <si>
+    <t>Vital Signs</t>
+  </si>
+  <si>
+    <t>8.3.3</t>
+  </si>
+  <si>
+    <t>Electrocardiograms</t>
+  </si>
+  <si>
+    <t>8.3.4</t>
+  </si>
+  <si>
+    <t>Clinical Laboratory Assessments</t>
+  </si>
+  <si>
+    <t>8.3.5</t>
+  </si>
+  <si>
+    <t>Suicidal Ideation and Behaviour Risk Monitoring</t>
+  </si>
+  <si>
+    <t>8.4</t>
+  </si>
+  <si>
+    <t>Adverse Events and Serious Adverse Events</t>
+  </si>
+  <si>
+    <t>8.4.1</t>
+  </si>
+  <si>
+    <t>Definitions of AE and SAE</t>
+  </si>
+  <si>
+    <t>8.4.2</t>
+  </si>
+  <si>
+    <t>Time Period and Frequency for Collecting AE and SAE Information</t>
+  </si>
+  <si>
+    <t>8.4.3</t>
+  </si>
+  <si>
+    <t>Identifying AEs and SAEs</t>
+  </si>
+  <si>
+    <t>8.4.4</t>
+  </si>
+  <si>
+    <t>Recording of AEs and SAEs</t>
+  </si>
+  <si>
+    <t>8.4.5</t>
+  </si>
+  <si>
+    <t>Follow-up of AEs and SAEs</t>
+  </si>
+  <si>
+    <t>8.4.6</t>
+  </si>
+  <si>
+    <t>Reporting of SAEs</t>
+  </si>
+  <si>
+    <t>8.4.7</t>
+  </si>
+  <si>
+    <t>Regulatory Reporting Requirements for SAEs</t>
+  </si>
+  <si>
+    <t>8.4.8</t>
+  </si>
+  <si>
+    <t>Serious and Unexpected Adverse Reaction Reporting</t>
+  </si>
+  <si>
+    <t>8.4.9</t>
+  </si>
+  <si>
+    <t>Adverse Events of Special Interest</t>
+  </si>
+  <si>
+    <t>8.4.10</t>
+  </si>
+  <si>
+    <t>Disease-related Events or Outcomes Not Qualifying as AEs or SAEs</t>
+  </si>
+  <si>
+    <t>8.5</t>
+  </si>
+  <si>
+    <t>Pregnancy and Postpartum Information</t>
+  </si>
+  <si>
+    <t>8.5.1</t>
+  </si>
+  <si>
+    <t>Participants Who Become Pregnant During the Trial</t>
+  </si>
+  <si>
+    <t>8.5.2</t>
+  </si>
+  <si>
+    <t>Participants Whose Partners Become Pregnant</t>
+  </si>
+  <si>
+    <t>8.6</t>
+  </si>
+  <si>
+    <t>Medical Device Product Complaints for Drug/Device Combination Products</t>
+  </si>
+  <si>
+    <t>8.6.1</t>
+  </si>
+  <si>
+    <t>Definition of Medical Device Product Complaints</t>
+  </si>
+  <si>
+    <t>8.6.2</t>
+  </si>
+  <si>
+    <t>Recording of Medical Device Product Complaints</t>
+  </si>
+  <si>
+    <t>8.6.3</t>
+  </si>
+  <si>
+    <t>Time Period and Frequency for Collecting Medical Device Product Complaints .</t>
+  </si>
+  <si>
+    <t>8.6.4</t>
+  </si>
+  <si>
+    <t>Follow-Up of Medical Device Product Complaints</t>
+  </si>
+  <si>
+    <t>8.6.5</t>
+  </si>
+  <si>
+    <t>Regulatory Reporting Requirements for Medical Device Product Complaints</t>
+  </si>
+  <si>
+    <t>8.7</t>
+  </si>
+  <si>
+    <t>Pharmacokinetics</t>
+  </si>
+  <si>
+    <t>8.8</t>
+  </si>
+  <si>
+    <t>Genetics</t>
+  </si>
+  <si>
+    <t>8.9</t>
+  </si>
+  <si>
+    <t>Biomarkers</t>
+  </si>
+  <si>
+    <t>Immunogenicity Assessments</t>
+  </si>
+  <si>
+    <t>8.1.1</t>
+  </si>
+  <si>
+    <t>Medical Resource Utilisation and Health Economics</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>STATISTICAL CONSIDERATIONS</t>
+  </si>
+  <si>
+    <t>9.1</t>
+  </si>
+  <si>
+    <t>Analysis Sets</t>
+  </si>
+  <si>
+    <t>9.2</t>
+  </si>
+  <si>
+    <t>Analyses Supporting Primary Objective(s)</t>
+  </si>
+  <si>
+    <t>9.2.1</t>
+  </si>
+  <si>
+    <t>Statistical Model, Hypothesis, and Method of Analysis</t>
+  </si>
+  <si>
+    <t>9.2.2</t>
+  </si>
+  <si>
+    <t>Handling of Intercurrent Events of Primary Estimand(s)</t>
+  </si>
+  <si>
+    <t>9.2.3</t>
+  </si>
+  <si>
+    <t>Handling of Missing Data</t>
+  </si>
+  <si>
+    <t>9.2.4</t>
+  </si>
+  <si>
+    <t>Sensitivity Analysis</t>
+  </si>
+  <si>
+    <t>9.2.5</t>
+  </si>
+  <si>
+    <t>Supplementary Analysis</t>
+  </si>
+  <si>
+    <t>9.3</t>
+  </si>
+  <si>
+    <t>Analysis Supporting Secondary Objective(s)</t>
+  </si>
+  <si>
+    <t>9.4</t>
+  </si>
+  <si>
+    <t>Analysis of Exploratory Objective(s)</t>
+  </si>
+  <si>
+    <t>9.5</t>
+  </si>
+  <si>
+    <t>Safety Analyses</t>
+  </si>
+  <si>
+    <t>9.6</t>
+  </si>
+  <si>
+    <t>Other Analyses</t>
+  </si>
+  <si>
+    <t>9.7</t>
+  </si>
+  <si>
+    <t>Interim Analyses</t>
+  </si>
+  <si>
+    <t>9.8</t>
+  </si>
+  <si>
+    <t>Sample Size Determination</t>
+  </si>
+  <si>
+    <t>9.9</t>
+  </si>
+  <si>
+    <t>Protocol Deviations</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>GENERAL CONSIDERATIONS: REGULATORY, ETHICAL, AND TRIAL OVERSIGHT</t>
+  </si>
+  <si>
+    <t>10.1</t>
+  </si>
+  <si>
+    <t>Regulatory and Ethical Considerations</t>
+  </si>
+  <si>
+    <t>10.2</t>
+  </si>
+  <si>
+    <t>Committees</t>
+  </si>
+  <si>
+    <t>10.3</t>
+  </si>
+  <si>
+    <t>Informed Consent Process</t>
+  </si>
+  <si>
+    <t>10.4</t>
+  </si>
+  <si>
+    <t>Data Protection</t>
+  </si>
+  <si>
+    <t>10.5</t>
+  </si>
+  <si>
+    <t>Early Site Closure or Trial Termination</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>GENERAL CONSIDERATIONS: RISK MANAGEMENT AND QUALITY ASSURANCE</t>
+  </si>
+  <si>
+    <t>11.1</t>
+  </si>
+  <si>
+    <t>Quality Tolerance Limits</t>
+  </si>
+  <si>
+    <t>11.2</t>
+  </si>
+  <si>
+    <t>Data Quality Assurance</t>
+  </si>
+  <si>
+    <t>11.3</t>
+  </si>
+  <si>
+    <t>Source Data</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>APPENDIX: ADVERSE EVENTS AND SERIOUS ADVERSE EVENTS - DEFINITIONS, SEVERITY, AND CAUSALITY</t>
+  </si>
+  <si>
+    <t>12.1</t>
+  </si>
+  <si>
+    <t>Further Details and Clarifications on the AE Definition</t>
+  </si>
+  <si>
+    <t>12.2</t>
+  </si>
+  <si>
+    <t>Further Details and Clarifications on the SAE Definition</t>
+  </si>
+  <si>
+    <t>12.3</t>
+  </si>
+  <si>
+    <t>Severity</t>
+  </si>
+  <si>
+    <t>12.4</t>
+  </si>
+  <si>
+    <t>Causality</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>APPENDIX: DEFINITIONS AND SUPPORTING OPERATIONAL DETAILS</t>
+  </si>
+  <si>
+    <t>13.1</t>
+  </si>
+  <si>
+    <t>Contraception and Pregnancy Testing</t>
+  </si>
+  <si>
+    <t>13.1.1</t>
+  </si>
+  <si>
+    <t>Definitions Related to Childbearing Potential</t>
+  </si>
+  <si>
+    <t>13.1.2</t>
+  </si>
+  <si>
+    <t>Contraception</t>
+  </si>
+  <si>
+    <t>13.1.3</t>
+  </si>
+  <si>
+    <t>Pregnancy Testing</t>
+  </si>
+  <si>
+    <t>13.2</t>
+  </si>
+  <si>
+    <t>Clinical Laboratory Tests</t>
+  </si>
+  <si>
+    <t>13.3</t>
+  </si>
+  <si>
+    <t>Country/Region-Specific Differences</t>
+  </si>
+  <si>
+    <t>13.4</t>
+  </si>
+  <si>
+    <t>Prior Protocol Amendments</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>APPENDIX: GLOSSARY OF TERMS</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>APPENDIX: REFERENCES</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>&lt;p&gt;The study will be double-blind. To further preserve the blinding of the study, only a minimum number of Lilly and CRO personnel will see the randomization table and codes before the study is complete.&lt;/p&gt;
+&lt;p&gt;Emergency codes generated by a computer drug-labeling system will be available to the investigator. These codes, which reveal the patients treatment group, may be opened during the study only if the choice of follow-up treatment depends on the patient’s therapy assignment.&lt;/p&gt;
+&lt;p&gt;The investigator should make every effort to contact the clinical research physician prior to unblinding a patient’s therapy assignment. If a patient’s therapy assignment is unblinded, Lilly must be notified immediately by telephone. After the study, the investigator must return all sealed and any opened codes.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Patients may be included in the study only if they meet &lt;strong&gt;all&lt;/strong&gt; the following criteria:&lt;/p&gt;
+&lt;table&gt;
+  &lt;tr&gt;
+    &lt;td style="vertical-align: top"&gt;[1]&lt;/td&gt;
+    &lt;td style="vertical-align: top"&gt;
+      Males and postmenopausal females at least 50 years of age.
+    &lt;/td&gt;
+  &lt;/tr&gt;
+  &lt;tr&gt;
+    &lt;td style="vertical-align: top"&gt;[2]&lt;/td&gt;
+    &lt;td style="vertical-align: top"&gt;Diagnosis of probable AD as defined by National Institute of Neurological and Communicative Disorders and Stroke
+      (NINCDS) and the Alzheimer’s Disease and Related Disorders Association (ADRDA) guidelines (Attachment LZZT.7).
+  &lt;/tr&gt;
+  &lt;tr&gt;
+    &lt;td style="vertical-align: top"&gt;[3]&lt;/td&gt;
+    &lt;td style="vertical-align: top"&gt;MMSE score of 10 to 23.&lt;/td&gt; 
+  &lt;/tr&gt;
+  &lt;tr&gt;
+    &lt;td style="vertical-align: top"&gt;[4]&lt;/td&gt;
+    &lt;td style="vertical-align: top"&gt;Hachinski Ischemic Scale score of ≤4 (Attachment LZZT.8).&lt;/td&gt;
+  &lt;/tr&gt;
+  &lt;tr&gt;
+    &lt;td style="vertical-align: top"&gt;[5]&lt;/td&gt;
+    &lt;td style="vertical-align: top"&gt;CNS imaging (CT scan or MRI of brain) compatible with AD within past 1 year.
+      The following findings are incompatible with AD:
+      &lt;ol type="a"&gt;
+        &lt;li&gt;Large vessel strokes
+          &lt;ol type="1"&gt;
+            &lt;li&gt;Any definite area of encephalomalacia consistent with ischemic necrosis in any cerebral artery
+              territory.&lt;/li&gt;
+            &lt;li&gt;Large, confluent areas of encephalomalacia in parieto-occipital or frontal regions consistent with
+              watershed infarcts. The above are exclusionary. Exceptions are made for small areas of cortical asymmetry
+              which may represent a small cortical stroke or a focal area of atrophy provided there is no abnormal
+              signal intensity in the immediately underlying parenchyma. Only one such questionable area allowed per
+              scan, and size is restricted to ≤1cm in frontal/parietal/temporal cortices and ≤2 cm in occipital cortex.
+            &lt;/li&gt;
+          &lt;/ol&gt;
+        &lt;/li&gt;
+        &lt;li&gt;Small vessel ischemia
+          &lt;ol type="1"&gt;
+            &lt;li&gt;Lacunar infarct is defined as an area of abnormal intensity seen on CT scan or on both T1 and T2
+              weighted MRI images in the basal ganglia, thalamus or deep white matter which is ≤1 cm in maximal
+              diameter. A maximum of one lacune is allowed per scan.&lt;/li&gt;
+            &lt;li&gt;Leukoariosis or leukoencephalopathy is regarded as an abnormality seen on T2 but not T1 weighted MRIs,
+              or on CT. This is accepted if mild or moderate in extent, meaning involvement of less than 25% of cortical
+              white matter.&lt;/li&gt;
+          &lt;/ol&gt;
+        &lt;/li&gt;
+        &lt;li&gt;Miscellaneous
+          &lt;ol type="1"&gt;
+            &lt;li&gt;Benign small extra-axial tumors (ie, meningiomas) are accepted if they do not contact or indent the
+              brain parenchyma.&lt;/li&gt;
+            &lt;li&gt;extra-axial arachnoid cysts are accepted if they do not indent or deform the brain parenchyma.&lt;/li&gt;
+          &lt;/ol&gt;
+        &lt;/li&gt;
+      &lt;/ol&gt;
+    &lt;/td&gt;
+  &lt;/tr&gt;
+  &lt;tr&gt;
+    &lt;td style="vertical-align: top"&gt;[6]&lt;/td&gt;
+    &lt;td style="vertical-align: top"&gt;Investigator has obtained informed consent signed by the patient (and/or legal representative) and by the
+      caregiver.&lt;/td&gt;
+  &lt;/tr&gt;
+  &lt;tr&gt;
+    &lt;td style="vertical-align: top"&gt;[7]&lt;/td&gt;
+    &lt;td style="vertical-align: top"&gt;Geographic proximity to investigator’s site that allows adequate follow-up.&lt;/td&gt;
+  &lt;/tr&gt;
+  &lt;tr&gt;
+    &lt;td style="vertical-align: top"&gt;[8]&lt;/td&gt;
+    &lt;td style="vertical-align: top"&gt;A reliable caregiver who is in frequent or daily contact with the patient and who will accompany the patient to
+      the office and/or be available by telephone at designated times, will monitor administration of prescribed
+      medications, and will be responsible for the overall care of the patient at home. The caregiver and the patient
+      must be able to communicate in English and willing to comply with 26 weeks of transdermal therapy.&lt;/td&gt;
+  &lt;/tr&gt;
+&lt;table&gt;</t>
+  </si>
+  <si>
+    <t>Alzheimer's Disease Assessment Scale - Cognitive Subscale, total of 11 items [ADAS-Cog (11)] at Week 24</t>
+  </si>
+  <si>
+    <t>Video-referenced Clinician’s Interview-based Impression of Change (CIBIC+) at Week 24</t>
+  </si>
+  <si>
+    <t>Alzheimer's Disease Assessment Scale - Cognitive Subscale, total of 11 items [ADAS-Cog (11)] at Weeks 8 and 16</t>
+  </si>
+  <si>
+    <t>Video-referenced Clinician’s Interview-based Impression of Change (CIBIC+) at Weeks 8 and 16</t>
+  </si>
+  <si>
+    <t>The change from baseline laboratory value will be  calculated as the difference between the baseline lab value and the endpoint value (i.e., the value at the specified visit) or the end of treatment observation</t>
+  </si>
+  <si>
+    <t>3.1</t>
+  </si>
+  <si>
+    <t>Primary Objectives</t>
+  </si>
+  <si>
+    <t>&lt;table&gt;
+  &lt;tr&gt;
+    &lt;th style="vertical-align: top"&gt;&lt;p&gt;Primary Objective&lt;/p&gt;&lt;/th&gt;
+    &lt;th style="vertical-align: top"&gt;&lt;p&gt;Primary Endpoint&lt;/p&gt;&lt;/th&gt;
+  &lt;/tr&gt;
+  &lt;tr&gt;
+    &lt;td style="vertical-align: top"&gt;&lt;p&gt;&lt;usdm:ref klass="Objective" namexref="OBJ1" attribute="description"/&gt;&lt;/p&gt;&lt;/td&gt;
+    &lt;td style="vertical-align: top"&gt;
+      &lt;p&gt;&lt;usdm:ref klass="Endpoint" namexref="END1" attribute="description"/&gt;&lt;/p&gt;
+      &lt;p&gt;&lt;usdm:ref klass="Endpoint" namexref="END2" attribute="description"/&gt;&lt;/p&gt;
+    &lt;/td&gt;
+  &lt;/tr&gt;
+  &lt;tr&gt;
+    &lt;td style="vertical-align: top"&gt;&lt;p&gt;&lt;usdm:ref klass="Objective" namexref="OBJ2" attribute="description"/&gt;&lt;/p&gt;&lt;/td&gt;
+    &lt;td style="vertical-align: top"&gt;
+      &lt;p&gt;&lt;usdm:ref klass="Endpoint" namexref="END3" attribute="description"/&gt;&lt;/p&gt;
+      &lt;p&gt;&lt;usdm:ref klass="Endpoint" namexref="END4" attribute="description"/&gt;&lt;/p&gt;
+      &lt;p&gt;&lt;usdm:ref klass="Endpoint" namexref="END5" attribute="description"/&gt;&lt;/p&gt;
+    &lt;/td&gt;
+  &lt;/tr&gt;
+&lt;/table&gt;</t>
+  </si>
+  <si>
+    <t>Safety and Efficacy of the Xanomeline Transdermal Therapeutic System (TTS) in Patients with Mild to Moderate Alzheimer's Disease</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>TITLE PAGE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;table&gt;
+  &lt;tr&gt;
+    &lt;th style="vertical-align: top; text-align: left"&gt;&lt;p&gt;Protocol Full Title:&lt;/p&gt;&lt;/th&gt;
+    &lt;td style="vertical-align: top; text-align: left"&gt;&lt;p&gt;&lt;usdm:ref klass="StudyProtocolVersion" id="StudyProtocolVersion_1" attribute="officialTitle"/&gt;&lt;/p&gt;&lt;/td&gt;
+  &lt;/tr&gt;
+  &lt;tr&gt;
+    &lt;th style="vertical-align: top; text-align: left"&gt;&lt;p&gt;Protocol Number:&lt;/p&gt;&lt;/th&gt;
+    &lt;td style="vertical-align: top; text-align: left"&gt;&lt;p&gt;&lt;usdm:ref klass="StudyIdentifier" id="StudyIdentifier_1" attribute="studyIdentifier"/&gt;&lt;/p&gt;&lt;/td&gt;
+  &lt;/tr&gt;
+  &lt;tr&gt;
+    &lt;th style="vertical-align: top; text-align: left"&gt;&lt;p&gt;Version:&lt;/p&gt;&lt;/th&gt;
+    &lt;td style="vertical-align: top; text-align: left"&gt;&lt;p&gt;&lt;usdm:ref klass="" namexref="" attribute=""/&gt;&lt;/p&gt;&lt;/td&gt;
+  &lt;/tr&gt;
+  &lt;tr&gt;
+    &lt;th style="vertical-align: top; text-align: left"&gt;&lt;p&gt;Amendment Number:&lt;/p&gt;&lt;/th&gt;
+    &lt;td style="vertical-align: top; text-align: left"&gt;&lt;p&gt;&lt;usdm:ref klass="" namexref="" attribute=""/&gt;&lt;/p&gt;&lt;/td&gt;
+  &lt;/tr&gt;
+  &lt;tr&gt;
+    &lt;th style="vertical-align: top; text-align: left"&gt;&lt;p&gt;Amendment Scope:&lt;/p&gt;&lt;/th&gt;
+    &lt;td style="vertical-align: top; text-align: left"&gt;&lt;p&gt;&lt;usdm:ref klass="" namexref="" attribute=""/&gt;&lt;/p&gt;&lt;/td&gt;
+  &lt;/tr&gt;
+  &lt;tr&gt;
+    &lt;th style="vertical-align: top; text-align: left"&gt;&lt;p&gt;Compound Number(s):&lt;/p&gt;&lt;/th&gt;
+    &lt;td style="vertical-align: top; text-align: left"&gt;&lt;p&gt;&lt;usdm:ref klass="" namexref="" attribute=""/&gt;&lt;/p&gt;&lt;/td&gt;
+  &lt;/tr&gt; 
+  &lt;tr&gt;
+    &lt;th style="vertical-align: top; text-align: left"&gt;&lt;p&gt;Compound Name(s):&lt;/p&gt;&lt;/th&gt;
+    &lt;td style="vertical-align: top; text-align: left"&gt;&lt;p&gt;&lt;usdm:ref klass="" namexref="" attribute=""/&gt;&lt;/p&gt;&lt;/td&gt;
+  &lt;/tr&gt;  
+  &lt;tr&gt;
+    &lt;th style="vertical-align: top; text-align: left"&gt;&lt;p&gt;Trial Phase:&lt;/p&gt;&lt;/th&gt;
+    &lt;td style="vertical-align: top; text-align: left"&gt;&lt;p&gt;&lt;usdm:ref klass="Code" id="Code_2" attribute="decode"/&gt;&lt;/p&gt;&lt;/td&gt;
+  &lt;/tr&gt;
+  &lt;tr&gt;
+    &lt;th style="vertical-align: top; text-align: left"&gt;&lt;p&gt;Acronym:&lt;/p&gt;&lt;/th&gt;
+    &lt;td style="vertical-align: top; text-align: left"&gt;&lt;p&gt;&lt;usdm:ref klass="Study" namexref="STUDY" attribute="studyAcronym"/&gt;&lt;/p&gt;&lt;/td&gt;
+  &lt;/tr&gt;
+  &lt;tr&gt;
+    &lt;th style="vertical-align: top; text-align: left"&gt;&lt;p&gt;Short Title:&lt;/p&gt;&lt;/th&gt;
+    &lt;td style="vertical-align: top; text-align: left"&gt;&lt;p&gt;&lt;usdm:ref klass="StudyProtocolVersion" id="StudyProtocolVersion_1" attribute="briefTitle"/&gt;&lt;/p&gt;&lt;/td&gt;
+  &lt;/tr&gt;
+  &lt;tr&gt;
+    &lt;th style="vertical-align: top; text-align: left"&gt;&lt;p&gt;Sponsor Name and Address:&lt;/p&gt;&lt;/th&gt;
+    &lt;td style="vertical-align: top; text-align: left"&gt;&lt;p&gt;&lt;usdm:ref klass="" namexref="" attribute=""/&gt;&lt;/p&gt;&lt;/td&gt;
+  &lt;/tr&gt;
+&lt;/table&gt;
+</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1078,12 +2021,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Helvetica"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Lucida Grande"/>
@@ -1096,7 +2033,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1115,6 +2052,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1128,7 +2071,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1180,15 +2123,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -1211,11 +2145,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1239,10 +2173,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
@@ -1263,17 +2197,29 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1594,14 +2540,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2E79CD3-D94C-A14B-9EDC-9C26AFA63552}">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="24.5" customWidth="1"/>
-    <col min="2" max="2" width="98.1640625" customWidth="1"/>
+    <col min="2" max="2" width="71" customWidth="1"/>
     <col min="3" max="3" width="47" customWidth="1"/>
     <col min="4" max="4" width="23.33203125" customWidth="1"/>
     <col min="5" max="5" width="16" customWidth="1"/>
@@ -1613,8 +2559,8 @@
       <c r="A1" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="30" t="s">
-        <v>274</v>
+      <c r="B1" s="27" t="s">
+        <v>585</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -1646,10 +2592,10 @@
         <v>78</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="106" customHeight="1" x14ac:dyDescent="0.2">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A6" s="18" t="s">
         <v>79</v>
       </c>
@@ -1691,24 +2637,24 @@
         <v>87</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="68" x14ac:dyDescent="0.2">
-      <c r="A10" s="22" t="s">
+    <row r="10" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A10" s="15" t="s">
         <v>159</v>
       </c>
-      <c r="B10" s="23" t="s">
-        <v>275</v>
-      </c>
-      <c r="C10" s="23" t="s">
-        <v>278</v>
+      <c r="B10" s="19" t="s">
+        <v>585</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>585</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="E10" s="1">
         <v>1</v>
       </c>
       <c r="F10" s="1"/>
-      <c r="G10" s="21">
+      <c r="G10" s="49">
         <v>38718</v>
       </c>
       <c r="H10" s="1" t="s">
@@ -1722,6 +2668,335 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9162AE3F-0A5D-824F-8BC1-E6A493EFAA49}">
+  <dimension ref="A1:K22"/>
+  <sheetViews>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.5" style="15" customWidth="1"/>
+    <col min="2" max="2" width="44" style="15" customWidth="1"/>
+    <col min="3" max="4" width="18.83203125" style="15" customWidth="1"/>
+    <col min="5" max="5" width="59.5" style="15" customWidth="1"/>
+    <col min="6" max="7" width="31.5" style="15" customWidth="1"/>
+    <col min="8" max="11" width="10.83203125" style="15"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+    </row>
+    <row r="2" spans="1:11" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>258</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>577</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+    </row>
+    <row r="3" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="D3" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>578</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D5" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+    </row>
+    <row r="6" spans="1:11" ht="96" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D6" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>279</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>581</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+    </row>
+    <row r="7" spans="1:11" ht="85" x14ac:dyDescent="0.2">
+      <c r="A7" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>259</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>579</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+    </row>
+    <row r="8" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="D8" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>580</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D9" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D036654E-7FF8-D440-BC0A-D74BC57BB3C9}">
   <dimension ref="A1:H1"/>
   <sheetViews>
@@ -1771,7 +3046,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B29E6393-3A18-464C-A40D-B41879707264}">
   <dimension ref="A1:G5"/>
   <sheetViews>
@@ -1785,8 +3060,8 @@
     <col min="2" max="2" width="15.83203125" customWidth="1"/>
     <col min="3" max="3" width="19.5" customWidth="1"/>
     <col min="4" max="4" width="14.83203125" customWidth="1"/>
-    <col min="5" max="5" width="27.33203125" style="41" customWidth="1"/>
-    <col min="6" max="6" width="24" style="27" customWidth="1"/>
+    <col min="5" max="5" width="27.33203125" style="38" customWidth="1"/>
+    <col min="6" max="6" width="24" style="24" customWidth="1"/>
     <col min="7" max="7" width="29.6640625" customWidth="1"/>
     <col min="8" max="8" width="14.83203125" customWidth="1"/>
   </cols>
@@ -1795,22 +3070,22 @@
       <c r="A1" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="25" t="s">
-        <v>310</v>
-      </c>
-      <c r="C1" s="25" t="s">
-        <v>311</v>
-      </c>
-      <c r="D1" s="25" t="s">
+      <c r="B1" s="22" t="s">
+        <v>302</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>303</v>
+      </c>
+      <c r="D1" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="E1" s="44" t="s">
+      <c r="E1" s="41" t="s">
         <v>104</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="F1" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="G1" s="22" t="s">
         <v>106</v>
       </c>
     </row>
@@ -1819,16 +3094,16 @@
         <v>107</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="15"/>
@@ -1842,7 +3117,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CB4E9D5-B601-284A-9651-0AA604C2B9D1}">
   <dimension ref="A1:AF36"/>
   <sheetViews>
@@ -1862,28 +3137,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="25" t="s">
         <v>112</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="G1" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="H1" s="35" t="s">
+      <c r="H1" s="32" t="s">
         <v>118</v>
       </c>
     </row>
@@ -2026,7 +3301,7 @@
       <c r="A8" t="s">
         <v>130</v>
       </c>
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="29" t="s">
         <v>229</v>
       </c>
       <c r="C8" s="3" t="s">
@@ -2067,7 +3342,7 @@
         <v>132</v>
       </c>
       <c r="B10" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="C10" t="s">
         <v>179</v>
@@ -2181,7 +3456,7 @@
       <c r="F15" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="H15" s="36"/>
+      <c r="H15" s="33"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
@@ -2301,7 +3576,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6FA5DC6-70BE-E845-A085-20526138A835}">
   <dimension ref="A1:E8"/>
   <sheetViews>
@@ -2319,19 +3594,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="25" t="s">
         <v>144</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="25" t="s">
         <v>118</v>
       </c>
     </row>
@@ -2356,13 +3631,13 @@
       <c r="A3" t="s">
         <v>236</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="29" t="s">
         <v>168</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="D3" s="32" t="s">
+      <c r="D3" s="29" t="s">
         <v>240</v>
       </c>
     </row>
@@ -2376,7 +3651,7 @@
       <c r="C4" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="D4" s="32" t="s">
+      <c r="D4" s="29" t="s">
         <v>240</v>
       </c>
     </row>
@@ -2398,13 +3673,13 @@
       <c r="A6" t="s">
         <v>151</v>
       </c>
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="29" t="s">
         <v>245</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="D6" s="32" t="s">
+      <c r="D6" s="29" t="s">
         <v>246</v>
       </c>
     </row>
@@ -2412,13 +3687,13 @@
       <c r="A7" t="s">
         <v>237</v>
       </c>
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="29" t="s">
         <v>248</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="D7" s="32" t="s">
+      <c r="D7" s="29" t="s">
         <v>249</v>
       </c>
     </row>
@@ -2432,10 +3707,10 @@
       <c r="C8" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="D8" s="43" t="s">
+      <c r="D8" s="40" t="s">
         <v>251</v>
       </c>
-      <c r="E8" s="43" t="s">
+      <c r="E8" s="40" t="s">
         <v>252</v>
       </c>
     </row>
@@ -2445,7 +3720,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ED6534B-B4C9-924A-BB14-180C2C37C6F1}">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -2457,7 +3732,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="26" t="s">
         <v>91</v>
       </c>
       <c r="B1" t="s">
@@ -2465,7 +3740,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="26" t="s">
         <v>91</v>
       </c>
       <c r="B2" t="s">
@@ -2473,19 +3748,19 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="26" t="s">
         <v>91</v>
       </c>
       <c r="B3" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="26" t="s">
         <v>91</v>
       </c>
       <c r="B4" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
     </row>
   </sheetData>
@@ -2495,6 +3770,1261 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2976DC75-5A85-2A48-9FBD-A6539815E624}">
+  <dimension ref="A1:D139"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C2" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.1640625" style="15" customWidth="1"/>
+    <col min="2" max="2" width="16" style="3" customWidth="1"/>
+    <col min="3" max="3" width="49.83203125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="129.5" style="6" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="47" t="s">
+        <v>311</v>
+      </c>
+      <c r="B1" s="47" t="s">
+        <v>312</v>
+      </c>
+      <c r="C1" s="32" t="s">
+        <v>313</v>
+      </c>
+      <c r="D1" s="32" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A2" s="50" t="s">
+        <v>586</v>
+      </c>
+      <c r="B2" s="48"/>
+      <c r="C2" s="6" t="s">
+        <v>587</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="15" t="s">
+        <v>315</v>
+      </c>
+      <c r="B3" s="48"/>
+      <c r="C3" s="6" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="15" t="s">
+        <v>317</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" s="15" t="s">
+        <v>319</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="15" t="s">
+        <v>321</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="15" t="s">
+        <v>323</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="15" t="s">
+        <v>325</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="15" t="s">
+        <v>327</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" s="15" t="s">
+        <v>329</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="388" x14ac:dyDescent="0.2">
+      <c r="A11" s="50" t="s">
+        <v>582</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>583</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" s="15" t="s">
+        <v>331</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" s="15" t="s">
+        <v>333</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14" s="15" t="s">
+        <v>335</v>
+      </c>
+      <c r="B14" s="48"/>
+      <c r="C14" s="6" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="15" t="s">
+        <v>337</v>
+      </c>
+      <c r="B15" s="48"/>
+      <c r="C15" s="6" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" s="15" t="s">
+        <v>339</v>
+      </c>
+      <c r="B16" s="48"/>
+      <c r="C16" s="6" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A17" s="15" t="s">
+        <v>341</v>
+      </c>
+      <c r="B17" s="48"/>
+      <c r="C17" s="6" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A18" s="15" t="s">
+        <v>343</v>
+      </c>
+      <c r="B18" s="48"/>
+      <c r="C18" s="6" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A19" s="15" t="s">
+        <v>345</v>
+      </c>
+      <c r="B19" s="48"/>
+      <c r="C19" s="6" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A20" s="15" t="s">
+        <v>347</v>
+      </c>
+      <c r="B20" s="48"/>
+      <c r="C20" s="6" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A21" s="15" t="s">
+        <v>349</v>
+      </c>
+      <c r="B21" s="48"/>
+      <c r="C21" s="6" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A22" s="15" t="s">
+        <v>351</v>
+      </c>
+      <c r="B22" s="48"/>
+      <c r="C22" s="6" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A23" s="15" t="s">
+        <v>353</v>
+      </c>
+      <c r="B23" s="48"/>
+      <c r="C23" s="6" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A24" s="15" t="s">
+        <v>355</v>
+      </c>
+      <c r="B24" s="48"/>
+      <c r="C24" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A25" s="15" t="s">
+        <v>357</v>
+      </c>
+      <c r="B25" s="48"/>
+      <c r="C25" s="6" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A26" s="15" t="s">
+        <v>359</v>
+      </c>
+      <c r="B26" s="48"/>
+      <c r="C26" s="6" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A27" s="15" t="s">
+        <v>361</v>
+      </c>
+      <c r="B27" s="48"/>
+      <c r="C27" s="6" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A28" s="15" t="s">
+        <v>363</v>
+      </c>
+      <c r="B28" s="48"/>
+      <c r="C28" s="6" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A29" s="15" t="s">
+        <v>365</v>
+      </c>
+      <c r="B29" s="48"/>
+      <c r="C29" s="6" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A30" s="15" t="s">
+        <v>367</v>
+      </c>
+      <c r="B30" s="48"/>
+      <c r="C30" s="6" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A31" s="15" t="s">
+        <v>369</v>
+      </c>
+      <c r="B31" s="48"/>
+      <c r="C31" s="6" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A32" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="B32" s="48"/>
+      <c r="C32" s="6" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A33" s="15" t="s">
+        <v>373</v>
+      </c>
+      <c r="B33" s="48"/>
+      <c r="C33" s="6" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A34" s="15" t="s">
+        <v>375</v>
+      </c>
+      <c r="B34" s="48"/>
+      <c r="C34" s="6" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A35" s="15" t="s">
+        <v>377</v>
+      </c>
+      <c r="B35" s="48"/>
+      <c r="C35" s="6" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A36" s="15" t="s">
+        <v>379</v>
+      </c>
+      <c r="B36" s="48"/>
+      <c r="C36" s="6" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A37" s="15" t="s">
+        <v>381</v>
+      </c>
+      <c r="B37" s="48"/>
+      <c r="C37" s="6" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A38" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="B38" s="48"/>
+      <c r="C38" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A39" s="15" t="s">
+        <v>385</v>
+      </c>
+      <c r="B39" s="48"/>
+      <c r="C39" s="6" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A40" s="15" t="s">
+        <v>387</v>
+      </c>
+      <c r="B40" s="48"/>
+      <c r="C40" s="6" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A41" s="15" t="s">
+        <v>389</v>
+      </c>
+      <c r="B41" s="48"/>
+      <c r="C41" s="6" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A42" s="15" t="s">
+        <v>391</v>
+      </c>
+      <c r="B42" s="48"/>
+      <c r="C42" s="6" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A43" s="15" t="s">
+        <v>393</v>
+      </c>
+      <c r="B43" s="48"/>
+      <c r="C43" s="6" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A44" s="15" t="s">
+        <v>395</v>
+      </c>
+      <c r="B44" s="48"/>
+      <c r="C44" s="6" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="187" x14ac:dyDescent="0.2">
+      <c r="A45" s="15" t="s">
+        <v>397</v>
+      </c>
+      <c r="B45" s="48"/>
+      <c r="C45" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A46" s="15" t="s">
+        <v>399</v>
+      </c>
+      <c r="B46" s="48"/>
+      <c r="C46" s="6" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A47" s="15" t="s">
+        <v>401</v>
+      </c>
+      <c r="B47" s="48"/>
+      <c r="C47" s="6" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A48" s="15" t="s">
+        <v>403</v>
+      </c>
+      <c r="B48" s="48"/>
+      <c r="C48" s="6" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A49" s="15" t="s">
+        <v>405</v>
+      </c>
+      <c r="B49" s="48"/>
+      <c r="C49" s="6" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A50" s="15" t="s">
+        <v>407</v>
+      </c>
+      <c r="B50" s="48"/>
+      <c r="C50" s="6" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A51" s="15" t="s">
+        <v>409</v>
+      </c>
+      <c r="B51" s="48"/>
+      <c r="C51" s="6" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A52" s="15" t="s">
+        <v>411</v>
+      </c>
+      <c r="B52" s="48"/>
+      <c r="C52" s="6" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A53" s="15" t="s">
+        <v>413</v>
+      </c>
+      <c r="B53" s="48"/>
+      <c r="C53" s="6" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A54" s="15" t="s">
+        <v>415</v>
+      </c>
+      <c r="B54" s="48"/>
+      <c r="C54" s="6" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A55" s="15" t="s">
+        <v>417</v>
+      </c>
+      <c r="B55" s="48"/>
+      <c r="C55" s="6" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A56" s="15" t="s">
+        <v>419</v>
+      </c>
+      <c r="B56" s="48"/>
+      <c r="C56" s="6" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A57" s="15" t="s">
+        <v>421</v>
+      </c>
+      <c r="B57" s="48"/>
+      <c r="C57" s="6" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A58" s="15" t="s">
+        <v>423</v>
+      </c>
+      <c r="B58" s="48"/>
+      <c r="C58" s="6" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A59" s="15" t="s">
+        <v>425</v>
+      </c>
+      <c r="B59" s="48"/>
+      <c r="C59" s="6" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A60" s="15" t="s">
+        <v>427</v>
+      </c>
+      <c r="B60" s="48"/>
+      <c r="C60" s="6" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A61" s="15" t="s">
+        <v>429</v>
+      </c>
+      <c r="B61" s="48"/>
+      <c r="C61" s="6" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A62" s="15" t="s">
+        <v>431</v>
+      </c>
+      <c r="B62" s="48"/>
+      <c r="C62" s="6" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A63" s="15" t="s">
+        <v>433</v>
+      </c>
+      <c r="B63" s="48"/>
+      <c r="C63" s="6" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A64" s="15" t="s">
+        <v>435</v>
+      </c>
+      <c r="B64" s="48"/>
+      <c r="C64" s="6" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A65" s="15" t="s">
+        <v>437</v>
+      </c>
+      <c r="B65" s="48"/>
+      <c r="C65" s="6" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A66" s="15" t="s">
+        <v>439</v>
+      </c>
+      <c r="B66" s="48"/>
+      <c r="C66" s="6" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A67" s="15" t="s">
+        <v>441</v>
+      </c>
+      <c r="B67" s="48"/>
+      <c r="C67" s="6" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A68" s="15" t="s">
+        <v>443</v>
+      </c>
+      <c r="B68" s="48"/>
+      <c r="C68" s="6" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A69" s="15" t="s">
+        <v>445</v>
+      </c>
+      <c r="B69" s="48"/>
+      <c r="C69" s="6" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A70" s="15" t="s">
+        <v>447</v>
+      </c>
+      <c r="B70" s="48"/>
+      <c r="C70" s="6" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A71" s="15" t="s">
+        <v>449</v>
+      </c>
+      <c r="B71" s="48"/>
+      <c r="C71" s="6" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A72" s="15" t="s">
+        <v>451</v>
+      </c>
+      <c r="B72" s="48"/>
+      <c r="C72" s="6" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A73" s="15" t="s">
+        <v>453</v>
+      </c>
+      <c r="B73" s="48"/>
+      <c r="C73" s="6" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A74" s="15" t="s">
+        <v>455</v>
+      </c>
+      <c r="B74" s="48"/>
+      <c r="C74" s="6" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A75" s="15" t="s">
+        <v>457</v>
+      </c>
+      <c r="B75" s="48"/>
+      <c r="C75" s="6" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A76" s="15" t="s">
+        <v>459</v>
+      </c>
+      <c r="B76" s="48"/>
+      <c r="C76" s="6" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A77" s="15" t="s">
+        <v>461</v>
+      </c>
+      <c r="B77" s="48"/>
+      <c r="C77" s="6" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A78" s="15" t="s">
+        <v>463</v>
+      </c>
+      <c r="B78" s="48"/>
+      <c r="C78" s="6" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A79" s="15" t="s">
+        <v>465</v>
+      </c>
+      <c r="B79" s="48"/>
+      <c r="C79" s="6" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A80" s="15" t="s">
+        <v>467</v>
+      </c>
+      <c r="B80" s="48"/>
+      <c r="C80" s="6" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A81" s="15" t="s">
+        <v>469</v>
+      </c>
+      <c r="B81" s="48"/>
+      <c r="C81" s="6" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A82" s="15" t="s">
+        <v>471</v>
+      </c>
+      <c r="B82" s="48"/>
+      <c r="C82" s="6" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A83" s="15" t="s">
+        <v>473</v>
+      </c>
+      <c r="B83" s="48"/>
+      <c r="C83" s="6" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A84" s="15" t="s">
+        <v>475</v>
+      </c>
+      <c r="B84" s="48"/>
+      <c r="C84" s="6" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A85" s="15" t="s">
+        <v>477</v>
+      </c>
+      <c r="B85" s="48"/>
+      <c r="C85" s="6" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A86" s="15" t="s">
+        <v>479</v>
+      </c>
+      <c r="B86" s="48"/>
+      <c r="C86" s="6" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A87" s="15" t="s">
+        <v>481</v>
+      </c>
+      <c r="B87" s="48"/>
+      <c r="C87" s="6" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A88" s="15" t="s">
+        <v>483</v>
+      </c>
+      <c r="B88" s="48"/>
+      <c r="C88" s="6" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A89" s="15" t="s">
+        <v>485</v>
+      </c>
+      <c r="B89" s="48"/>
+      <c r="C89" s="6" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A90" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="B90" s="48"/>
+      <c r="C90" s="6" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A91" s="15" t="s">
+        <v>489</v>
+      </c>
+      <c r="B91" s="48"/>
+      <c r="C91" s="6" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A92" s="15" t="s">
+        <v>429</v>
+      </c>
+      <c r="B92" s="48"/>
+      <c r="C92" s="6" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A93" s="15" t="s">
+        <v>492</v>
+      </c>
+      <c r="B93" s="48"/>
+      <c r="C93" s="6" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A94" s="15" t="s">
+        <v>494</v>
+      </c>
+      <c r="B94" s="48"/>
+      <c r="C94" s="6" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A95" s="15" t="s">
+        <v>496</v>
+      </c>
+      <c r="B95" s="48"/>
+      <c r="C95" s="6" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A96" s="15" t="s">
+        <v>498</v>
+      </c>
+      <c r="B96" s="48"/>
+      <c r="C96" s="6" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A97" s="15" t="s">
+        <v>500</v>
+      </c>
+      <c r="B97" s="48"/>
+      <c r="C97" s="6" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A98" s="15" t="s">
+        <v>502</v>
+      </c>
+      <c r="B98" s="48"/>
+      <c r="C98" s="6" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A99" s="15" t="s">
+        <v>504</v>
+      </c>
+      <c r="B99" s="48"/>
+      <c r="C99" s="6" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A100" s="15" t="s">
+        <v>506</v>
+      </c>
+      <c r="B100" s="48"/>
+      <c r="C100" s="6" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A101" s="15" t="s">
+        <v>508</v>
+      </c>
+      <c r="B101" s="48"/>
+      <c r="C101" s="6" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A102" s="15" t="s">
+        <v>510</v>
+      </c>
+      <c r="B102" s="48"/>
+      <c r="C102" s="6" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A103" s="15" t="s">
+        <v>512</v>
+      </c>
+      <c r="B103" s="48"/>
+      <c r="C103" s="6" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A104" s="15" t="s">
+        <v>514</v>
+      </c>
+      <c r="B104" s="48"/>
+      <c r="C104" s="6" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A105" s="15" t="s">
+        <v>516</v>
+      </c>
+      <c r="B105" s="48"/>
+      <c r="C105" s="6" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A106" s="15" t="s">
+        <v>518</v>
+      </c>
+      <c r="B106" s="48"/>
+      <c r="C106" s="6" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A107" s="15" t="s">
+        <v>520</v>
+      </c>
+      <c r="B107" s="48"/>
+      <c r="C107" s="6" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A108" s="15" t="s">
+        <v>522</v>
+      </c>
+      <c r="B108" s="48"/>
+      <c r="C108" s="6" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A109" s="15" t="s">
+        <v>524</v>
+      </c>
+      <c r="B109" s="48"/>
+      <c r="C109" s="6" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A110" s="15" t="s">
+        <v>526</v>
+      </c>
+      <c r="B110" s="48"/>
+      <c r="C110" s="6" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A111" s="15" t="s">
+        <v>528</v>
+      </c>
+      <c r="B111" s="48"/>
+      <c r="C111" s="6" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A112" s="15" t="s">
+        <v>530</v>
+      </c>
+      <c r="B112" s="48"/>
+      <c r="C112" s="6" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A113" s="15" t="s">
+        <v>532</v>
+      </c>
+      <c r="B113" s="48"/>
+      <c r="C113" s="6" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A114" s="15" t="s">
+        <v>534</v>
+      </c>
+      <c r="B114" s="48"/>
+      <c r="C114" s="6" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A115" s="15" t="s">
+        <v>536</v>
+      </c>
+      <c r="B115" s="48"/>
+      <c r="C115" s="6" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A116" s="15" t="s">
+        <v>538</v>
+      </c>
+      <c r="B116" s="48"/>
+      <c r="C116" s="6" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A117" s="15" t="s">
+        <v>540</v>
+      </c>
+      <c r="B117" s="48"/>
+      <c r="C117" s="6" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A118" s="15" t="s">
+        <v>542</v>
+      </c>
+      <c r="B118" s="48"/>
+      <c r="C118" s="6" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A119" s="15" t="s">
+        <v>544</v>
+      </c>
+      <c r="B119" s="48"/>
+      <c r="C119" s="6" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A120" s="15" t="s">
+        <v>546</v>
+      </c>
+      <c r="B120" s="48"/>
+      <c r="C120" s="6" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A121" s="15" t="s">
+        <v>548</v>
+      </c>
+      <c r="B121" s="48"/>
+      <c r="C121" s="6" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A122" s="15" t="s">
+        <v>550</v>
+      </c>
+      <c r="B122" s="48"/>
+      <c r="C122" s="6" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A123" s="15" t="s">
+        <v>552</v>
+      </c>
+      <c r="B123" s="48"/>
+      <c r="C123" s="6" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A124" s="15" t="s">
+        <v>554</v>
+      </c>
+      <c r="B124" s="48"/>
+      <c r="C124" s="6" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A125" s="15" t="s">
+        <v>556</v>
+      </c>
+      <c r="B125" s="48"/>
+      <c r="C125" s="6" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A126" s="15" t="s">
+        <v>558</v>
+      </c>
+      <c r="B126" s="48"/>
+      <c r="C126" s="6" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A127" s="15" t="s">
+        <v>560</v>
+      </c>
+      <c r="B127" s="48"/>
+      <c r="C127" s="6" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A128" s="15" t="s">
+        <v>562</v>
+      </c>
+      <c r="B128" s="48"/>
+      <c r="C128" s="6" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A129" s="15" t="s">
+        <v>564</v>
+      </c>
+      <c r="B129" s="48"/>
+      <c r="C129" s="6" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A130" s="15" t="s">
+        <v>566</v>
+      </c>
+      <c r="B130" s="48"/>
+      <c r="C130" s="6" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A131" s="15" t="s">
+        <v>568</v>
+      </c>
+      <c r="B131" s="48"/>
+      <c r="C131" s="6" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A132" s="15" t="s">
+        <v>570</v>
+      </c>
+      <c r="B132" s="48"/>
+      <c r="C132" s="6" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A133" s="15" t="s">
+        <v>572</v>
+      </c>
+      <c r="B133" s="48"/>
+      <c r="C133" s="6" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A134" s="15" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A135" s="15" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A136" s="15" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A137" s="15" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A138" s="15" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A139" s="15" t="s">
+        <v>574</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91A054F5-5F55-D04A-9603-B97FC15141C8}">
   <dimension ref="A1:F4"/>
   <sheetViews>
@@ -2542,7 +5072,7 @@
         <v>94</v>
       </c>
       <c r="E2" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="F2" t="s">
         <v>161</v>
@@ -2557,7 +5087,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57AA03AF-8646-874D-935F-A73550A0FA0C}">
   <dimension ref="A1:F15"/>
   <sheetViews>
@@ -2574,52 +5104,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="21" t="s">
         <v>152</v>
       </c>
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="51" t="s">
         <v>153</v>
       </c>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="21" t="s">
         <v>154</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="51" t="s">
         <v>155</v>
       </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
     </row>
     <row r="3" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="51" t="s">
-        <v>276</v>
-      </c>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
+      <c r="B3" s="54" t="s">
+        <v>272</v>
+      </c>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
     </row>
     <row r="4" spans="1:6" ht="98" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="54" t="s">
         <v>157</v>
       </c>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
@@ -2636,12 +5166,12 @@
       <c r="A6" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="50" t="s">
+      <c r="B6" s="51" t="s">
         <v>164</v>
       </c>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
     </row>
     <row r="7" spans="1:6" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
@@ -2650,40 +5180,40 @@
       <c r="B7" s="53" t="s">
         <v>165</v>
       </c>
-      <c r="C7" s="50"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="50" t="s">
+      <c r="B8" s="51" t="s">
         <v>90</v>
       </c>
-      <c r="C8" s="50"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="50"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="51"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="B9" s="50" t="s">
+      <c r="B9" s="51" t="s">
         <v>95</v>
       </c>
-      <c r="C9" s="50"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="51"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="B10" s="50"/>
-      <c r="C10" s="50"/>
-      <c r="D10" s="50"/>
-      <c r="E10" s="50"/>
+      <c r="B10" s="51"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="51"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="8"/>
@@ -2703,17 +5233,17 @@
         <v>201</v>
       </c>
       <c r="D12" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="E12" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="E12" s="10" t="s">
-        <v>272</v>
-      </c>
       <c r="F12" s="10" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A13" s="31" t="s">
+      <c r="A13" s="28" t="s">
         <v>166</v>
       </c>
       <c r="B13" s="10" t="s">
@@ -2728,7 +5258,7 @@
       <c r="E13" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="F13" s="34" t="s">
+      <c r="F13" s="31" t="s">
         <v>250</v>
       </c>
     </row>
@@ -2739,51 +5269,51 @@
       <c r="B14" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="C14" s="37" t="s">
+      <c r="C14" s="34" t="s">
         <v>148</v>
       </c>
-      <c r="D14" s="37" t="s">
+      <c r="D14" s="34" t="s">
         <v>148</v>
       </c>
-      <c r="E14" s="37" t="s">
+      <c r="E14" s="34" t="s">
         <v>148</v>
       </c>
-      <c r="F14" s="34" t="s">
+      <c r="F14" s="31" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15" s="33" t="s">
-        <v>288</v>
+      <c r="A15" s="30" t="s">
+        <v>280</v>
       </c>
       <c r="B15" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="C15" s="37" t="s">
+      <c r="C15" s="34" t="s">
         <v>149</v>
       </c>
-      <c r="D15" s="38" t="s">
+      <c r="D15" s="35" t="s">
         <v>151</v>
       </c>
-      <c r="E15" s="37" t="s">
+      <c r="E15" s="34" t="s">
         <v>237</v>
       </c>
-      <c r="F15" s="34" t="s">
+      <c r="F15" s="31" t="s">
         <v>250</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B9:E9"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B9:E9"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2791,7 +5321,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BB09339-52DA-2A44-9E81-01CB7197E815}">
   <dimension ref="A1:E4"/>
   <sheetViews>
@@ -2809,71 +5339,71 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="28" t="s">
-        <v>290</v>
-      </c>
-      <c r="B1" s="28" t="s">
-        <v>291</v>
-      </c>
-      <c r="C1" s="28" t="s">
-        <v>292</v>
-      </c>
-      <c r="D1" s="28" t="s">
-        <v>293</v>
-      </c>
-      <c r="E1" s="28" t="s">
-        <v>294</v>
+      <c r="A1" s="25" t="s">
+        <v>282</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>283</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>284</v>
+      </c>
+      <c r="D1" s="25" t="s">
+        <v>285</v>
+      </c>
+      <c r="E1" s="25" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="44" t="s">
         <v>168</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>168</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="45" t="s">
         <v>167</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>296</v>
-      </c>
       <c r="D4" s="3" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
     </row>
   </sheetData>
@@ -2881,7 +5411,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{740737DA-2EE9-3B48-882B-C915DB285C6C}">
   <dimension ref="A1:C6"/>
   <sheetViews>
@@ -2897,25 +5427,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="28" t="s">
-        <v>300</v>
-      </c>
-      <c r="B1" s="28" t="s">
-        <v>301</v>
-      </c>
-      <c r="C1" s="28" t="s">
-        <v>302</v>
+      <c r="A1" s="25" t="s">
+        <v>292</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>293</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -2923,7 +5453,7 @@
         <v>201</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>164</v>
@@ -2931,10 +5461,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>164</v>
@@ -2942,24 +5472,24 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="49" t="s">
-        <v>307</v>
+      <c r="A6" s="46" t="s">
+        <v>299</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
     </row>
   </sheetData>
@@ -2967,7 +5497,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{136502A0-3DDE-CC47-9DA7-EB2F3073B24B}">
   <dimension ref="A1:X69"/>
   <sheetViews>
@@ -2999,52 +5529,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="21" t="s">
         <v>97</v>
       </c>
       <c r="B1" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="54" t="s">
+      <c r="D1" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54" t="s">
+      <c r="E1" s="55"/>
+      <c r="F1" s="55" t="s">
         <v>201</v>
       </c>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54" t="s">
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55" t="s">
         <v>200</v>
       </c>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="54"/>
-      <c r="M1" s="54"/>
-      <c r="N1" s="54"/>
-      <c r="O1" s="54"/>
-      <c r="P1" s="54"/>
-      <c r="Q1" s="54"/>
-      <c r="R1" s="54"/>
-      <c r="S1" s="54"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
+      <c r="O1" s="55"/>
+      <c r="P1" s="55"/>
+      <c r="Q1" s="55"/>
+      <c r="R1" s="55"/>
+      <c r="S1" s="55"/>
       <c r="T1" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="U1" s="8" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="21" t="s">
         <v>99</v>
       </c>
       <c r="B2" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="21" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -3103,13 +5633,13 @@
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="21" t="s">
         <v>101</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="21" t="s">
         <v>21</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -3170,7 +5700,7 @@
     <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="15"/>
       <c r="B4" s="15"/>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="21" t="s">
         <v>22</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -3231,7 +5761,7 @@
     <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="15"/>
       <c r="B5" s="15"/>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="21" t="s">
         <v>3</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -3292,11 +5822,11 @@
     <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="15"/>
       <c r="B6" s="15"/>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="21" t="s">
         <v>23</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>202</v>
@@ -3305,55 +5835,55 @@
         <v>4</v>
       </c>
       <c r="G6" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="J6" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="N6" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="I6" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="J6" s="1" t="s">
+      <c r="O6" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="P6" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="U6" s="1" t="s">
         <v>265</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="Q6" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="R6" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="S6" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="T6" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="U6" s="1" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="24" t="s">
+      <c r="C7" s="21" t="s">
         <v>109</v>
       </c>
       <c r="D7" s="1" t="s">
@@ -3365,7 +5895,7 @@
       <c r="F7" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="G7" s="39" t="s">
+      <c r="G7" s="36" t="s">
         <v>127</v>
       </c>
       <c r="H7" s="1" t="s">
@@ -3374,7 +5904,7 @@
       <c r="I7" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="J7" s="39" t="s">
+      <c r="J7" s="36" t="s">
         <v>130</v>
       </c>
       <c r="K7" s="1" t="s">
@@ -3383,25 +5913,25 @@
       <c r="L7" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="M7" s="39" t="s">
+      <c r="M7" s="36" t="s">
         <v>133</v>
       </c>
       <c r="N7" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="O7" s="39" t="s">
+      <c r="O7" s="36" t="s">
         <v>136</v>
       </c>
       <c r="P7" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="Q7" s="39" t="s">
+      <c r="Q7" s="36" t="s">
         <v>138</v>
       </c>
       <c r="R7" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="S7" s="39" t="s">
+      <c r="S7" s="36" t="s">
         <v>140</v>
       </c>
       <c r="T7" s="1" t="s">
@@ -3414,7 +5944,7 @@
     <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="15"/>
       <c r="B8" s="15"/>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="21" t="s">
         <v>110</v>
       </c>
       <c r="H8" s="2"/>
@@ -3433,13 +5963,13 @@
       <c r="U8" s="2"/>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A9" s="28" t="s">
+      <c r="A9" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="28" t="s">
+      <c r="C9" s="25" t="s">
         <v>111</v>
       </c>
     </row>
@@ -3521,49 +6051,49 @@
       <c r="F11" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G11" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="H11" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="I11" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="J11" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="K11" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="L11" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="M11" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="N11" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="O11" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="P11" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q11" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="R11" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="S11" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="T11" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="U11" s="40" t="s">
+      <c r="G11" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="H11" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="I11" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="J11" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="K11" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="L11" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="M11" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="N11" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="O11" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="P11" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q11" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="R11" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="S11" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="T11" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="U11" s="37" t="s">
         <v>24</v>
       </c>
     </row>
@@ -3626,7 +6156,7 @@
       <c r="T12" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="U12" s="40" t="s">
+      <c r="U12" s="37" t="s">
         <v>24</v>
       </c>
     </row>
@@ -3644,52 +6174,52 @@
       <c r="E13" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F13" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="G13" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="H13" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="I13" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="J13" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="K13" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="L13" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="M13" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="N13" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="O13" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="P13" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q13" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="R13" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="S13" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="T13" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="U13" s="40" t="s">
+      <c r="F13" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="H13" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="I13" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="J13" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="K13" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="L13" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="M13" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="N13" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="O13" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="P13" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q13" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="R13" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="S13" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="T13" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="U13" s="37" t="s">
         <v>24</v>
       </c>
     </row>
@@ -3707,52 +6237,52 @@
       <c r="E14" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F14" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="G14" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="H14" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="I14" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="J14" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="K14" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="L14" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="M14" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="N14" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="O14" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="P14" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q14" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="R14" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="S14" s="40" t="s">
+      <c r="F14" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="H14" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="I14" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="J14" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="K14" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="L14" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="M14" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="N14" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="O14" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="P14" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q14" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="R14" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="S14" s="37" t="s">
         <v>24</v>
       </c>
       <c r="T14" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="U14" s="40" t="s">
+      <c r="U14" s="37" t="s">
         <v>24</v>
       </c>
     </row>
@@ -3770,52 +6300,52 @@
       <c r="E15" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F15" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="G15" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="H15" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="I15" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="J15" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="K15" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="L15" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="M15" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="N15" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="O15" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="P15" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q15" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="R15" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="S15" s="40" t="s">
+      <c r="F15" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="H15" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="I15" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="J15" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="K15" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="L15" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="M15" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="N15" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="O15" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="P15" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q15" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="R15" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="S15" s="37" t="s">
         <v>24</v>
       </c>
       <c r="T15" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="U15" s="40" t="s">
+      <c r="U15" s="37" t="s">
         <v>24</v>
       </c>
     </row>
@@ -3833,46 +6363,46 @@
       <c r="E16" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F16" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="G16" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="H16" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="I16" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="J16" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="K16" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="L16" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="M16" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="N16" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="O16" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="P16" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q16" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="R16" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="S16" s="40" t="s">
+      <c r="F16" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="G16" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="H16" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="I16" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="J16" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="K16" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="L16" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="M16" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="N16" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="O16" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="P16" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q16" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="R16" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="S16" s="37" t="s">
         <v>24</v>
       </c>
       <c r="T16" s="2" t="s">
@@ -3941,7 +6471,7 @@
       <c r="T17" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="U17" s="40" t="s">
+      <c r="U17" s="37" t="s">
         <v>24</v>
       </c>
     </row>
@@ -4198,8 +6728,8 @@
       <c r="B22" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="C22" s="41" t="s">
-        <v>283</v>
+      <c r="C22" s="38" t="s">
+        <v>276</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>5</v>
@@ -4310,10 +6840,10 @@
       <c r="S23" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="T23" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="U23" s="40" t="s">
+      <c r="T23" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="U23" s="37" t="s">
         <v>24</v>
       </c>
     </row>
@@ -4371,10 +6901,10 @@
       <c r="S24" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="T24" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="U24" s="40" t="s">
+      <c r="T24" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="U24" s="37" t="s">
         <v>24</v>
       </c>
     </row>
@@ -4506,7 +7036,7 @@
         <v>214</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>5</v>
@@ -4686,12 +7216,12 @@
       </c>
     </row>
     <row r="30" spans="1:21" ht="238" x14ac:dyDescent="0.2">
-      <c r="A30" s="45"/>
+      <c r="A30" s="42"/>
       <c r="B30" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C30" s="46" t="s">
-        <v>284</v>
+      <c r="C30" s="43" t="s">
+        <v>277</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>5</v>
@@ -4805,7 +7335,7 @@
       <c r="T31" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="U31" s="40" t="s">
+      <c r="U31" s="37" t="s">
         <v>24</v>
       </c>
     </row>
@@ -4815,16 +7345,16 @@
         <v>216</v>
       </c>
       <c r="C32" s="5"/>
-      <c r="D32" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="E32" s="40" t="s">
+      <c r="D32" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="E32" s="37" t="s">
         <v>24</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G32" s="40" t="s">
+      <c r="G32" s="37" t="s">
         <v>24</v>
       </c>
       <c r="H32" s="2" t="s">
@@ -4866,7 +7396,7 @@
       <c r="T32" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="U32" s="40" t="s">
+      <c r="U32" s="37" t="s">
         <v>24</v>
       </c>
     </row>
@@ -4875,8 +7405,8 @@
       <c r="B33" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="C33" s="42" t="s">
-        <v>282</v>
+      <c r="C33" s="39" t="s">
+        <v>275</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>232</v>
@@ -4920,16 +7450,16 @@
       <c r="Q33" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="R33" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="S33" s="40" t="s">
+      <c r="R33" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="S33" s="37" t="s">
         <v>24</v>
       </c>
       <c r="T33" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="U33" s="40" t="s">
+      <c r="U33" s="37" t="s">
         <v>24</v>
       </c>
     </row>
@@ -5066,7 +7596,7 @@
       <c r="D36" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E36" s="40" t="s">
+      <c r="E36" s="37" t="s">
         <v>24</v>
       </c>
       <c r="F36" s="1" t="s">
@@ -5099,22 +7629,22 @@
       <c r="O36" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="P36" s="40" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q36" s="40" t="s">
+      <c r="P36" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q36" s="37" t="s">
         <v>24</v>
       </c>
       <c r="R36" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="S36" s="40" t="s">
+      <c r="S36" s="37" t="s">
         <v>24</v>
       </c>
       <c r="T36" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="U36" s="40" t="s">
+      <c r="U36" s="37" t="s">
         <v>24</v>
       </c>
     </row>
@@ -5127,55 +7657,55 @@
       <c r="D37" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E37" s="40" t="s">
+      <c r="E37" s="37" t="s">
         <v>24</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G37" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="H37" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="I37" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="J37" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="K37" s="40" t="s">
+      <c r="G37" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="H37" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="I37" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="J37" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="K37" s="37" t="s">
         <v>24</v>
       </c>
       <c r="L37" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="M37" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="N37" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="O37" s="40" t="s">
+      <c r="M37" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="N37" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="O37" s="37" t="s">
         <v>24</v>
       </c>
       <c r="P37" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="Q37" s="40" t="s">
+      <c r="Q37" s="37" t="s">
         <v>24</v>
       </c>
       <c r="R37" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="S37" s="40" t="s">
+      <c r="S37" s="37" t="s">
         <v>24</v>
       </c>
       <c r="T37" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="U37" s="40" t="s">
+      <c r="U37" s="37" t="s">
         <v>24</v>
       </c>
     </row>
@@ -5224,19 +7754,19 @@
       <c r="P38" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="Q38" s="40" t="s">
+      <c r="Q38" s="37" t="s">
         <v>24</v>
       </c>
       <c r="R38" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="S38" s="40" t="s">
+      <c r="S38" s="37" t="s">
         <v>24</v>
       </c>
       <c r="T38" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="U38" s="40" t="s">
+      <c r="U38" s="37" t="s">
         <v>24</v>
       </c>
     </row>
@@ -5297,7 +7827,7 @@
       <c r="T39" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="U39" s="40" t="s">
+      <c r="U39" s="37" t="s">
         <v>5</v>
       </c>
     </row>
@@ -5307,7 +7837,7 @@
         <v>14</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>5</v>
@@ -5336,7 +7866,7 @@
       <c r="L40" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="M40" s="40" t="s">
+      <c r="M40" s="37" t="s">
         <v>24</v>
       </c>
       <c r="N40" s="2" t="s">
@@ -5381,7 +7911,7 @@
       <c r="R41" s="2"/>
       <c r="S41" s="2"/>
       <c r="T41" s="2"/>
-      <c r="U41" s="40"/>
+      <c r="U41" s="37"/>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A42" s="5"/>
@@ -5400,7 +7930,7 @@
       <c r="R42" s="2"/>
       <c r="S42" s="2"/>
       <c r="T42" s="2"/>
-      <c r="U42" s="40"/>
+      <c r="U42" s="37"/>
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A43" s="5"/>
@@ -5419,7 +7949,7 @@
       <c r="R43" s="2"/>
       <c r="S43" s="2"/>
       <c r="T43" s="2"/>
-      <c r="U43" s="40"/>
+      <c r="U43" s="37"/>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A44" s="5"/>
@@ -5438,7 +7968,7 @@
       <c r="R44" s="2"/>
       <c r="S44" s="2"/>
       <c r="T44" s="2"/>
-      <c r="U44" s="40"/>
+      <c r="U44" s="37"/>
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A45" s="5"/>
@@ -5853,7 +8383,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C46FA45D-9570-C643-AC7B-6310BD62121C}">
   <dimension ref="A1:D3"/>
   <sheetViews>
@@ -5890,24 +8420,24 @@
         <v>46</v>
       </c>
       <c r="C2" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="B3" t="s">
         <v>46</v>
       </c>
       <c r="C3" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
     </row>
   </sheetData>
@@ -5916,7 +8446,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A8C2F56-38DA-1440-8447-6C36029D01F5}">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -5951,8 +8481,8 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A2" s="41" t="s">
-        <v>277</v>
+      <c r="A2" s="38" t="s">
+        <v>273</v>
       </c>
       <c r="B2">
         <v>300</v>
@@ -5960,340 +8490,12 @@
       <c r="C2" t="s">
         <v>253</v>
       </c>
-      <c r="D2" s="32" t="s">
-        <v>264</v>
+      <c r="D2" s="29" t="s">
+        <v>263</v>
       </c>
       <c r="E2" t="s">
         <v>52</v>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9162AE3F-0A5D-824F-8BC1-E6A493EFAA49}">
-  <dimension ref="A1:K22"/>
-  <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="15.5" customWidth="1"/>
-    <col min="2" max="2" width="44" customWidth="1"/>
-    <col min="3" max="4" width="18.83203125" customWidth="1"/>
-    <col min="5" max="5" width="59.5" customWidth="1"/>
-    <col min="6" max="7" width="31.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-    </row>
-    <row r="2" spans="1:11" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B2" s="41" t="s">
-        <v>259</v>
-      </c>
-      <c r="C2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E2" s="41" t="s">
-        <v>273</v>
-      </c>
-      <c r="G2" t="s">
-        <v>58</v>
-      </c>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-    </row>
-    <row r="3" spans="1:11" ht="51" x14ac:dyDescent="0.2">
-      <c r="D3" t="s">
-        <v>74</v>
-      </c>
-      <c r="E3" s="41" t="s">
-        <v>254</v>
-      </c>
-      <c r="G3" t="s">
-        <v>58</v>
-      </c>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>73</v>
-      </c>
-      <c r="B4" t="s">
-        <v>233</v>
-      </c>
-      <c r="C4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D4" t="s">
-        <v>75</v>
-      </c>
-      <c r="E4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" t="s">
-        <v>58</v>
-      </c>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="D5" t="s">
-        <v>76</v>
-      </c>
-      <c r="E5" t="s">
-        <v>255</v>
-      </c>
-      <c r="G5" t="s">
-        <v>58</v>
-      </c>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-    </row>
-    <row r="6" spans="1:11" ht="119" x14ac:dyDescent="0.2">
-      <c r="D6" t="s">
-        <v>77</v>
-      </c>
-      <c r="E6" t="s">
-        <v>286</v>
-      </c>
-      <c r="F6" s="41" t="s">
-        <v>287</v>
-      </c>
-      <c r="G6" t="s">
-        <v>58</v>
-      </c>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-    </row>
-    <row r="7" spans="1:11" ht="85" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>234</v>
-      </c>
-      <c r="B7" s="41" t="s">
-        <v>260</v>
-      </c>
-      <c r="C7" t="s">
-        <v>60</v>
-      </c>
-      <c r="D7" t="s">
-        <v>256</v>
-      </c>
-      <c r="E7" s="41" t="s">
-        <v>279</v>
-      </c>
-      <c r="G7" t="s">
-        <v>61</v>
-      </c>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-    </row>
-    <row r="8" spans="1:11" ht="51" x14ac:dyDescent="0.2">
-      <c r="D8" t="s">
-        <v>257</v>
-      </c>
-      <c r="E8" s="41" t="s">
-        <v>280</v>
-      </c>
-      <c r="G8" t="s">
-        <v>61</v>
-      </c>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="D9" t="s">
-        <v>258</v>
-      </c>
-      <c r="E9" t="s">
-        <v>235</v>
-      </c>
-      <c r="G9" t="s">
-        <v>61</v>
-      </c>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documents/Examples/CDISC_Pilot/CDISC_Pilot_Study.xlsx
+++ b/Documents/Examples/CDISC_Pilot/CDISC_Pilot_Study.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm_data/source_data/CDISC_Pilot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5934A97A-B1B8-E449-8EC6-8B43D6B67F42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5ACB54C-97B7-1A4E-9DC6-A93F42D9F4A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31360" yWindow="500" windowWidth="47700" windowHeight="27240" firstSheet="12" activeTab="23" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="31360" yWindow="500" windowWidth="47700" windowHeight="27240" firstSheet="12" activeTab="13" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1834" uniqueCount="819">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1834" uniqueCount="818">
   <si>
     <t>Screening</t>
   </si>
@@ -2526,9 +2526,6 @@
   </si>
   <si>
     <t>If this is true</t>
-  </si>
-  <si>
-    <t>Procedures</t>
   </si>
   <si>
     <t>@plannedAge/Range/@minValue</t>
@@ -2749,15 +2746,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -2766,6 +2754,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2785,9 +2782,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2825,7 +2822,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2931,7 +2928,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3073,7 +3070,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4547,22 +4544,22 @@
       <c r="C3" s="14" t="s">
         <v>499</v>
       </c>
-      <c r="D3" s="46" t="s">
+      <c r="D3" s="43" t="s">
         <v>718</v>
       </c>
-      <c r="E3" s="47" t="s">
+      <c r="E3" s="44" t="s">
         <v>763</v>
       </c>
-      <c r="F3" s="47" t="s">
+      <c r="F3" s="44" t="s">
         <v>764</v>
       </c>
-      <c r="G3" s="47" t="s">
+      <c r="G3" s="44" t="s">
         <v>765</v>
       </c>
-      <c r="H3" s="47" t="s">
+      <c r="H3" s="44" t="s">
         <v>766</v>
       </c>
-      <c r="I3" s="47" t="s">
+      <c r="I3" s="44" t="s">
         <v>767</v>
       </c>
     </row>
@@ -5541,8 +5538,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F8C14B1-8C62-2C45-8CB1-1E9EDDA367B1}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5588,7 +5585,7 @@
         <v>813</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>814</v>
+        <v>6</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>90</v>
@@ -6040,7 +6037,7 @@
       <c r="H1" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="I1" s="48" t="s">
+      <c r="I1" s="45" t="s">
         <v>779</v>
       </c>
     </row>
@@ -6052,7 +6049,7 @@
         <v>598</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="E2" s="3">
         <v>300</v>
@@ -7174,7 +7171,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{989384DC-1C54-514A-8A1E-ADD84D891BA4}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -7231,7 +7228,7 @@
         <v>598</v>
       </c>
       <c r="G2" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -7245,7 +7242,7 @@
         <v>598</v>
       </c>
       <c r="G3" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -8710,144 +8707,144 @@
       <c r="A1" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="47" t="s">
         <v>121</v>
       </c>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="47" t="s">
         <v>123</v>
       </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="44" t="s">
-        <v>817</v>
-      </c>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
+      <c r="B3" s="48" t="s">
+        <v>816</v>
+      </c>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
     </row>
     <row r="4" spans="1:6" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="45" t="s">
+      <c r="B4" s="46" t="s">
         <v>125</v>
       </c>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="43" t="s">
+      <c r="B5" s="47" t="s">
         <v>130</v>
       </c>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
       <c r="F5" s="11"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="47" t="s">
         <v>131</v>
       </c>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
       <c r="F6" s="11"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="45" t="s">
+      <c r="B7" s="46" t="s">
         <v>682</v>
       </c>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
       <c r="F7" s="11"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="43" t="s">
+      <c r="B8" s="47" t="s">
         <v>75</v>
       </c>
-      <c r="C8" s="43"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="47"/>
       <c r="F8" s="11"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
         <v>805</v>
       </c>
-      <c r="B9" s="43" t="s">
+      <c r="B9" s="47" t="s">
         <v>806</v>
       </c>
-      <c r="C9" s="43"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="47"/>
       <c r="F9" s="11"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
         <v>807</v>
       </c>
-      <c r="B10" s="43" t="s">
+      <c r="B10" s="47" t="s">
         <v>808</v>
       </c>
-      <c r="C10" s="43"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="47"/>
       <c r="F10" s="11"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="B11" s="43" t="s">
+      <c r="B11" s="47" t="s">
         <v>80</v>
       </c>
-      <c r="C11" s="43"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="47"/>
       <c r="F11" s="11"/>
     </row>
     <row r="12" spans="1:6" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="B12" s="45" t="s">
+      <c r="B12" s="46" t="s">
         <v>717</v>
       </c>
-      <c r="C12" s="45"/>
-      <c r="D12" s="45"/>
-      <c r="E12" s="45"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
       <c r="F12" s="11"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -8939,6 +8936,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B4:F4"/>
     <mergeCell ref="B12:E12"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B5:E5"/>
@@ -8946,11 +8948,6 @@
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B4:F4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11919,26 +11916,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="98eacbea-7562-4a40-a7f2-e999cdc0cec5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="75bf9804-c18d-470a-a27f-eeaf4abcd247" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D47D794EB48E7144959FE534A5ED3D9A" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e2a26abefe6b107b571df4f2e43af2ce">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="98eacbea-7562-4a40-a7f2-e999cdc0cec5" xmlns:ns3="75bf9804-c18d-470a-a27f-eeaf4abcd247" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5806404ce956f9af473b927dc8d5ee33" ns2:_="" ns3:_="">
     <xsd:import namespace="98eacbea-7562-4a40-a7f2-e999cdc0cec5"/>
@@ -12139,32 +12116,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5AE94761-8578-4804-B593-FBFFCD1EC013}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="98eacbea-7562-4a40-a7f2-e999cdc0cec5"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="75bf9804-c18d-470a-a27f-eeaf4abcd247"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0D2739C-381D-470B-B6E1-B86FD5C25B2E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="98eacbea-7562-4a40-a7f2-e999cdc0cec5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="75bf9804-c18d-470a-a27f-eeaf4abcd247" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{028E3775-7751-44E5-835D-F091B807F690}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -12181,4 +12153,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0D2739C-381D-470B-B6E1-B86FD5C25B2E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5AE94761-8578-4804-B593-FBFFCD1EC013}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="98eacbea-7562-4a40-a7f2-e999cdc0cec5"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="75bf9804-c18d-470a-a27f-eeaf4abcd247"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Documents/Examples/CDISC_Pilot/CDISC_Pilot_Study.xlsx
+++ b/Documents/Examples/CDISC_Pilot/CDISC_Pilot_Study.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm_data/source_data/CDISC_Pilot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{489D5E6C-7E45-084B-8B5D-4A99440C88D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99387F1B-65F9-4F46-8CE0-FAAC130D17A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="44980" yWindow="500" windowWidth="56420" windowHeight="27240" activeTab="13" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="44980" yWindow="500" windowWidth="56420" windowHeight="27240" firstSheet="9" activeTab="18" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -202,12 +202,6 @@
   </si>
   <si>
     <t>Primary Endpoint</t>
-  </si>
-  <si>
-    <t>Study Primary Objective</t>
-  </si>
-  <si>
-    <t>Study Secondary Objective</t>
   </si>
   <si>
     <t>Secondary Endpoint</t>
@@ -4796,6 +4790,12 @@
   <si>
     <t>Hachinski Ischemic Scale</t>
   </si>
+  <si>
+    <t>Primary Objective</t>
+  </si>
+  <si>
+    <t>Secondary Objective</t>
+  </si>
 </sst>
 </file>
 
@@ -5095,13 +5095,13 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -5126,9 +5126,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -5166,7 +5166,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -5272,7 +5272,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -5414,7 +5414,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5441,10 +5441,10 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="34" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E1" s="33"/>
       <c r="F1" s="33"/>
@@ -5454,7 +5454,7 @@
         <v>18</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E2" s="33"/>
       <c r="F2" s="33"/>
@@ -5464,7 +5464,7 @@
         <v>19</v>
       </c>
       <c r="B3" s="32" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E3" s="33"/>
       <c r="F3" s="33"/>
@@ -5484,74 +5484,74 @@
         <v>21</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E5" s="33"/>
       <c r="F5" s="33"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="34" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="E6" s="33"/>
       <c r="F6" s="33"/>
     </row>
     <row r="7" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A7" s="34" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E7" s="33"/>
       <c r="F7" s="33"/>
     </row>
     <row r="8" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="34" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E8" s="33"/>
       <c r="F8" s="33"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="34" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E9" s="33"/>
       <c r="F9" s="33"/>
     </row>
     <row r="10" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" s="34" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E10" s="33"/>
       <c r="F10" s="33"/>
     </row>
     <row r="11" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A11" s="34" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E11" s="33"/>
       <c r="F11" s="33"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="34" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B12" s="11"/>
       <c r="E12" s="33"/>
@@ -5559,20 +5559,20 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="34" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B13" s="32" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E13" s="33"/>
       <c r="F13" s="33"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="34" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E14" s="33"/>
       <c r="F14" s="33"/>
@@ -5583,71 +5583,71 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="34" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B16" s="34" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C16" s="34" t="s">
         <v>37</v>
       </c>
       <c r="D16" s="34" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E16" s="16" t="s">
         <v>36</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G16" s="34" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="B17" t="s">
+        <v>455</v>
+      </c>
+      <c r="C17" t="s">
+        <v>243</v>
+      </c>
+      <c r="D17" t="s">
         <v>244</v>
       </c>
-      <c r="B17" t="s">
-        <v>457</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="E17" t="s">
         <v>245</v>
-      </c>
-      <c r="D17" t="s">
-        <v>246</v>
-      </c>
-      <c r="E17" t="s">
-        <v>247</v>
       </c>
       <c r="F17" s="35">
         <v>38869</v>
       </c>
       <c r="G17" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="B18" t="s">
+        <v>456</v>
+      </c>
+      <c r="C18" t="s">
+        <v>247</v>
+      </c>
+      <c r="D18" t="s">
         <v>248</v>
       </c>
-      <c r="B18" t="s">
-        <v>458</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="E18" t="s">
         <v>249</v>
-      </c>
-      <c r="D18" t="s">
-        <v>250</v>
-      </c>
-      <c r="E18" t="s">
-        <v>251</v>
       </c>
       <c r="F18" s="35">
         <v>38899</v>
       </c>
       <c r="G18" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
   </sheetData>
@@ -5675,24 +5675,24 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C2" s="14" t="s">
         <v>37</v>
@@ -5703,16 +5703,16 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.2">
@@ -5722,38 +5722,38 @@
         <v>36</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="11"/>
       <c r="B5" s="11"/>
       <c r="C5" s="14" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6" s="11"/>
       <c r="B6" s="11"/>
       <c r="C6" s="14" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
       <c r="C7" s="14" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
       <c r="C8" s="14" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.2">
@@ -5764,7 +5764,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -5773,7 +5773,7 @@
         <v>10</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>1</v>
@@ -6412,24 +6412,24 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C2" s="14" t="s">
         <v>37</v>
@@ -6440,16 +6440,16 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -6459,38 +6459,38 @@
         <v>36</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="11"/>
       <c r="B5" s="11"/>
       <c r="C5" s="14" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="11"/>
       <c r="B6" s="11"/>
       <c r="C6" s="14" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
       <c r="C7" s="14" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
       <c r="C8" s="14" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -6501,7 +6501,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -6517,10 +6517,10 @@
     <row r="11" spans="1:4" s="1" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A11" s="4"/>
       <c r="B11" s="3" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>1</v>
@@ -6562,7 +6562,7 @@
         <v>13</v>
       </c>
       <c r="C15" s="40" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>1</v>
@@ -6571,7 +6571,7 @@
     <row r="16" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
       <c r="B16" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="1" t="s">
@@ -6581,7 +6581,7 @@
     <row r="17" spans="1:4" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
       <c r="B17" s="5" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="1" t="s">
@@ -6591,7 +6591,7 @@
     <row r="18" spans="1:4" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="4"/>
       <c r="B18" s="5" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="1" t="s">
@@ -6601,7 +6601,7 @@
     <row r="19" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4"/>
       <c r="B19" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="1" t="s">
@@ -6613,7 +6613,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="1" t="s">
@@ -6623,7 +6623,7 @@
     <row r="21" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4"/>
       <c r="B21" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="1" t="s">
@@ -6633,7 +6633,7 @@
     <row r="22" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4"/>
       <c r="B22" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="1" t="s">
@@ -6643,7 +6643,7 @@
     <row r="23" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4"/>
       <c r="B23" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="1" t="s">
@@ -6653,10 +6653,10 @@
     <row r="24" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="4"/>
       <c r="B24" s="3" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>1</v>
@@ -6839,39 +6839,39 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>482</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>484</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C2" s="14" t="s">
         <v>37</v>
@@ -6880,31 +6880,31 @@
     </row>
     <row r="3" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D3" s="41" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="E3" s="42" t="s">
+        <v>483</v>
+      </c>
+      <c r="F3" s="42" t="s">
+        <v>484</v>
+      </c>
+      <c r="G3" s="42" t="s">
         <v>485</v>
       </c>
-      <c r="F3" s="42" t="s">
+      <c r="H3" s="42" t="s">
         <v>486</v>
       </c>
-      <c r="G3" s="42" t="s">
+      <c r="I3" s="42" t="s">
         <v>487</v>
-      </c>
-      <c r="H3" s="42" t="s">
-        <v>488</v>
-      </c>
-      <c r="I3" s="42" t="s">
-        <v>489</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -6914,68 +6914,68 @@
         <v>36</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="11"/>
       <c r="B5" s="11"/>
       <c r="C5" s="14" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>484</v>
-      </c>
       <c r="I5" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="11"/>
       <c r="B6" s="11"/>
       <c r="C6" s="14" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
       <c r="C7" s="14" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
       <c r="C8" s="14" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -6986,16 +6986,16 @@
         <v>3</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4"/>
       <c r="B10" s="3" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>1</v>
@@ -7004,10 +7004,10 @@
     <row r="11" spans="1:9" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A11" s="4"/>
       <c r="B11" s="3" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>1</v>
@@ -7016,10 +7016,10 @@
     <row r="12" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4"/>
       <c r="B12" s="3" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>1</v>
@@ -7031,10 +7031,10 @@
     <row r="13" spans="1:9" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A13" s="4"/>
       <c r="B13" s="3" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>1</v>
@@ -7191,686 +7191,686 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B1" s="36" t="s">
         <v>37</v>
       </c>
       <c r="C1" s="36" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D1" s="36" t="s">
         <v>36</v>
       </c>
       <c r="E1" s="36" t="s">
+        <v>268</v>
+      </c>
+      <c r="F1" s="36" t="s">
+        <v>269</v>
+      </c>
+      <c r="G1" s="36" t="s">
         <v>270</v>
       </c>
-      <c r="F1" s="36" t="s">
+      <c r="H1" s="36" t="s">
         <v>271</v>
       </c>
-      <c r="G1" s="36" t="s">
+      <c r="I1" s="36" t="s">
         <v>272</v>
-      </c>
-      <c r="H1" s="36" t="s">
-        <v>273</v>
-      </c>
-      <c r="I1" s="36" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>277</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>279</v>
       </c>
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="D3" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="G3" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>282</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="E4" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>287</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>289</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="I6" s="2" t="s">
         <v>292</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="I15" s="1"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="33" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="H18" s="1"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="58" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B19" s="59" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C19" s="59" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="D19" s="60" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E19" s="60" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F19" s="60" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="G19" s="60" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="H19" s="58"/>
       <c r="I19" s="58"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="I21" s="1"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="H22" s="1" t="s">
         <v>445</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>480</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>447</v>
       </c>
       <c r="I22" s="2"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="I23" s="1"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="F24" s="25" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="I24" s="2"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="I25" s="1"/>
     </row>
@@ -7884,7 +7884,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F8C14B1-8C62-2C45-8CB1-1E9EDDA367B1}">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -7900,62 +7900,62 @@
   <sheetData>
     <row r="1" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B1" s="16" t="s">
         <v>37</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="F1" s="16" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A3" s="50" t="s">
+        <v>865</v>
+      </c>
+      <c r="B3" s="50" t="s">
         <v>867</v>
       </c>
-      <c r="B3" s="50" t="s">
+      <c r="C3" s="50" t="s">
+        <v>866</v>
+      </c>
+      <c r="D3" s="51" t="s">
+        <v>868</v>
+      </c>
+      <c r="E3" s="50" t="s">
+        <v>297</v>
+      </c>
+      <c r="F3" s="50" t="s">
         <v>869</v>
-      </c>
-      <c r="C3" s="50" t="s">
-        <v>868</v>
-      </c>
-      <c r="D3" s="51" t="s">
-        <v>870</v>
-      </c>
-      <c r="E3" s="50" t="s">
-        <v>299</v>
-      </c>
-      <c r="F3" s="50" t="s">
-        <v>871</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -8148,13 +8148,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B1" s="16" t="s">
         <v>37</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -8170,15 +8170,15 @@
         <v>5</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -8191,18 +8191,18 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C7" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -8223,58 +8223,58 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C14" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -8287,18 +8287,18 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -8327,74 +8327,74 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
@@ -8407,42 +8407,42 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C33" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C34" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C35" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C36" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="C37" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
   </sheetData>
@@ -8483,61 +8483,61 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B1" s="16" t="s">
         <v>37</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D1" s="16" t="s">
         <v>38</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="F1" s="16" t="s">
         <v>36</v>
       </c>
       <c r="G1" s="16" t="s">
+        <v>464</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>465</v>
+      </c>
+      <c r="I1" s="16" t="s">
         <v>466</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="J1" s="16" t="s">
         <v>467</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="K1" s="16" t="s">
         <v>468</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="L1" s="16" t="s">
         <v>469</v>
       </c>
-      <c r="K1" s="16" t="s">
+      <c r="M1" s="16" t="s">
         <v>470</v>
       </c>
-      <c r="L1" s="16" t="s">
+      <c r="N1" s="16" t="s">
         <v>471</v>
       </c>
-      <c r="M1" s="16" t="s">
+      <c r="O1" s="16" t="s">
         <v>472</v>
       </c>
-      <c r="N1" s="16" t="s">
+      <c r="P1" s="16" t="s">
         <v>473</v>
       </c>
-      <c r="O1" s="16" t="s">
+      <c r="Q1" s="16" t="s">
         <v>474</v>
       </c>
-      <c r="P1" s="16" t="s">
+      <c r="R1" s="16" t="s">
         <v>475</v>
       </c>
-      <c r="Q1" s="16" t="s">
+      <c r="S1" s="16" t="s">
         <v>476</v>
-      </c>
-      <c r="R1" s="16" t="s">
-        <v>477</v>
-      </c>
-      <c r="S1" s="16" t="s">
-        <v>478</v>
       </c>
     </row>
   </sheetData>
@@ -8562,13 +8562,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B1" s="16" t="s">
         <v>37</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D1" s="16" t="s">
         <v>38</v>
@@ -8576,30 +8576,30 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B3" t="s">
+        <v>215</v>
+      </c>
+      <c r="C3" t="s">
+        <v>215</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>217</v>
-      </c>
-      <c r="C3" t="s">
-        <v>217</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>219</v>
       </c>
     </row>
   </sheetData>
@@ -8630,42 +8630,42 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C1" s="17" t="s">
         <v>37</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="G1" s="17" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="H1" s="17" t="s">
         <v>40</v>
       </c>
       <c r="I1" s="43" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="3" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="E2" s="3">
         <v>300</v>
@@ -8674,13 +8674,13 @@
         <v>300</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>41</v>
       </c>
       <c r="I2" s="15" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
   </sheetData>
@@ -8693,8 +8693,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9162AE3F-0A5D-824F-8BC1-E6A493EFAA49}">
   <dimension ref="A1:O22"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8714,34 +8714,34 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B1" s="16" t="s">
         <v>42</v>
       </c>
       <c r="C1" s="16" t="s">
+        <v>339</v>
+      </c>
+      <c r="D1" s="16" t="s">
         <v>341</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>343</v>
       </c>
       <c r="E1" s="16" t="s">
         <v>43</v>
       </c>
       <c r="F1" s="16" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G1" s="16" t="s">
         <v>44</v>
       </c>
       <c r="H1" s="16" t="s">
+        <v>340</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>405</v>
+      </c>
+      <c r="J1" s="16" t="s">
         <v>342</v>
-      </c>
-      <c r="I1" s="16" t="s">
-        <v>407</v>
-      </c>
-      <c r="J1" s="16" t="s">
-        <v>344</v>
       </c>
       <c r="K1" s="16" t="s">
         <v>45</v>
@@ -8751,24 +8751,24 @@
     </row>
     <row r="2" spans="1:15" ht="68" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C2" s="13"/>
       <c r="D2" s="13" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>47</v>
+        <v>875</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H2" s="13"/>
       <c r="I2" s="13" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="J2" s="13"/>
       <c r="K2" s="11" t="s">
@@ -8781,11 +8781,11 @@
     <row r="3" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="D3" s="13"/>
       <c r="F3" s="11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H3" s="13"/>
       <c r="I3" s="13" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="J3" s="13"/>
       <c r="K3" s="11" t="s">
@@ -8797,19 +8797,19 @@
     </row>
     <row r="4" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>343</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>348</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>875</v>
+      </c>
+      <c r="F4" s="11" t="s">
         <v>60</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>345</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>350</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>62</v>
       </c>
       <c r="I4" s="13" t="s">
         <v>10</v>
@@ -8825,10 +8825,10 @@
     <row r="5" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="D5" s="13"/>
       <c r="F5" s="11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="J5" s="13"/>
       <c r="K5" s="11" t="s">
@@ -8841,13 +8841,13 @@
     <row r="6" spans="1:15" ht="85" x14ac:dyDescent="0.2">
       <c r="D6" s="13"/>
       <c r="F6" s="11" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="I6" s="13" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="J6" s="13"/>
       <c r="K6" s="11" t="s">
@@ -8859,28 +8859,28 @@
     </row>
     <row r="7" spans="1:15" ht="68" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C7" s="13"/>
       <c r="D7" s="13" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>48</v>
+        <v>876</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H7" s="13"/>
       <c r="I7" s="13" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="J7" s="13"/>
       <c r="K7" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="M7" s="5"/>
       <c r="N7" s="5"/>
@@ -8888,15 +8888,15 @@
     </row>
     <row r="8" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="F8" s="11" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="H8" s="13"/>
       <c r="I8" s="13" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="J8" s="13"/>
       <c r="K8" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="M8" s="5"/>
       <c r="N8" s="5"/>
@@ -8904,14 +8904,14 @@
     </row>
     <row r="9" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="F9" s="11" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="I9" s="13" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="J9" s="13"/>
       <c r="K9" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="M9" s="5"/>
       <c r="N9" s="5"/>
@@ -8919,22 +8919,22 @@
     </row>
     <row r="10" spans="1:15" ht="68" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>48</v>
+        <v>876</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="K10" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="M10" s="5"/>
       <c r="N10" s="5"/>
@@ -8942,26 +8942,26 @@
     </row>
     <row r="11" spans="1:15" ht="85" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="13" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>48</v>
+        <v>876</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
       <c r="I11" s="11" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="K11" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="M11" s="5"/>
       <c r="N11" s="5"/>
@@ -8969,26 +8969,26 @@
     </row>
     <row r="12" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="13" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>48</v>
+        <v>876</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
       <c r="I12" s="11" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="K12" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="M12" s="5"/>
       <c r="N12" s="5"/>
@@ -9166,22 +9166,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="36" t="s">
+        <v>253</v>
+      </c>
+      <c r="B1" s="34" t="s">
+        <v>254</v>
+      </c>
+      <c r="C1" s="34" t="s">
         <v>255</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="D1" s="34" t="s">
         <v>256</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="E1" s="34" t="s">
         <v>257</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="F1" s="37" t="s">
         <v>258</v>
-      </c>
-      <c r="E1" s="34" t="s">
-        <v>259</v>
-      </c>
-      <c r="F1" s="37" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -9189,19 +9189,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="D2" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="E2" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="D2" s="11" t="s">
-        <v>263</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>264</v>
-      </c>
       <c r="F2" s="11" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
   </sheetData>
@@ -9229,28 +9229,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C1" s="16" t="s">
         <v>39</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F1" s="16" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H1" s="16" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -9279,59 +9279,59 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B1" s="16" t="s">
         <v>37</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>493</v>
+      </c>
+      <c r="E3" s="26" t="s">
         <v>495</v>
-      </c>
-      <c r="E3" s="26" t="s">
-        <v>497</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="26" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
   </sheetData>
@@ -9362,319 +9362,319 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B1" s="16" t="s">
         <v>37</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D1" s="16" t="s">
         <v>36</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F1" s="16" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H1" s="16" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I1" s="16" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="E2" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>99</v>
-      </c>
       <c r="H2" s="5" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="H3" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>137</v>
-      </c>
       <c r="I3" s="3" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="G4" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>138</v>
-      </c>
       <c r="H4" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
   </sheetData>
@@ -9703,27 +9703,27 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B1" s="16" t="s">
         <v>37</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>0</v>
@@ -9732,94 +9732,94 @@
         <v>4</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C3" s="38" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D3" s="38" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D4" s="38" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C6" s="38" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D6" s="38" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C7" s="38" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D7" s="38" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="D8" s="39" t="s">
+        <v>186</v>
+      </c>
+      <c r="E8" s="39" t="s">
         <v>187</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>354</v>
-      </c>
-      <c r="D8" s="39" t="s">
-        <v>188</v>
-      </c>
-      <c r="E8" s="39" t="s">
-        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -9848,73 +9848,73 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B1" s="16" t="s">
         <v>37</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D1" s="16" t="s">
+        <v>328</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>329</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1" s="16" t="s">
         <v>330</v>
-      </c>
-      <c r="E1" s="16" t="s">
-        <v>331</v>
-      </c>
-      <c r="F1" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="G1" s="16" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B2" t="s">
+        <v>331</v>
+      </c>
+      <c r="C2" t="s">
+        <v>332</v>
+      </c>
+      <c r="D2" t="s">
         <v>333</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>334</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>335</v>
       </c>
-      <c r="E2" t="s">
-        <v>336</v>
-      </c>
-      <c r="F2" t="s">
-        <v>337</v>
-      </c>
       <c r="G2" s="8" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="E3" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="F3" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D4" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E4" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="F4" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="G4" t="s">
         <v>37</v>
@@ -9922,25 +9922,25 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>427</v>
+      </c>
+      <c r="B5" t="s">
+        <v>428</v>
+      </c>
+      <c r="C5" t="s">
         <v>429</v>
       </c>
-      <c r="B5" t="s">
+      <c r="D5" t="s">
         <v>430</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E5" t="s">
+        <v>308</v>
+      </c>
+      <c r="F5" t="s">
         <v>431</v>
       </c>
-      <c r="D5" t="s">
-        <v>432</v>
-      </c>
-      <c r="E5" t="s">
-        <v>310</v>
-      </c>
-      <c r="F5" t="s">
-        <v>433</v>
-      </c>
       <c r="G5" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -9948,16 +9948,16 @@
       <c r="B6" s="53"/>
       <c r="C6" s="53"/>
       <c r="D6" s="53" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="E6" s="53" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="F6" s="53" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="G6" s="53" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
   </sheetData>
@@ -9983,16 +9983,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="44" t="s">
+        <v>221</v>
+      </c>
+      <c r="B1" s="44" t="s">
+        <v>222</v>
+      </c>
+      <c r="C1" s="22" t="s">
         <v>223</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="D1" s="22" t="s">
         <v>224</v>
-      </c>
-      <c r="C1" s="22" t="s">
-        <v>225</v>
-      </c>
-      <c r="D1" s="22" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="372" x14ac:dyDescent="0.2">
@@ -10001,10 +10001,10 @@
       </c>
       <c r="B2" s="11"/>
       <c r="C2" s="45" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="D2" s="46" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="409.5" x14ac:dyDescent="0.2">
@@ -10013,10 +10013,10 @@
       </c>
       <c r="B3" s="11"/>
       <c r="C3" s="45" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="D3" s="46" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -10025,20 +10025,20 @@
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="45" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="D4" s="13"/>
     </row>
     <row r="5" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A5" s="48" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="45" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="D5" s="46" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="119" x14ac:dyDescent="0.2">
@@ -10047,10 +10047,10 @@
       </c>
       <c r="B6" s="11"/>
       <c r="C6" s="45" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="D6" s="46" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -10059,492 +10059,492 @@
       </c>
       <c r="B7" s="11"/>
       <c r="C7" s="45" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="D7" s="13"/>
     </row>
     <row r="8" spans="1:4" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A8" s="48" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="B8" s="11"/>
       <c r="C8" s="45" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D8" s="46" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="204" x14ac:dyDescent="0.2">
       <c r="A9" s="48" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="B9" s="11"/>
       <c r="C9" s="45" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="D9" s="46" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="68" x14ac:dyDescent="0.2">
       <c r="A10" s="48" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="B10" s="11"/>
       <c r="C10" s="45" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="D10" s="46" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="68" x14ac:dyDescent="0.2">
       <c r="A11" s="48" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="B11" s="11"/>
       <c r="C11" s="45" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="D11" s="46" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="48" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="B12" s="11"/>
       <c r="C12" s="45" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="D12" s="13"/>
     </row>
     <row r="13" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A13" s="48" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="B13" s="11"/>
       <c r="C13" s="45" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D13" s="46" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A14" s="48" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="B14" s="11"/>
       <c r="C14" s="45" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="D14" s="46" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A15" s="48" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="B15" s="11"/>
       <c r="C15" s="45" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="D15" s="46" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A16" s="48" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="B16" s="11"/>
       <c r="C16" s="45" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="D16" s="46" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="68" x14ac:dyDescent="0.2">
       <c r="A17" s="48" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="B17" s="11"/>
       <c r="C17" s="45" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="D17" s="46" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="170" x14ac:dyDescent="0.2">
       <c r="A18" s="48" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="B18" s="11"/>
       <c r="C18" s="45" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="D18" s="46" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="68" x14ac:dyDescent="0.2">
       <c r="A19" s="48" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="B19" s="11"/>
       <c r="C19" s="45" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="D19" s="46" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A20" s="48" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="B20" s="11"/>
       <c r="C20" s="45" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="D20" s="46" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="48" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="B21" s="11"/>
       <c r="C21" s="45" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="D21" s="13"/>
     </row>
     <row r="22" spans="1:4" ht="255" x14ac:dyDescent="0.2">
       <c r="A22" s="48" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="B22" s="11"/>
       <c r="C22" s="45" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="D22" s="46" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A23" s="48" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="B23" s="11"/>
       <c r="C23" s="45" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="D23" s="46" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="136" x14ac:dyDescent="0.2">
       <c r="A24" s="48" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="B24" s="11"/>
       <c r="C24" s="45" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="D24" s="46" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="238" x14ac:dyDescent="0.2">
       <c r="A25" s="48" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="B25" s="11"/>
       <c r="C25" s="45" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="D25" s="46" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="48" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="B26" s="11"/>
       <c r="C26" s="45" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="D26" s="13"/>
     </row>
     <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="48" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="B27" s="11"/>
       <c r="C27" s="45" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="D27" s="46" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A28" s="48" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="B28" s="11"/>
       <c r="C28" s="45" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="D28" s="46" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="102" x14ac:dyDescent="0.2">
       <c r="A29" s="48" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="B29" s="11"/>
       <c r="C29" s="45" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="D29" s="46" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="187" x14ac:dyDescent="0.2">
       <c r="A30" s="48" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="B30" s="11"/>
       <c r="C30" s="45" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="D30" s="46" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A31" s="48" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="B31" s="11"/>
       <c r="C31" s="45" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D31" s="46" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A32" s="48" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="B32" s="11"/>
       <c r="C32" s="45" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="D32" s="46" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="119" x14ac:dyDescent="0.2">
       <c r="A33" s="48" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="B33" s="11"/>
       <c r="C33" s="45" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="D33" s="46" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="170" x14ac:dyDescent="0.2">
       <c r="A34" s="48" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="B34" s="11"/>
       <c r="C34" s="45" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D34" s="46" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="238" x14ac:dyDescent="0.2">
       <c r="A35" s="48" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="B35" s="11"/>
       <c r="C35" s="45" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="D35" s="46" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A36" s="48" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="B36" s="11"/>
       <c r="C36" s="45" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="D36" s="49" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A37" s="48" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="B37" s="11"/>
       <c r="C37" s="45" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="D37" s="46" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A38" s="48" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B38" s="11"/>
       <c r="C38" s="45" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="D38" s="46" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="204" x14ac:dyDescent="0.2">
       <c r="A39" s="48" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="B39" s="11"/>
       <c r="C39" s="45" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="D39" s="46" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A40" s="48" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="B40" s="11"/>
       <c r="C40" s="45" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="D40" s="46" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="48" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="B41" s="11"/>
       <c r="C41" s="45" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="D41" s="46" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="48" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="B42" s="11"/>
       <c r="C42" s="45" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="D42" s="13"/>
     </row>
     <row r="43" spans="1:4" ht="238" x14ac:dyDescent="0.2">
       <c r="A43" s="48" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="B43" s="11"/>
       <c r="C43" s="45" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="D43" s="46" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A44" s="48" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="B44" s="11"/>
       <c r="C44" s="45" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="D44" s="46" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A45" s="48" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="B45" s="11"/>
       <c r="C45" s="45" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="D45" s="46" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A46" s="48" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="B46" s="11"/>
       <c r="C46" s="45" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="D46" s="46" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="289" x14ac:dyDescent="0.2">
       <c r="A47" s="48" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="B47" s="11"/>
       <c r="C47" s="45" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="D47" s="46" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="306" x14ac:dyDescent="0.2">
       <c r="A48" s="48" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="B48" s="11"/>
       <c r="C48" s="45" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="D48" s="46" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
@@ -10553,162 +10553,162 @@
       </c>
       <c r="B49" s="11"/>
       <c r="C49" s="45" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="D49" s="13"/>
     </row>
     <row r="50" spans="1:4" ht="102" x14ac:dyDescent="0.2">
       <c r="A50" s="48" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="B50" s="11"/>
       <c r="C50" s="45" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="D50" s="46" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A51" s="48" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="B51" s="11"/>
       <c r="C51" s="46" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="D51" s="46" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="48" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="B52" s="11"/>
       <c r="C52" s="45" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="D52" s="13"/>
     </row>
     <row r="53" spans="1:4" ht="323" x14ac:dyDescent="0.2">
       <c r="A53" s="48" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="B53" s="11"/>
       <c r="C53" s="45" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="D53" s="46" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="238" x14ac:dyDescent="0.2">
       <c r="A54" s="48" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="B54" s="11"/>
       <c r="C54" s="45" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="D54" s="46" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A55" s="48" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B55" s="11"/>
       <c r="C55" s="45" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="D55" s="46" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="272" x14ac:dyDescent="0.2">
       <c r="A56" s="48" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="B56" s="11"/>
       <c r="C56" s="45" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="D56" s="46" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="306" x14ac:dyDescent="0.2">
       <c r="A57" s="48" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="B57" s="11"/>
       <c r="C57" s="45" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="D57" s="46" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="204" x14ac:dyDescent="0.2">
       <c r="A58" s="48" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="B58" s="11"/>
       <c r="C58" s="45" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="D58" s="46" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="68" x14ac:dyDescent="0.2">
       <c r="A59" s="48" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="B59" s="11"/>
       <c r="C59" s="45" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="D59" s="46" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="170" x14ac:dyDescent="0.2">
       <c r="A60" s="48" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="B60" s="11"/>
       <c r="C60" s="45" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="D60" s="46" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A61" s="48" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="B61" s="11"/>
       <c r="C61" s="45" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="D61" s="46" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A62" s="48" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="B62" s="11"/>
       <c r="C62" s="45" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="D62" s="46" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="51" x14ac:dyDescent="0.2">
@@ -10717,44 +10717,44 @@
       </c>
       <c r="B63" s="11"/>
       <c r="C63" s="46" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="D63" s="13"/>
     </row>
     <row r="64" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A64" s="48" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="B64" s="11"/>
       <c r="C64" s="45" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="D64" s="46" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="119" x14ac:dyDescent="0.2">
       <c r="A65" s="48" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="B65" s="11"/>
       <c r="C65" s="45" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="D65" s="46" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A66" s="48" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="B66" s="11"/>
       <c r="C66" s="45" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="D66" s="46" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
@@ -10763,130 +10763,130 @@
       </c>
       <c r="B67" s="11"/>
       <c r="C67" s="45" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="D67" s="46" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" s="48" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="B68" s="11"/>
       <c r="C68" s="45" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="D68" s="46" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A69" s="48" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="B69" s="11"/>
       <c r="C69" s="45" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="D69" s="46" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A70" s="48" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="B70" s="11"/>
       <c r="C70" s="45" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="D70" s="46" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" s="48" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="B71" s="11"/>
       <c r="C71" s="45" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="D71" s="46" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" s="48" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="B72" s="11"/>
       <c r="C72" s="45" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="D72" s="46" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" s="48" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="B73" s="11"/>
       <c r="C73" s="45" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="D73" s="46" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" s="48" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="B74" s="11"/>
       <c r="C74" s="45" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="D74" s="46" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" s="48" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="B75" s="11"/>
       <c r="C75" s="45" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="D75" s="46" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" s="48" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="B76" s="11"/>
       <c r="C76" s="45" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="D76" s="46" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A77" s="48" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="B77" s="11"/>
       <c r="C77" s="45" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="D77" s="46" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
     </row>
   </sheetData>
@@ -10912,34 +10912,34 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" t="s">
         <v>76</v>
-      </c>
-      <c r="B2" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="17" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="17" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
   </sheetData>
@@ -10987,39 +10987,39 @@
         <v>27</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F2" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>263</v>
+      </c>
+      <c r="B3" t="s">
+        <v>264</v>
+      </c>
+      <c r="C3" t="s">
         <v>265</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
         <v>266</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
         <v>267</v>
       </c>
-      <c r="D3" t="s">
-        <v>268</v>
-      </c>
-      <c r="E3" t="s">
-        <v>269</v>
-      </c>
       <c r="F3" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -11049,142 +11049,142 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="B1" s="62" t="s">
-        <v>121</v>
-      </c>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
+        <v>118</v>
+      </c>
+      <c r="B1" s="61" t="s">
+        <v>119</v>
+      </c>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="B2" s="62" t="s">
-        <v>123</v>
-      </c>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
+        <v>120</v>
+      </c>
+      <c r="B2" s="61" t="s">
+        <v>121</v>
+      </c>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="63" t="s">
-        <v>536</v>
-      </c>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
+      <c r="B3" s="62" t="s">
+        <v>534</v>
+      </c>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
     </row>
     <row r="4" spans="1:6" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="61" t="s">
-        <v>125</v>
-      </c>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
+      <c r="B4" s="63" t="s">
+        <v>123</v>
+      </c>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="62" t="s">
-        <v>130</v>
-      </c>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
+      <c r="B5" s="61" t="s">
+        <v>128</v>
+      </c>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
       <c r="F5" s="11"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="62" t="s">
-        <v>131</v>
-      </c>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
+      <c r="B6" s="61" t="s">
+        <v>129</v>
+      </c>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
       <c r="F6" s="11"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="61" t="s">
-        <v>421</v>
-      </c>
-      <c r="C7" s="62"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
+      <c r="B7" s="63" t="s">
+        <v>419</v>
+      </c>
+      <c r="C7" s="61"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="61"/>
       <c r="F7" s="11"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="62" t="s">
-        <v>75</v>
-      </c>
-      <c r="C8" s="62"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="62"/>
+      <c r="B8" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" s="61"/>
+      <c r="D8" s="61"/>
+      <c r="E8" s="61"/>
       <c r="F8" s="11"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
-        <v>527</v>
-      </c>
-      <c r="B9" s="62" t="s">
-        <v>528</v>
-      </c>
-      <c r="C9" s="62"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="62"/>
+        <v>525</v>
+      </c>
+      <c r="B9" s="61" t="s">
+        <v>526</v>
+      </c>
+      <c r="C9" s="61"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="61"/>
       <c r="F9" s="11"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
-        <v>529</v>
-      </c>
-      <c r="B10" s="62" t="s">
-        <v>530</v>
-      </c>
-      <c r="C10" s="62"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="62"/>
+        <v>527</v>
+      </c>
+      <c r="B10" s="61" t="s">
+        <v>528</v>
+      </c>
+      <c r="C10" s="61"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="61"/>
       <c r="F10" s="11"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="B11" s="62" t="s">
-        <v>80</v>
-      </c>
-      <c r="C11" s="62"/>
-      <c r="D11" s="62"/>
-      <c r="E11" s="62"/>
+        <v>78</v>
+      </c>
+      <c r="B11" s="61" t="s">
+        <v>78</v>
+      </c>
+      <c r="C11" s="61"/>
+      <c r="D11" s="61"/>
+      <c r="E11" s="61"/>
       <c r="F11" s="11"/>
     </row>
     <row r="12" spans="1:6" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="14" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B12" s="64" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C12" s="64"/>
       <c r="D12" s="64"/>
@@ -11200,91 +11200,86 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="14" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>0</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="19" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B15" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="C15" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="C15" s="9" t="s">
-        <v>115</v>
-      </c>
       <c r="D15" s="9" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F15" s="21" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D16" s="23" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E16" s="23" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F16" s="21" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="20" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C17" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="D17" s="24" t="s">
         <v>117</v>
       </c>
-      <c r="D17" s="24" t="s">
-        <v>119</v>
-      </c>
       <c r="E17" s="23" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F17" s="21" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B4:F4"/>
     <mergeCell ref="B12:E12"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B5:E5"/>
@@ -11292,6 +11287,11 @@
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B4:F4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11321,42 +11321,42 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C1" s="16" t="s">
         <v>36</v>
       </c>
       <c r="D1" s="17" t="s">
+        <v>514</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>323</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>515</v>
+      </c>
+      <c r="G1" s="16" t="s">
         <v>516</v>
       </c>
-      <c r="E1" s="17" t="s">
-        <v>325</v>
-      </c>
-      <c r="F1" s="17" t="s">
+      <c r="H1" s="16" t="s">
         <v>517</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="I1" s="16" t="s">
         <v>518</v>
-      </c>
-      <c r="H1" s="16" t="s">
-        <v>519</v>
-      </c>
-      <c r="I1" s="16" t="s">
-        <v>520</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>27</v>
@@ -11365,16 +11365,16 @@
         <v>123456789</v>
       </c>
       <c r="F2" t="s">
+        <v>521</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>523</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>524</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>526</v>
       </c>
     </row>
   </sheetData>
@@ -11403,564 +11403,564 @@
   <sheetData>
     <row r="1" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D1" s="16" t="s">
         <v>37</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F1" s="22" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>326</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>789</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>810</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>858</v>
+      </c>
+      <c r="G2" s="11" t="s">
         <v>327</v>
-      </c>
-      <c r="B2" s="32" t="s">
-        <v>328</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>791</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>812</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>860</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>433</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>790</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>806</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>860</v>
+      </c>
+      <c r="G3" s="11" t="s">
         <v>327</v>
-      </c>
-      <c r="B3" s="32" t="s">
-        <v>435</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>792</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>808</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>862</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B5" s="32" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="F5" s="52" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="G5" s="53" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B7" s="32" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B8" s="32" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B9" s="32" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B10" s="32" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B11" s="32" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B12" s="32" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="204" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B13" s="32" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B14" s="32" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B15" s="32" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="11" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B16" s="32" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="F16" s="13" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="170" x14ac:dyDescent="0.2">
       <c r="A17" s="11" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B17" s="32" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="F17" s="13" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="153" x14ac:dyDescent="0.2">
       <c r="A18" s="11" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B18" s="32" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="F18" s="13" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="153" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B19" s="32" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="F19" s="13" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="136" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B20" s="32" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="F20" s="13" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A21" s="11" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B21" s="32" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="F21" s="13" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A22" s="11" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B22" s="32" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="F22" s="13" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="102" x14ac:dyDescent="0.2">
       <c r="A23" s="11" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B23" s="32" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="F23" s="13" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="11" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B24" s="32" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="F24" s="13" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="102" x14ac:dyDescent="0.2">
       <c r="A25" s="11" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B25" s="32" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="F25" s="13" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A26" s="11" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B26" s="32" t="s">
+        <v>571</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>589</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>825</v>
+      </c>
+      <c r="F26" s="13" t="s">
         <v>573</v>
-      </c>
-      <c r="C26" s="11" t="s">
-        <v>591</v>
-      </c>
-      <c r="E26" s="13" t="s">
-        <v>827</v>
-      </c>
-      <c r="F26" s="13" t="s">
-        <v>575</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A27" s="11" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B27" s="32" t="s">
+        <v>572</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>590</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>826</v>
+      </c>
+      <c r="F27" s="13" t="s">
         <v>574</v>
-      </c>
-      <c r="C27" s="11" t="s">
-        <v>592</v>
-      </c>
-      <c r="E27" s="13" t="s">
-        <v>828</v>
-      </c>
-      <c r="F27" s="13" t="s">
-        <v>576</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="102" x14ac:dyDescent="0.2">
       <c r="A28" s="11" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B28" s="32" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="E28" s="13" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="F28" s="13" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="372" x14ac:dyDescent="0.2">
       <c r="A29" s="11" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B29" s="32" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="F29" s="13" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A30" s="11" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B30" s="32" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="E30" s="13" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="F30" s="13" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A31" s="11" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B31" s="32" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="E31" s="13" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F31" s="13" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A32" s="11" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B32" s="32" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="E32" s="13" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="F32" s="13" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
     </row>
   </sheetData>
@@ -11988,82 +11988,82 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B1" s="16" t="s">
         <v>37</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D1" s="16" t="s">
         <v>36</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="F1" s="16" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="29" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C2" s="29" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="30" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="C3" s="30" t="s">
-        <v>132</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>206</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="D4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>206</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>208</v>
       </c>
     </row>
   </sheetData>
@@ -12089,13 +12089,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B1" s="16" t="s">
         <v>37</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D1" s="16" t="s">
         <v>36</v>
@@ -12103,72 +12103,72 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>210</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>210</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="31" t="s">
+        <v>212</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="C6" s="31" t="s">
+        <v>291</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>214</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="C6" s="31" t="s">
-        <v>293</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>216</v>
       </c>
     </row>
   </sheetData>
@@ -12206,69 +12206,69 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="56" t="s">
+        <v>358</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="56" t="s">
+        <v>359</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="K1" s="56" t="s">
+      <c r="O1" s="56" t="s">
         <v>360</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="M1" s="56" t="s">
-        <v>361</v>
-      </c>
-      <c r="N1" s="1" t="s">
+      <c r="Q1" s="56" t="s">
+        <v>364</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="O1" s="56" t="s">
-        <v>362</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="Q1" s="56" t="s">
+      <c r="S1" s="9" t="s">
         <v>366</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="S1" s="9" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C2" s="14" t="s">
         <v>37</v>
@@ -12324,61 +12324,61 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I3" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="K3" s="57" t="s">
+        <v>361</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="M3" s="57" t="s">
+        <v>362</v>
+      </c>
+      <c r="N3" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="J3" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="K3" s="57" t="s">
+      <c r="O3" s="57" t="s">
         <v>363</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="P3" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="M3" s="57" t="s">
-        <v>364</v>
-      </c>
-      <c r="N3" s="2" t="s">
+      <c r="Q3" s="57" t="s">
+        <v>365</v>
+      </c>
+      <c r="R3" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="O3" s="57" t="s">
-        <v>365</v>
-      </c>
-      <c r="P3" s="2" t="s">
+      <c r="S3" s="2" t="s">
         <v>151</v>
-      </c>
-      <c r="Q3" s="57" t="s">
-        <v>367</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
@@ -12388,114 +12388,114 @@
         <v>36</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="K4" s="57" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="M4" s="57" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="O4" s="57" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="Q4" s="57" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="11"/>
       <c r="B5" s="11"/>
       <c r="C5" s="14" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="F5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="J5" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="K5" s="56" t="s">
         <v>303</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="L5" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="M5" s="56" t="s">
         <v>304</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="N5" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="K5" s="56" t="s">
+      <c r="O5" s="56" t="s">
         <v>305</v>
       </c>
-      <c r="L5" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="M5" s="56" t="s">
+      <c r="P5" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="Q5" s="56" t="s">
         <v>306</v>
       </c>
-      <c r="N5" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="O5" s="56" t="s">
-        <v>307</v>
-      </c>
-      <c r="P5" s="1" t="s">
+      <c r="R5" s="9" t="s">
         <v>366</v>
       </c>
-      <c r="Q5" s="56" t="s">
-        <v>308</v>
-      </c>
-      <c r="R5" s="9" t="s">
-        <v>368</v>
-      </c>
       <c r="S5" s="2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" s="11"/>
       <c r="B6" s="11"/>
       <c r="C6" s="14" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="K6" s="56"/>
       <c r="M6" s="56"/>
@@ -12506,7 +12506,7 @@
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
       <c r="C7" s="14" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>0</v>
@@ -12515,101 +12515,101 @@
         <v>0</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="K7" s="56" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="M7" s="56" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="O7" s="56" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="Q7" s="56" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="S7" s="9" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
       <c r="C8" s="14" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F8" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="K8" s="56" t="s">
+        <v>104</v>
+      </c>
+      <c r="L8" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="M8" s="56" t="s">
+        <v>105</v>
+      </c>
+      <c r="N8" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="K8" s="56" t="s">
+      <c r="O8" s="56" t="s">
         <v>106</v>
       </c>
-      <c r="L8" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="M8" s="56" t="s">
-        <v>107</v>
-      </c>
-      <c r="N8" s="1" t="s">
+      <c r="P8" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="O8" s="56" t="s">
+      <c r="Q8" s="56" t="s">
         <v>108</v>
       </c>
-      <c r="P8" s="1" t="s">
+      <c r="R8" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="S8" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="Q8" s="56" t="s">
-        <v>110</v>
-      </c>
-      <c r="R8" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="S8" s="1" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
@@ -12620,7 +12620,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="K9" s="56"/>
       <c r="M9" s="56"/>
@@ -12740,7 +12740,7 @@
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="4"/>
       <c r="B12" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="1" t="s">
@@ -12798,7 +12798,7 @@
         <v>6</v>
       </c>
       <c r="C13" s="51" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>1</v>
@@ -12852,7 +12852,7 @@
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" s="4"/>
       <c r="B14" s="3" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="1" t="s">
@@ -12907,7 +12907,7 @@
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
       <c r="B15" s="3" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="1" t="s">
@@ -13072,7 +13072,7 @@
     <row r="18" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A18" s="4"/>
       <c r="B18" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="1" t="s">
@@ -13127,7 +13127,7 @@
     <row r="19" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A19" s="4"/>
       <c r="B19" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="1" t="s">
@@ -13182,7 +13182,7 @@
     <row r="20" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A20" s="4"/>
       <c r="B20" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="2" t="s">
@@ -13237,7 +13237,7 @@
     <row r="21" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A21" s="4"/>
       <c r="B21" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="2" t="s">
@@ -13292,10 +13292,10 @@
     <row r="22" spans="1:19" ht="34" x14ac:dyDescent="0.2">
       <c r="A22" s="4"/>
       <c r="B22" s="3" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>1</v>
@@ -13349,7 +13349,7 @@
     <row r="23" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A23" s="4"/>
       <c r="B23" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="1" t="s">
@@ -13404,7 +13404,7 @@
     <row r="24" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A24" s="4"/>
       <c r="B24" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="1" t="s">
@@ -13514,7 +13514,7 @@
     <row r="26" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A26" s="4"/>
       <c r="B26" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="1" t="s">
@@ -13569,10 +13569,10 @@
     <row r="27" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A27" s="4"/>
       <c r="B27" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>1</v>
@@ -13739,7 +13739,7 @@
         <v>13</v>
       </c>
       <c r="C30" s="40" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>1</v>
@@ -13793,7 +13793,7 @@
     <row r="31" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A31" s="4"/>
       <c r="B31" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C31" s="4"/>
       <c r="D31" s="1" t="s">
@@ -13848,7 +13848,7 @@
     <row r="32" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="4"/>
       <c r="B32" s="5" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C32" s="4"/>
       <c r="D32" s="25" t="s">
@@ -13903,10 +13903,10 @@
     <row r="33" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="4"/>
       <c r="B33" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C33" s="27" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>1</v>
@@ -13960,7 +13960,7 @@
     <row r="34" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="4"/>
       <c r="B34" s="5" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C34" s="4"/>
       <c r="D34" s="1" t="s">
@@ -14015,7 +14015,7 @@
     <row r="35" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A35" s="4"/>
       <c r="B35" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="2" t="s">
@@ -14072,7 +14072,7 @@
         <v>17</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="1" t="s">
@@ -14127,7 +14127,7 @@
     <row r="37" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A37" s="4"/>
       <c r="B37" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="1" t="s">
@@ -14182,7 +14182,7 @@
     <row r="38" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>
       <c r="B38" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="1" t="s">
@@ -14237,7 +14237,7 @@
     <row r="39" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A39" s="54"/>
       <c r="B39" s="55" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C39" s="54"/>
       <c r="D39" s="56" t="s">
@@ -14733,6 +14733,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="98eacbea-7562-4a40-a7f2-e999cdc0cec5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="75bf9804-c18d-470a-a27f-eeaf4abcd247" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D47D794EB48E7144959FE534A5ED3D9A" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e2a26abefe6b107b571df4f2e43af2ce">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="98eacbea-7562-4a40-a7f2-e999cdc0cec5" xmlns:ns3="75bf9804-c18d-470a-a27f-eeaf4abcd247" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5806404ce956f9af473b927dc8d5ee33" ns2:_="" ns3:_="">
     <xsd:import namespace="98eacbea-7562-4a40-a7f2-e999cdc0cec5"/>
@@ -14933,27 +14953,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5AE94761-8578-4804-B593-FBFFCD1EC013}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="98eacbea-7562-4a40-a7f2-e999cdc0cec5"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="75bf9804-c18d-470a-a27f-eeaf4abcd247"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="98eacbea-7562-4a40-a7f2-e999cdc0cec5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="75bf9804-c18d-470a-a27f-eeaf4abcd247" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0D2739C-381D-470B-B6E1-B86FD5C25B2E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{028E3775-7751-44E5-835D-F091B807F690}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -14970,29 +14995,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0D2739C-381D-470B-B6E1-B86FD5C25B2E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5AE94761-8578-4804-B593-FBFFCD1EC013}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="98eacbea-7562-4a40-a7f2-e999cdc0cec5"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="75bf9804-c18d-470a-a27f-eeaf4abcd247"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Documents/Examples/CDISC_Pilot/CDISC_Pilot_Study.xlsx
+++ b/Documents/Examples/CDISC_Pilot/CDISC_Pilot_Study.xlsx
@@ -1,46 +1,48 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11027"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm_data/source_data/protocols/CDISC_Pilot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9725F3AE-F9BB-B940-8DAD-43D01C5AE5E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2FB971A-267E-7A47-AD49-06817E2B94E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="59840" yWindow="500" windowWidth="41180" windowHeight="27240" firstSheet="15" activeTab="27" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="23760" yWindow="500" windowWidth="41180" windowHeight="27240" activeTab="2" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
     <sheet name="studyAmendments" sheetId="17" r:id="rId2"/>
     <sheet name="studyIdentifiers" sheetId="3" r:id="rId3"/>
-    <sheet name="studyDesign" sheetId="4" r:id="rId4"/>
-    <sheet name="studyDesignSites" sheetId="26" r:id="rId5"/>
-    <sheet name="studyDesignEligibilityCriteria" sheetId="19" r:id="rId6"/>
-    <sheet name="studyDesignArms" sheetId="14" r:id="rId7"/>
-    <sheet name="studyDesignEpochs" sheetId="15" r:id="rId8"/>
-    <sheet name="mainTimeline" sheetId="1" r:id="rId9"/>
-    <sheet name="adverseEventTimeline" sheetId="22" r:id="rId10"/>
-    <sheet name="earlyTerminationTimeline" sheetId="23" r:id="rId11"/>
-    <sheet name="vsBloodPressure" sheetId="24" r:id="rId12"/>
-    <sheet name="studyDesignTiming" sheetId="18" r:id="rId13"/>
-    <sheet name="studyDesignConditions" sheetId="27" r:id="rId14"/>
-    <sheet name="studyDesignActivities" sheetId="21" r:id="rId15"/>
-    <sheet name="studyDesignInterventions" sheetId="25" r:id="rId16"/>
-    <sheet name="studyDesignIndications" sheetId="6" r:id="rId17"/>
-    <sheet name="studyDesignPopulations" sheetId="7" r:id="rId18"/>
-    <sheet name="studyDesignOE" sheetId="8" r:id="rId19"/>
-    <sheet name="studyDesignEstimands" sheetId="9" r:id="rId20"/>
-    <sheet name="studyDesignProcedures" sheetId="11" r:id="rId21"/>
-    <sheet name="studyDesignEncounters" sheetId="12" r:id="rId22"/>
-    <sheet name="studyDesignElements" sheetId="13" r:id="rId23"/>
-    <sheet name="dictionaries" sheetId="20" r:id="rId24"/>
-    <sheet name="lillyFormat" sheetId="16" r:id="rId25"/>
-    <sheet name="m11Format" sheetId="28" r:id="rId26"/>
-    <sheet name="documentContent" sheetId="29" r:id="rId27"/>
-    <sheet name="configuration" sheetId="10" r:id="rId28"/>
+    <sheet name="studyReferences" sheetId="30" r:id="rId4"/>
+    <sheet name="studyDesign" sheetId="4" r:id="rId5"/>
+    <sheet name="studyDesignSites" sheetId="26" r:id="rId6"/>
+    <sheet name="studyDesignEligibilityCriteria" sheetId="19" r:id="rId7"/>
+    <sheet name="studyDesignArms" sheetId="14" r:id="rId8"/>
+    <sheet name="studyDesignEpochs" sheetId="15" r:id="rId9"/>
+    <sheet name="mainTimeline" sheetId="1" r:id="rId10"/>
+    <sheet name="adverseEventTimeline" sheetId="22" r:id="rId11"/>
+    <sheet name="earlyTerminationTimeline" sheetId="23" r:id="rId12"/>
+    <sheet name="vsBloodPressure" sheetId="24" r:id="rId13"/>
+    <sheet name="studyDesignTiming" sheetId="18" r:id="rId14"/>
+    <sheet name="studyDesignConditions" sheetId="27" r:id="rId15"/>
+    <sheet name="studyDesignActivities" sheetId="21" r:id="rId16"/>
+    <sheet name="studyDesignInterventions" sheetId="25" r:id="rId17"/>
+    <sheet name="studyDesignIndications" sheetId="6" r:id="rId18"/>
+    <sheet name="studyDesignPopulations" sheetId="7" r:id="rId19"/>
+    <sheet name="studyDesignOE" sheetId="8" r:id="rId20"/>
+    <sheet name="studyDesignEstimands" sheetId="9" r:id="rId21"/>
+    <sheet name="studyDesignProcedures" sheetId="11" r:id="rId22"/>
+    <sheet name="studyDesignEncounters" sheetId="12" r:id="rId23"/>
+    <sheet name="studyDesignElements" sheetId="13" r:id="rId24"/>
+    <sheet name="dictionaries" sheetId="20" r:id="rId25"/>
+    <sheet name="roles" sheetId="31" r:id="rId26"/>
+    <sheet name="lillyFormat" sheetId="16" r:id="rId27"/>
+    <sheet name="m11Format" sheetId="28" r:id="rId28"/>
+    <sheet name="documentContent" sheetId="29" r:id="rId29"/>
+    <sheet name="configuration" sheetId="10" r:id="rId30"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -63,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3161" uniqueCount="1499">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3190" uniqueCount="1510">
   <si>
     <t>Screening</t>
   </si>
@@ -6685,6 +6687,39 @@
   <si>
     <t>NC_254</t>
   </si>
+  <si>
+    <t>referenceType</t>
+  </si>
+  <si>
+    <t>LZZT CD Plan 1</t>
+  </si>
+  <si>
+    <t>Lilly</t>
+  </si>
+  <si>
+    <t>Clinical Development Plan</t>
+  </si>
+  <si>
+    <t>people</t>
+  </si>
+  <si>
+    <t>organizations</t>
+  </si>
+  <si>
+    <t>ROLE_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Masked </t>
+  </si>
+  <si>
+    <t>Sponsor role</t>
+  </si>
+  <si>
+    <t>Sponsor</t>
+  </si>
+  <si>
+    <t>sponsor</t>
+  </si>
 </sst>
 </file>
 
@@ -6828,7 +6863,7 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -7021,6 +7056,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -7635,6 +7671,2560 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{136502A0-3DDE-CC47-9DA7-EB2F3073B24B}">
+  <dimension ref="A1:V68"/>
+  <sheetViews>
+    <sheetView topLeftCell="A11" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="30.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="41.6640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="45.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="10.83203125" style="1"/>
+    <col min="7" max="7" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="10.83203125" style="1"/>
+    <col min="11" max="11" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="22" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A1" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="K1" s="55" t="s">
+        <v>358</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="M1" s="55" t="s">
+        <v>359</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="O1" s="55" t="s">
+        <v>360</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q1" s="55" t="s">
+        <v>364</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="S1" s="9" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O2" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q2" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A3" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>239</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="K3" s="56" t="s">
+        <v>361</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="M3" s="56" t="s">
+        <v>362</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="O3" s="56" t="s">
+        <v>363</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q3" s="56" t="s">
+        <v>365</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A4" s="11"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="K4" s="56" t="s">
+        <v>308</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="M4" s="56" t="s">
+        <v>308</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="O4" s="56" t="s">
+        <v>308</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="Q4" s="56" t="s">
+        <v>308</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="14" t="s">
+        <v>293</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="K5" s="55" t="s">
+        <v>303</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="M5" s="55" t="s">
+        <v>304</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="O5" s="55" t="s">
+        <v>305</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="Q5" s="55" t="s">
+        <v>306</v>
+      </c>
+      <c r="R5" s="9" t="s">
+        <v>366</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A6" s="11"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="14" t="s">
+        <v>294</v>
+      </c>
+      <c r="K6" s="55"/>
+      <c r="M6" s="55"/>
+      <c r="O6" s="55"/>
+      <c r="Q6" s="55"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="14" t="s">
+        <v>295</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="K7" s="55" t="s">
+        <v>152</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="M7" s="55" t="s">
+        <v>152</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="O7" s="55" t="s">
+        <v>152</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q7" s="55" t="s">
+        <v>152</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="S7" s="9" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="K8" s="55" t="s">
+        <v>104</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="M8" s="55" t="s">
+        <v>105</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="O8" s="55" t="s">
+        <v>106</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q8" s="55" t="s">
+        <v>108</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A9" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="K9" s="55"/>
+      <c r="M9" s="55"/>
+      <c r="O9" s="55"/>
+      <c r="Q9" s="55"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A10" s="4"/>
+      <c r="B10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K10" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M10" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O10" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q10" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="R10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="S10" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A11" s="4"/>
+      <c r="B11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="I11" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="J11" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="K11" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="L11" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="M11" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="N11" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="O11" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="P11" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q11" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="R11" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="S11" s="25" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A12" s="4"/>
+      <c r="B12" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K12" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M12" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O12" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="P12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q12" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="R12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="S12" s="25" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" s="4"/>
+      <c r="B13" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="50" t="s">
+        <v>856</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="H13" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="I13" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="J13" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="K13" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="L13" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="M13" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="N13" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="O13" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="P13" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q13" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="R13" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="S13" s="25" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A14" s="4"/>
+      <c r="B14" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="I14" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="J14" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="K14" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="L14" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="M14" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="N14" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="O14" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="P14" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q14" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="R14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="S14" s="25" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A15" s="4"/>
+      <c r="B15" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="H15" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="I15" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="J15" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="K15" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="L15" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="M15" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="N15" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="O15" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="P15" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q15" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="R15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="S15" s="25" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A16" s="4"/>
+      <c r="B16" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="H16" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="I16" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="J16" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="K16" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="L16" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="M16" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="N16" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="O16" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="P16" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q16" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="R16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="S16" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A17" s="4"/>
+      <c r="B17" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="4"/>
+      <c r="D17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K17" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M17" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O17" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="P17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q17" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="R17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="S17" s="25" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A18" s="4"/>
+      <c r="B18" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="D18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K18" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M18" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O18" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="P18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q18" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="R18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="S18" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A19" s="4"/>
+      <c r="B19" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C19" s="4"/>
+      <c r="D19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K19" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M19" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O19" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="P19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q19" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="R19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="S19" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A20" s="4"/>
+      <c r="B20" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C20" s="4"/>
+      <c r="D20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K20" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M20" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O20" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="P20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q20" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="R20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="S20" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A21" s="4"/>
+      <c r="B21" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C21" s="4"/>
+      <c r="D21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K21" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M21" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O21" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="P21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q21" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="R21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="S21" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" ht="34" x14ac:dyDescent="0.2">
+      <c r="A22" s="4"/>
+      <c r="B22" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>451</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K22" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M22" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="O22" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="P22" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="R22" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="S22" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A23" s="4"/>
+      <c r="B23" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C23" s="4"/>
+      <c r="D23" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K23" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M23" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O23" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="P23" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q23" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="R23" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="S23" s="25" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A24" s="4"/>
+      <c r="B24" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C24" s="4"/>
+      <c r="D24" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K24" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M24" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O24" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="P24" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q24" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="R24" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="S24" s="25" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A25" s="4"/>
+      <c r="B25" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="4"/>
+      <c r="D25" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K25" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M25" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="N25" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="O25" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="P25" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q25" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="R25" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="S25" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A26" s="4"/>
+      <c r="B26" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C26" s="4"/>
+      <c r="D26" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K26" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M26" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="N26" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O26" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="P26" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q26" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="R26" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S26" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A27" s="4"/>
+      <c r="B27" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K27" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M27" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="N27" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O27" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="P27" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q27" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="R27" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S27" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A28" s="4"/>
+      <c r="B28" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" s="4"/>
+      <c r="D28" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K28" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M28" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="N28" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="O28" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="P28" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q28" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="R28" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="S28" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A29" s="4"/>
+      <c r="B29" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="4"/>
+      <c r="D29" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K29" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M29" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="N29" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="O29" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="P29" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q29" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="R29" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="S29" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" ht="102" x14ac:dyDescent="0.2">
+      <c r="A30" s="28"/>
+      <c r="B30" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="40" t="s">
+        <v>367</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K30" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="L30" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M30" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="N30" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="O30" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="P30" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q30" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="R30" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="S30" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A31" s="4"/>
+      <c r="B31" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C31" s="4"/>
+      <c r="D31" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K31" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M31" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="N31" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O31" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="P31" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q31" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="R31" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="S31" s="25" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" ht="17" x14ac:dyDescent="0.2">
+      <c r="A32" s="4"/>
+      <c r="B32" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="C32" s="4"/>
+      <c r="D32" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="E32" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K32" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M32" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="N32" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O32" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="P32" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q32" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="R32" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="S32" s="25" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" ht="17" x14ac:dyDescent="0.2">
+      <c r="A33" s="4"/>
+      <c r="B33" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="C33" s="27" t="s">
+        <v>197</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K33" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M33" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="N33" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O33" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="P33" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q33" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="R33" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="S33" s="25" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" ht="17" x14ac:dyDescent="0.2">
+      <c r="A34" s="4"/>
+      <c r="B34" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="C34" s="4"/>
+      <c r="D34" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K34" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M34" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="N34" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="O34" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="P34" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q34" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="R34" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="S34" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A35" s="4"/>
+      <c r="B35" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C35" s="4"/>
+      <c r="D35" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K35" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="L35" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M35" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="N35" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O35" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="P35" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q35" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="R35" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="S35" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A36" s="4"/>
+      <c r="B36" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C36" s="4"/>
+      <c r="D36" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E36" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K36" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="L36" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M36" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="N36" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="O36" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="P36" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q36" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="R36" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="S36" s="25" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A37" s="4"/>
+      <c r="B37" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C37" s="4"/>
+      <c r="D37" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E37" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G37" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="H37" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="I37" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K37" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="L37" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="M37" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="N37" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="O37" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="P37" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q37" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="R37" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="S37" s="25" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A38" s="4"/>
+      <c r="B38" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C38" s="4"/>
+      <c r="D38" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K38" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="L38" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M38" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="N38" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="O38" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="P38" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q38" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="R38" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="S38" s="25" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A39" s="53"/>
+      <c r="B39" s="54" t="s">
+        <v>169</v>
+      </c>
+      <c r="C39" s="53"/>
+      <c r="D39" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="E39" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="F39" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="G39" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="H39" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="I39" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="J39" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="K39" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="L39" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="M39" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="N39" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="O39" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="P39" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q39" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="R39" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="S39" s="55" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+      <c r="L40" s="2"/>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
+      <c r="O40" s="2"/>
+      <c r="P40" s="2"/>
+      <c r="Q40" s="2"/>
+      <c r="R40" s="2"/>
+      <c r="S40" s="25"/>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
+      <c r="P41" s="2"/>
+      <c r="Q41" s="2"/>
+      <c r="R41" s="2"/>
+      <c r="S41" s="25"/>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
+      <c r="P42" s="2"/>
+      <c r="Q42" s="2"/>
+      <c r="R42" s="2"/>
+      <c r="S42" s="25"/>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2"/>
+      <c r="L43" s="2"/>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
+      <c r="O43" s="2"/>
+      <c r="P43" s="2"/>
+      <c r="Q43" s="2"/>
+      <c r="R43" s="2"/>
+      <c r="S43" s="25"/>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A44" s="4"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
+      <c r="K44" s="2"/>
+      <c r="L44" s="2"/>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
+      <c r="O44" s="2"/>
+      <c r="P44" s="2"/>
+      <c r="Q44" s="2"/>
+      <c r="R44" s="2"/>
+      <c r="S44" s="2"/>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2"/>
+      <c r="K45" s="2"/>
+      <c r="L45" s="2"/>
+      <c r="M45" s="2"/>
+      <c r="N45" s="2"/>
+      <c r="O45" s="2"/>
+      <c r="P45" s="2"/>
+      <c r="Q45" s="2"/>
+      <c r="R45" s="2"/>
+      <c r="S45" s="2"/>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
+      <c r="J46" s="2"/>
+      <c r="K46" s="2"/>
+      <c r="L46" s="2"/>
+      <c r="M46" s="2"/>
+      <c r="N46" s="2"/>
+      <c r="O46" s="2"/>
+      <c r="P46" s="2"/>
+      <c r="Q46" s="2"/>
+      <c r="R46" s="2"/>
+      <c r="S46" s="2"/>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
+      <c r="J47" s="2"/>
+      <c r="K47" s="2"/>
+      <c r="L47" s="2"/>
+      <c r="M47" s="2"/>
+      <c r="N47" s="2"/>
+      <c r="O47" s="2"/>
+      <c r="P47" s="2"/>
+      <c r="Q47" s="2"/>
+      <c r="R47" s="2"/>
+      <c r="S47" s="2"/>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A48" s="4"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
+      <c r="J48" s="2"/>
+      <c r="K48" s="2"/>
+      <c r="L48" s="2"/>
+      <c r="M48" s="2"/>
+      <c r="N48" s="2"/>
+      <c r="O48" s="2"/>
+      <c r="P48" s="2"/>
+      <c r="Q48" s="2"/>
+      <c r="R48" s="2"/>
+      <c r="S48" s="2"/>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A49" s="4"/>
+      <c r="C49" s="4"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="2"/>
+      <c r="J49" s="2"/>
+      <c r="K49" s="2"/>
+      <c r="L49" s="2"/>
+      <c r="M49" s="2"/>
+      <c r="N49" s="2"/>
+      <c r="O49" s="2"/>
+      <c r="P49" s="2"/>
+      <c r="Q49" s="2"/>
+      <c r="R49" s="2"/>
+      <c r="S49" s="2"/>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A50" s="4"/>
+      <c r="C50" s="4"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="2"/>
+      <c r="J50" s="2"/>
+      <c r="K50" s="2"/>
+      <c r="L50" s="2"/>
+      <c r="M50" s="2"/>
+      <c r="N50" s="2"/>
+      <c r="O50" s="2"/>
+      <c r="P50" s="2"/>
+      <c r="Q50" s="2"/>
+      <c r="R50" s="2"/>
+      <c r="S50" s="2"/>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A51" s="4"/>
+      <c r="C51" s="4"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="2"/>
+      <c r="J51" s="2"/>
+      <c r="K51" s="2"/>
+      <c r="L51" s="2"/>
+      <c r="M51" s="2"/>
+      <c r="N51" s="2"/>
+      <c r="O51" s="2"/>
+      <c r="P51" s="2"/>
+      <c r="Q51" s="2"/>
+      <c r="R51" s="2"/>
+      <c r="S51" s="2"/>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A52" s="4"/>
+      <c r="C52" s="4"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
+      <c r="I52" s="2"/>
+      <c r="J52" s="2"/>
+      <c r="K52" s="2"/>
+      <c r="L52" s="2"/>
+      <c r="M52" s="2"/>
+      <c r="N52" s="2"/>
+      <c r="O52" s="2"/>
+      <c r="P52" s="2"/>
+      <c r="Q52" s="2"/>
+      <c r="R52" s="2"/>
+      <c r="S52" s="2"/>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A53" s="4"/>
+      <c r="C53" s="4"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A54" s="4"/>
+      <c r="C54" s="4"/>
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A55" s="4"/>
+      <c r="C55" s="5"/>
+      <c r="I55" s="2"/>
+      <c r="J55" s="2"/>
+      <c r="K55" s="2"/>
+      <c r="L55" s="2"/>
+      <c r="M55" s="2"/>
+      <c r="N55" s="2"/>
+      <c r="O55" s="2"/>
+      <c r="P55" s="2"/>
+      <c r="Q55" s="2"/>
+      <c r="R55" s="2"/>
+      <c r="S55" s="2"/>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A56" s="4"/>
+      <c r="C56" s="4"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+      <c r="H56" s="2"/>
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A57" s="4"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="H57" s="2"/>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A58" s="4"/>
+      <c r="C58" s="4"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+      <c r="H58" s="2"/>
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A59" s="4"/>
+      <c r="C59" s="4"/>
+      <c r="H59" s="2"/>
+      <c r="I59" s="2"/>
+      <c r="J59" s="2"/>
+      <c r="K59" s="2"/>
+      <c r="M59" s="2"/>
+      <c r="N59" s="2"/>
+      <c r="P59" s="2"/>
+      <c r="Q59" s="2"/>
+      <c r="R59" s="2"/>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A60" s="4"/>
+      <c r="C60" s="4"/>
+      <c r="H60" s="2"/>
+      <c r="I60" s="2"/>
+      <c r="J60" s="2"/>
+      <c r="K60" s="2"/>
+      <c r="M60" s="2"/>
+      <c r="N60" s="2"/>
+      <c r="P60" s="2"/>
+      <c r="Q60" s="2"/>
+      <c r="R60" s="2"/>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A61" s="4"/>
+      <c r="C61" s="4"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+      <c r="G61" s="2"/>
+      <c r="H61" s="2"/>
+      <c r="I61" s="2"/>
+      <c r="J61" s="2"/>
+      <c r="K61" s="2"/>
+      <c r="L61" s="2"/>
+      <c r="M61" s="2"/>
+      <c r="N61" s="2"/>
+      <c r="O61" s="2"/>
+      <c r="P61" s="2"/>
+      <c r="Q61" s="2"/>
+      <c r="R61" s="2"/>
+      <c r="S61" s="2"/>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A62" s="3"/>
+      <c r="C62" s="4"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2"/>
+      <c r="I62" s="2"/>
+      <c r="J62" s="2"/>
+      <c r="K62" s="2"/>
+      <c r="M62" s="2"/>
+      <c r="N62" s="2"/>
+      <c r="O62" s="2"/>
+      <c r="P62" s="2"/>
+      <c r="Q62" s="2"/>
+      <c r="R62" s="2"/>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A63" s="4"/>
+      <c r="C63" s="4"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2"/>
+      <c r="I63" s="2"/>
+      <c r="J63" s="2"/>
+      <c r="K63" s="2"/>
+      <c r="M63" s="2"/>
+      <c r="N63" s="2"/>
+      <c r="O63" s="2"/>
+      <c r="P63" s="2"/>
+      <c r="Q63" s="2"/>
+      <c r="R63" s="2"/>
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A64" s="4"/>
+      <c r="C64" s="4"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2"/>
+      <c r="H64" s="2"/>
+      <c r="I64" s="2"/>
+      <c r="J64" s="2"/>
+      <c r="K64" s="2"/>
+      <c r="M64" s="2"/>
+      <c r="N64" s="2"/>
+      <c r="O64" s="2"/>
+      <c r="P64" s="2"/>
+      <c r="Q64" s="2"/>
+      <c r="R64" s="2"/>
+    </row>
+    <row r="65" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A65" s="4"/>
+      <c r="C65" s="4"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2"/>
+      <c r="H65" s="2"/>
+      <c r="M65" s="2"/>
+      <c r="N65" s="2"/>
+      <c r="P65" s="2"/>
+      <c r="Q65" s="2"/>
+      <c r="R65" s="2"/>
+    </row>
+    <row r="66" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A66" s="4"/>
+      <c r="C66" s="4"/>
+      <c r="D66" s="2"/>
+      <c r="E66" s="2"/>
+      <c r="G66" s="2"/>
+      <c r="H66" s="2"/>
+      <c r="I66" s="2"/>
+      <c r="J66" s="2"/>
+      <c r="K66" s="2"/>
+      <c r="L66" s="2"/>
+      <c r="M66" s="2"/>
+      <c r="N66" s="2"/>
+      <c r="O66" s="2"/>
+      <c r="P66" s="2"/>
+      <c r="Q66" s="2"/>
+      <c r="R66" s="2"/>
+      <c r="S66" s="2"/>
+    </row>
+    <row r="67" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A67" s="4"/>
+      <c r="C67" s="4"/>
+      <c r="D67" s="2"/>
+      <c r="E67" s="2"/>
+      <c r="H67" s="2"/>
+      <c r="I67" s="2"/>
+      <c r="J67" s="2"/>
+      <c r="K67" s="2"/>
+      <c r="L67" s="2"/>
+      <c r="M67" s="2"/>
+      <c r="N67" s="2"/>
+      <c r="O67" s="2"/>
+      <c r="P67" s="2"/>
+      <c r="Q67" s="2"/>
+      <c r="R67" s="2"/>
+    </row>
+    <row r="68" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A68" s="4"/>
+      <c r="C68" s="4"/>
+      <c r="D68" s="2"/>
+      <c r="E68" s="2"/>
+      <c r="G68" s="2"/>
+      <c r="H68" s="2"/>
+      <c r="I68" s="2"/>
+      <c r="J68" s="2"/>
+      <c r="K68" s="2"/>
+      <c r="M68" s="2"/>
+      <c r="N68" s="2"/>
+      <c r="O68" s="2"/>
+      <c r="P68" s="2"/>
+      <c r="Q68" s="2"/>
+      <c r="R68" s="2"/>
+      <c r="S68" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFFD109B-C71D-E046-8A81-67D6F53B97EB}">
   <dimension ref="A1:V39"/>
   <sheetViews>
@@ -8371,7 +10961,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B56A288-0987-894C-9A05-ED744F64679C}">
   <dimension ref="A1:G52"/>
   <sheetViews>
@@ -8797,7 +11387,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5A98DD9-8159-D74D-B42C-CCC2F4D10811}">
   <dimension ref="A1:I35"/>
   <sheetViews>
@@ -9147,7 +11737,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4B8B105-0AE3-CA42-845E-0FC79C427790}">
   <dimension ref="A1:I25"/>
   <sheetViews>
@@ -9856,7 +12446,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F8C14B1-8C62-2C45-8CB1-1E9EDDA367B1}">
   <dimension ref="A1:F24"/>
   <sheetViews>
@@ -10107,7 +12697,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4305555-B5C2-8349-A6D3-AA57DAC0BCD5}">
   <dimension ref="A1:C37"/>
   <sheetViews>
@@ -10426,7 +13016,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{807AE9D8-8C9D-644F-8552-6E66F0115CF1}">
   <dimension ref="A1:S1"/>
   <sheetViews>
@@ -10521,7 +13111,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C46FA45D-9570-C643-AC7B-6310BD62121C}">
   <dimension ref="A1:D3"/>
   <sheetViews>
@@ -10584,7 +13174,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A8C2F56-38DA-1440-8447-6C36029D01F5}">
   <dimension ref="A1:I2"/>
   <sheetViews>
@@ -10660,463 +13250,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9162AE3F-0A5D-824F-8BC1-E6A493EFAA49}">
-  <dimension ref="A1:O22"/>
-  <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="14.33203125" style="11" customWidth="1"/>
-    <col min="2" max="2" width="21.5" style="11" customWidth="1"/>
-    <col min="3" max="3" width="15" style="11" customWidth="1"/>
-    <col min="4" max="4" width="55" style="11" customWidth="1"/>
-    <col min="5" max="5" width="48.33203125" style="11" customWidth="1"/>
-    <col min="6" max="6" width="18.83203125" style="11" customWidth="1"/>
-    <col min="7" max="7" width="41.1640625" style="11" customWidth="1"/>
-    <col min="8" max="8" width="15.1640625" style="11" customWidth="1"/>
-    <col min="9" max="9" width="50.5" style="11" customWidth="1"/>
-    <col min="10" max="11" width="31.5" style="11" customWidth="1"/>
-    <col min="12" max="15" width="10.83203125" style="11"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
-        <v>337</v>
-      </c>
-      <c r="B1" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="C1" s="16" t="s">
-        <v>339</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>341</v>
-      </c>
-      <c r="E1" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="F1" s="16" t="s">
-        <v>338</v>
-      </c>
-      <c r="G1" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="H1" s="16" t="s">
-        <v>340</v>
-      </c>
-      <c r="I1" s="16" t="s">
-        <v>405</v>
-      </c>
-      <c r="J1" s="16" t="s">
-        <v>342</v>
-      </c>
-      <c r="K1" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-    </row>
-    <row r="2" spans="1:15" ht="68" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>344</v>
-      </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13" t="s">
-        <v>346</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>860</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13" t="s">
-        <v>232</v>
-      </c>
-      <c r="J2" s="13"/>
-      <c r="K2" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-    </row>
-    <row r="3" spans="1:15" ht="34" x14ac:dyDescent="0.2">
-      <c r="D3" s="13"/>
-      <c r="F3" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13" t="s">
-        <v>233</v>
-      </c>
-      <c r="J3" s="13"/>
-      <c r="K3" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-    </row>
-    <row r="4" spans="1:15" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>343</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>348</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>860</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="I4" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="J4" s="13"/>
-      <c r="K4" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-    </row>
-    <row r="5" spans="1:15" ht="34" x14ac:dyDescent="0.2">
-      <c r="D5" s="13"/>
-      <c r="F5" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="I5" s="13" t="s">
-        <v>188</v>
-      </c>
-      <c r="J5" s="13"/>
-      <c r="K5" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-    </row>
-    <row r="6" spans="1:15" ht="85" x14ac:dyDescent="0.2">
-      <c r="D6" s="13"/>
-      <c r="F6" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="G6" s="13" t="s">
-        <v>236</v>
-      </c>
-      <c r="I6" s="13" t="s">
-        <v>200</v>
-      </c>
-      <c r="J6" s="13"/>
-      <c r="K6" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-    </row>
-    <row r="7" spans="1:15" ht="68" x14ac:dyDescent="0.2">
-      <c r="A7" s="11" t="s">
-        <v>172</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>345</v>
-      </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13" t="s">
-        <v>347</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>861</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13" t="s">
-        <v>234</v>
-      </c>
-      <c r="J7" s="13"/>
-      <c r="K7" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-    </row>
-    <row r="8" spans="1:15" ht="34" x14ac:dyDescent="0.2">
-      <c r="F8" s="11" t="s">
-        <v>190</v>
-      </c>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13" t="s">
-        <v>235</v>
-      </c>
-      <c r="J8" s="13"/>
-      <c r="K8" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-    </row>
-    <row r="9" spans="1:15" ht="34" x14ac:dyDescent="0.2">
-      <c r="F9" s="11" t="s">
-        <v>191</v>
-      </c>
-      <c r="I9" s="13" t="s">
-        <v>173</v>
-      </c>
-      <c r="J9" s="13"/>
-      <c r="K9" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-    </row>
-    <row r="10" spans="1:15" ht="68" x14ac:dyDescent="0.2">
-      <c r="A10" s="11" t="s">
-        <v>539</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>536</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>861</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>830</v>
-      </c>
-      <c r="I10" s="11" t="s">
-        <v>833</v>
-      </c>
-      <c r="K10" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-    </row>
-    <row r="11" spans="1:15" ht="85" x14ac:dyDescent="0.2">
-      <c r="A11" s="11" t="s">
-        <v>540</v>
-      </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="13" t="s">
-        <v>537</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>861</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>831</v>
-      </c>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="11" t="s">
-        <v>833</v>
-      </c>
-      <c r="K11" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-    </row>
-    <row r="12" spans="1:15" ht="34" x14ac:dyDescent="0.2">
-      <c r="A12" s="11" t="s">
-        <v>541</v>
-      </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="13" t="s">
-        <v>538</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>861</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>832</v>
-      </c>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="11" t="s">
-        <v>833</v>
-      </c>
-      <c r="K12" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="5"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
-    </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
-    </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="5"/>
-    </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
-      <c r="O19" s="5"/>
-    </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="M20" s="5"/>
-      <c r="N20" s="5"/>
-      <c r="O20" s="5"/>
-    </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="M21" s="5"/>
-      <c r="N21" s="5"/>
-      <c r="O21" s="5"/>
-    </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="M22" s="5"/>
-      <c r="N22" s="5"/>
-      <c r="O22" s="5"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -11186,6 +13319,463 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9162AE3F-0A5D-824F-8BC1-E6A493EFAA49}">
+  <dimension ref="A1:O22"/>
+  <sheetViews>
+    <sheetView topLeftCell="D1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.33203125" style="11" customWidth="1"/>
+    <col min="2" max="2" width="21.5" style="11" customWidth="1"/>
+    <col min="3" max="3" width="15" style="11" customWidth="1"/>
+    <col min="4" max="4" width="55" style="11" customWidth="1"/>
+    <col min="5" max="5" width="48.33203125" style="11" customWidth="1"/>
+    <col min="6" max="6" width="18.83203125" style="11" customWidth="1"/>
+    <col min="7" max="7" width="41.1640625" style="11" customWidth="1"/>
+    <col min="8" max="8" width="15.1640625" style="11" customWidth="1"/>
+    <col min="9" max="9" width="50.5" style="11" customWidth="1"/>
+    <col min="10" max="11" width="31.5" style="11" customWidth="1"/>
+    <col min="12" max="15" width="10.83203125" style="11"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1" s="16" t="s">
+        <v>337</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>339</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>341</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>338</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>340</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>405</v>
+      </c>
+      <c r="J1" s="16" t="s">
+        <v>342</v>
+      </c>
+      <c r="K1" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+    </row>
+    <row r="2" spans="1:15" ht="68" x14ac:dyDescent="0.2">
+      <c r="A2" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>344</v>
+      </c>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13" t="s">
+        <v>346</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>860</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="J2" s="13"/>
+      <c r="K2" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+    </row>
+    <row r="3" spans="1:15" ht="34" x14ac:dyDescent="0.2">
+      <c r="D3" s="13"/>
+      <c r="F3" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13" t="s">
+        <v>233</v>
+      </c>
+      <c r="J3" s="13"/>
+      <c r="K3" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+    </row>
+    <row r="4" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>343</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>348</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>860</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="13"/>
+      <c r="K4" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+    </row>
+    <row r="5" spans="1:15" ht="34" x14ac:dyDescent="0.2">
+      <c r="D5" s="13"/>
+      <c r="F5" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="J5" s="13"/>
+      <c r="K5" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+    </row>
+    <row r="6" spans="1:15" ht="85" x14ac:dyDescent="0.2">
+      <c r="D6" s="13"/>
+      <c r="F6" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="J6" s="13"/>
+      <c r="K6" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+    </row>
+    <row r="7" spans="1:15" ht="68" x14ac:dyDescent="0.2">
+      <c r="A7" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>345</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13" t="s">
+        <v>347</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>861</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="J7" s="13"/>
+      <c r="K7" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+    </row>
+    <row r="8" spans="1:15" ht="34" x14ac:dyDescent="0.2">
+      <c r="F8" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="J8" s="13"/>
+      <c r="K8" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+    </row>
+    <row r="9" spans="1:15" ht="34" x14ac:dyDescent="0.2">
+      <c r="F9" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="I9" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="J9" s="13"/>
+      <c r="K9" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+    </row>
+    <row r="10" spans="1:15" ht="68" x14ac:dyDescent="0.2">
+      <c r="A10" s="11" t="s">
+        <v>539</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>536</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>861</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>830</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>833</v>
+      </c>
+      <c r="K10" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+    </row>
+    <row r="11" spans="1:15" ht="85" x14ac:dyDescent="0.2">
+      <c r="A11" s="11" t="s">
+        <v>540</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="13" t="s">
+        <v>537</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>861</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>831</v>
+      </c>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="11" t="s">
+        <v>833</v>
+      </c>
+      <c r="K11" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+    </row>
+    <row r="12" spans="1:15" ht="34" x14ac:dyDescent="0.2">
+      <c r="A12" s="11" t="s">
+        <v>541</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="13" t="s">
+        <v>538</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>861</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>832</v>
+      </c>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="11" t="s">
+        <v>833</v>
+      </c>
+      <c r="K12" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D036654E-7FF8-D440-BC0A-D74BC57BB3C9}">
   <dimension ref="A1:H1"/>
   <sheetViews>
@@ -11235,7 +13825,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B29E6393-3A18-464C-A40D-B41879707264}">
   <dimension ref="A1:E4"/>
   <sheetViews>
@@ -11316,7 +13906,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CB4E9D5-B601-284A-9651-0AA604C2B9D1}">
   <dimension ref="A1:I13"/>
   <sheetViews>
@@ -11660,7 +14250,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6FA5DC6-70BE-E845-A085-20526138A835}">
   <dimension ref="A1:E8"/>
   <sheetViews>
@@ -11804,7 +14394,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{989384DC-1C54-514A-8A1E-ADD84D891BA4}">
   <dimension ref="A1:G6"/>
   <sheetViews>
@@ -11941,7 +14531,69 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{666D5CD6-DF98-6447-9150-7AA4E8F8C9F3}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="14.1640625" customWidth="1"/>
+    <col min="7" max="7" width="15.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="16" t="s">
+        <v>222</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>1503</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>525</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>463</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1505</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1507</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1508</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1506</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1509</v>
+      </c>
+      <c r="G2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2976DC75-5A85-2A48-9FBD-A6539815E624}">
   <dimension ref="A1:F77"/>
   <sheetViews>
@@ -13504,7 +16156,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E75AA97-4922-F248-8DDB-BFD2366D5770}">
   <dimension ref="A1:F156"/>
   <sheetViews>
@@ -16354,7 +19006,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA3AB5D9-1FE9-BF4A-BE82-FD043736B8E5}">
   <dimension ref="A1:B86"/>
   <sheetViews>
@@ -16376,7 +19028,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="372" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" ht="388" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
         <v>1177</v>
       </c>
@@ -16420,7 +19072,7 @@
       </c>
       <c r="B7" s="13"/>
     </row>
-    <row r="8" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
         <v>1183</v>
       </c>
@@ -16428,7 +19080,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="136" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" ht="289" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
         <v>1184</v>
       </c>
@@ -16436,7 +19088,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" ht="85" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
         <v>1185</v>
       </c>
@@ -16444,7 +19096,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" ht="85" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
         <v>1186</v>
       </c>
@@ -16458,7 +19110,7 @@
       </c>
       <c r="B12" s="13"/>
     </row>
-    <row r="13" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
         <v>1188</v>
       </c>
@@ -16474,7 +19126,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
         <v>1190</v>
       </c>
@@ -16490,7 +19142,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" ht="102" x14ac:dyDescent="0.2">
       <c r="A17" s="11" t="s">
         <v>1192</v>
       </c>
@@ -16498,7 +19150,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="170" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" ht="238" x14ac:dyDescent="0.2">
       <c r="A18" s="11" t="s">
         <v>1193</v>
       </c>
@@ -16506,7 +19158,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" ht="102" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="s">
         <v>1194</v>
       </c>
@@ -16514,7 +19166,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" ht="85" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="s">
         <v>1195</v>
       </c>
@@ -16528,7 +19180,7 @@
       </c>
       <c r="B21" s="13"/>
     </row>
-    <row r="22" spans="1:2" ht="187" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" ht="306" x14ac:dyDescent="0.2">
       <c r="A22" s="11" t="s">
         <v>1197</v>
       </c>
@@ -16536,7 +19188,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A23" s="11" t="s">
         <v>1198</v>
       </c>
@@ -16544,7 +19196,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="102" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" ht="187" x14ac:dyDescent="0.2">
       <c r="A24" s="11" t="s">
         <v>1199</v>
       </c>
@@ -16552,7 +19204,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="238" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A25" s="11" t="s">
         <v>1200</v>
       </c>
@@ -16566,7 +19218,7 @@
       </c>
       <c r="B26" s="13"/>
     </row>
-    <row r="27" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A27" s="11" t="s">
         <v>1202</v>
       </c>
@@ -16582,7 +19234,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" ht="170" x14ac:dyDescent="0.2">
       <c r="A29" s="11" t="s">
         <v>1204</v>
       </c>
@@ -16590,7 +19242,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="187" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" ht="372" x14ac:dyDescent="0.2">
       <c r="A30" s="11" t="s">
         <v>1205</v>
       </c>
@@ -16598,7 +19250,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" ht="85" x14ac:dyDescent="0.2">
       <c r="A31" s="11" t="s">
         <v>1206</v>
       </c>
@@ -16606,7 +19258,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A32" s="11" t="s">
         <v>1207</v>
       </c>
@@ -16614,7 +19266,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="119" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" ht="221" x14ac:dyDescent="0.2">
       <c r="A33" s="11" t="s">
         <v>1208</v>
       </c>
@@ -16622,7 +19274,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="170" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" ht="323" x14ac:dyDescent="0.2">
       <c r="A34" s="11" t="s">
         <v>1209</v>
       </c>
@@ -16630,7 +19282,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="238" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" ht="323" x14ac:dyDescent="0.2">
       <c r="A35" s="11" t="s">
         <v>1210</v>
       </c>
@@ -16638,7 +19290,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A36" s="11" t="s">
         <v>1211</v>
       </c>
@@ -16646,7 +19298,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A37" s="11" t="s">
         <v>1212</v>
       </c>
@@ -16654,7 +19306,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" ht="170" x14ac:dyDescent="0.2">
       <c r="A38" s="11" t="s">
         <v>1213</v>
       </c>
@@ -16662,7 +19314,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="204" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" ht="356" x14ac:dyDescent="0.2">
       <c r="A39" s="11" t="s">
         <v>1214</v>
       </c>
@@ -16678,7 +19330,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A41" s="11" t="s">
         <v>1216</v>
       </c>
@@ -16692,7 +19344,7 @@
       </c>
       <c r="B42" s="13"/>
     </row>
-    <row r="43" spans="1:2" ht="238" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" ht="340" x14ac:dyDescent="0.2">
       <c r="A43" s="11" t="s">
         <v>1218</v>
       </c>
@@ -16700,7 +19352,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A44" s="11" t="s">
         <v>1219</v>
       </c>
@@ -16708,7 +19360,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A45" s="11" t="s">
         <v>1220</v>
       </c>
@@ -16716,7 +19368,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" ht="102" x14ac:dyDescent="0.2">
       <c r="A46" s="11" t="s">
         <v>1221</v>
       </c>
@@ -16724,7 +19376,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="289" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" ht="340" x14ac:dyDescent="0.2">
       <c r="A47" s="11" t="s">
         <v>1222</v>
       </c>
@@ -16732,7 +19384,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="306" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" ht="404" x14ac:dyDescent="0.2">
       <c r="A48" s="11" t="s">
         <v>1223</v>
       </c>
@@ -16746,7 +19398,7 @@
       </c>
       <c r="B49" s="13"/>
     </row>
-    <row r="50" spans="1:2" ht="102" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2" ht="204" x14ac:dyDescent="0.2">
       <c r="A50" s="11" t="s">
         <v>1225</v>
       </c>
@@ -16754,7 +19406,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" ht="153" x14ac:dyDescent="0.2">
       <c r="A51" s="11" t="s">
         <v>1226</v>
       </c>
@@ -16768,7 +19420,7 @@
       </c>
       <c r="B52" s="13"/>
     </row>
-    <row r="53" spans="1:2" ht="323" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A53" s="11" t="s">
         <v>1228</v>
       </c>
@@ -16776,7 +19428,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="238" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2" ht="404" x14ac:dyDescent="0.2">
       <c r="A54" s="11" t="s">
         <v>1229</v>
       </c>
@@ -16792,7 +19444,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="272" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A56" s="11" t="s">
         <v>1231</v>
       </c>
@@ -16800,7 +19452,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="306" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A57" s="11" t="s">
         <v>1232</v>
       </c>
@@ -16808,7 +19460,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="204" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2" ht="404" x14ac:dyDescent="0.2">
       <c r="A58" s="11" t="s">
         <v>1233</v>
       </c>
@@ -16816,7 +19468,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2" ht="136" x14ac:dyDescent="0.2">
       <c r="A59" s="11" t="s">
         <v>1234</v>
       </c>
@@ -16824,7 +19476,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="170" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2" ht="323" x14ac:dyDescent="0.2">
       <c r="A60" s="11" t="s">
         <v>1235</v>
       </c>
@@ -16832,7 +19484,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2" ht="170" x14ac:dyDescent="0.2">
       <c r="A61" s="11" t="s">
         <v>1236</v>
       </c>
@@ -16840,7 +19492,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2" ht="170" x14ac:dyDescent="0.2">
       <c r="A62" s="11" t="s">
         <v>1237</v>
       </c>
@@ -16862,7 +19514,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="119" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2" ht="170" x14ac:dyDescent="0.2">
       <c r="A65" s="11" t="s">
         <v>1240</v>
       </c>
@@ -16870,7 +19522,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2" ht="85" x14ac:dyDescent="0.2">
       <c r="A66" s="11" t="s">
         <v>1241</v>
       </c>
@@ -16878,7 +19530,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A67" s="11" t="s">
         <v>1242</v>
       </c>
@@ -16886,7 +19538,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A68" s="11" t="s">
         <v>1243</v>
       </c>
@@ -16894,7 +19546,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A69" s="11" t="s">
         <v>1244</v>
       </c>
@@ -16902,7 +19554,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A70" s="11" t="s">
         <v>1245</v>
       </c>
@@ -16910,7 +19562,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A71" s="11" t="s">
         <v>1246</v>
       </c>
@@ -16918,7 +19570,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A72" s="11" t="s">
         <v>1247</v>
       </c>
@@ -16926,7 +19578,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A73" s="11" t="s">
         <v>1248</v>
       </c>
@@ -16934,7 +19586,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A74" s="11" t="s">
         <v>1249</v>
       </c>
@@ -16942,7 +19594,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A75" s="11" t="s">
         <v>1250</v>
       </c>
@@ -16950,7 +19602,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A76" s="11" t="s">
         <v>1251</v>
       </c>
@@ -16958,7 +19610,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A77" s="11" t="s">
         <v>1252</v>
       </c>
@@ -16974,7 +19626,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:2" ht="119" x14ac:dyDescent="0.2">
       <c r="A79" s="11" t="s">
         <v>1336</v>
       </c>
@@ -16982,7 +19634,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="356" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A80" s="11" t="s">
         <v>1337</v>
       </c>
@@ -16990,7 +19642,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A81" s="11" t="s">
         <v>1338</v>
       </c>
@@ -17014,7 +19666,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="204" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:2" ht="306" x14ac:dyDescent="0.2">
       <c r="A84" s="11" t="s">
         <v>1341</v>
       </c>
@@ -17022,7 +19674,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A85" s="11" t="s">
         <v>1342</v>
       </c>
@@ -17050,11 +19702,94 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91A054F5-5F55-D04A-9603-B97FC15141C8}">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="5" width="30.6640625" customWidth="1"/>
+    <col min="6" max="6" width="66.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="C2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E2" t="s">
+        <v>196</v>
+      </c>
+      <c r="F2" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>263</v>
+      </c>
+      <c r="B3" t="s">
+        <v>264</v>
+      </c>
+      <c r="C3" t="s">
+        <v>265</v>
+      </c>
+      <c r="D3" t="s">
+        <v>266</v>
+      </c>
+      <c r="E3" t="s">
+        <v>267</v>
+      </c>
+      <c r="F3" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F4" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ED6534B-B4C9-924A-BB14-180C2C37C6F1}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
       <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
@@ -17118,41 +19853,52 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91A054F5-5F55-D04A-9603-B97FC15141C8}">
-  <dimension ref="A1:F4"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEE339AA-95CC-C648-B549-41E87315C022}">
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="30.6640625" customWidth="1"/>
-    <col min="6" max="6" width="66.1640625" customWidth="1"/>
+    <col min="1" max="1" width="26.6640625" customWidth="1"/>
+    <col min="2" max="2" width="20.83203125" customWidth="1"/>
+    <col min="3" max="4" width="17.83203125" customWidth="1"/>
+    <col min="5" max="5" width="20.6640625" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" customWidth="1"/>
+    <col min="7" max="7" width="46.5" customWidth="1"/>
+    <col min="8" max="8" width="23.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="68" t="s">
+        <v>239</v>
+      </c>
+      <c r="E1" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="68" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1" s="68" t="s">
+        <v>1499</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -17160,40 +19906,26 @@
         <v>127</v>
       </c>
       <c r="C2" t="s">
+        <v>1501</v>
+      </c>
+      <c r="D2" t="s">
         <v>126</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>77</v>
       </c>
-      <c r="E2" t="s">
-        <v>196</v>
-      </c>
       <c r="F2" t="s">
+        <v>1500</v>
+      </c>
+      <c r="G2" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>263</v>
-      </c>
-      <c r="B3" t="s">
-        <v>264</v>
-      </c>
-      <c r="C3" t="s">
-        <v>265</v>
-      </c>
-      <c r="D3" t="s">
-        <v>266</v>
-      </c>
-      <c r="E3" t="s">
-        <v>267</v>
-      </c>
-      <c r="F3" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F4" s="7"/>
+      <c r="H2" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G3" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17201,7 +19933,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57AA03AF-8646-874D-935F-A73550A0FA0C}">
   <dimension ref="A1:F17"/>
   <sheetViews>
@@ -17221,144 +19953,144 @@
       <c r="A1" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="B1" s="68" t="s">
+      <c r="B1" s="69" t="s">
         <v>119</v>
       </c>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="B2" s="68" t="s">
+      <c r="B2" s="69" t="s">
         <v>121</v>
       </c>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="69" t="s">
+      <c r="B3" s="70" t="s">
         <v>534</v>
       </c>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
     </row>
     <row r="4" spans="1:6" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="70" t="s">
+      <c r="B4" s="71" t="s">
         <v>123</v>
       </c>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="68" t="s">
+      <c r="B5" s="69" t="s">
         <v>128</v>
       </c>
-      <c r="C5" s="68"/>
-      <c r="D5" s="68"/>
-      <c r="E5" s="68"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="69"/>
       <c r="F5" s="11"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="68" t="s">
+      <c r="B6" s="69" t="s">
         <v>129</v>
       </c>
-      <c r="C6" s="68"/>
-      <c r="D6" s="68"/>
-      <c r="E6" s="68"/>
+      <c r="C6" s="69"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="69"/>
       <c r="F6" s="11"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="70" t="s">
+      <c r="B7" s="71" t="s">
         <v>419</v>
       </c>
-      <c r="C7" s="68"/>
-      <c r="D7" s="68"/>
-      <c r="E7" s="68"/>
+      <c r="C7" s="69"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="69"/>
       <c r="F7" s="11"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="68" t="s">
+      <c r="B8" s="69" t="s">
         <v>73</v>
       </c>
-      <c r="C8" s="68"/>
-      <c r="D8" s="68"/>
-      <c r="E8" s="68"/>
+      <c r="C8" s="69"/>
+      <c r="D8" s="69"/>
+      <c r="E8" s="69"/>
       <c r="F8" s="11"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
         <v>525</v>
       </c>
-      <c r="B9" s="68" t="s">
+      <c r="B9" s="69" t="s">
         <v>526</v>
       </c>
-      <c r="C9" s="68"/>
-      <c r="D9" s="68"/>
-      <c r="E9" s="68"/>
+      <c r="C9" s="69"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="69"/>
       <c r="F9" s="11"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
         <v>527</v>
       </c>
-      <c r="B10" s="68" t="s">
+      <c r="B10" s="69" t="s">
         <v>528</v>
       </c>
-      <c r="C10" s="68"/>
-      <c r="D10" s="68"/>
-      <c r="E10" s="68"/>
+      <c r="C10" s="69"/>
+      <c r="D10" s="69"/>
+      <c r="E10" s="69"/>
       <c r="F10" s="11"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="B11" s="68" t="s">
+      <c r="B11" s="69" t="s">
         <v>78</v>
       </c>
-      <c r="C11" s="68"/>
-      <c r="D11" s="68"/>
-      <c r="E11" s="68"/>
+      <c r="C11" s="69"/>
+      <c r="D11" s="69"/>
+      <c r="E11" s="69"/>
       <c r="F11" s="11"/>
     </row>
     <row r="12" spans="1:6" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="B12" s="71" t="s">
+      <c r="B12" s="72" t="s">
         <v>437</v>
       </c>
-      <c r="C12" s="71"/>
-      <c r="D12" s="71"/>
-      <c r="E12" s="71"/>
+      <c r="C12" s="72"/>
+      <c r="D12" s="72"/>
+      <c r="E12" s="72"/>
       <c r="F12" s="11"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -17469,7 +20201,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8F64EF6-8042-354A-A83C-45CB3F03F5FE}">
   <dimension ref="A1:I2"/>
   <sheetViews>
@@ -17552,7 +20284,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CB1EE44-0F6C-474B-8770-DA2A14736511}">
   <dimension ref="A1:G32"/>
   <sheetViews>
@@ -18139,7 +20871,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BB09339-52DA-2A44-9E81-01CB7197E815}">
   <dimension ref="A1:F4"/>
   <sheetViews>
@@ -18241,7 +20973,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{740737DA-2EE9-3B48-882B-C915DB285C6C}">
   <dimension ref="A1:D6"/>
   <sheetViews>
@@ -18346,2561 +21078,18 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{136502A0-3DDE-CC47-9DA7-EB2F3073B24B}">
-  <dimension ref="A1:V68"/>
-  <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="30.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="41.6640625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="45.83203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="10.83203125" style="1"/>
-    <col min="7" max="7" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="10.83203125" style="1"/>
-    <col min="11" max="11" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="22" width="10.83203125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>222</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="K1" s="55" t="s">
-        <v>358</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="M1" s="55" t="s">
-        <v>359</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="O1" s="55" t="s">
-        <v>360</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="Q1" s="55" t="s">
-        <v>364</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="S1" s="9" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K2" s="56" t="s">
-        <v>17</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M2" s="56" t="s">
-        <v>17</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="O2" s="56" t="s">
-        <v>17</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q2" s="56" t="s">
-        <v>17</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A3" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>239</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="K3" s="56" t="s">
-        <v>361</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="M3" s="56" t="s">
-        <v>362</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="O3" s="56" t="s">
-        <v>363</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q3" s="56" t="s">
-        <v>365</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="K4" s="56" t="s">
-        <v>308</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="M4" s="56" t="s">
-        <v>308</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="O4" s="56" t="s">
-        <v>308</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="Q4" s="56" t="s">
-        <v>308</v>
-      </c>
-      <c r="R4" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="S4" s="2" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="14" t="s">
-        <v>293</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="K5" s="55" t="s">
-        <v>303</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="M5" s="55" t="s">
-        <v>304</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="O5" s="55" t="s">
-        <v>305</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="Q5" s="55" t="s">
-        <v>306</v>
-      </c>
-      <c r="R5" s="9" t="s">
-        <v>366</v>
-      </c>
-      <c r="S5" s="2" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A6" s="11"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="14" t="s">
-        <v>294</v>
-      </c>
-      <c r="K6" s="55"/>
-      <c r="M6" s="55"/>
-      <c r="O6" s="55"/>
-      <c r="Q6" s="55"/>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="14" t="s">
-        <v>295</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="K7" s="55" t="s">
-        <v>152</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="M7" s="55" t="s">
-        <v>152</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="O7" s="55" t="s">
-        <v>152</v>
-      </c>
-      <c r="P7" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q7" s="55" t="s">
-        <v>152</v>
-      </c>
-      <c r="R7" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="S7" s="9" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="14" t="s">
-        <v>296</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="K8" s="55" t="s">
-        <v>104</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="M8" s="55" t="s">
-        <v>105</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="O8" s="55" t="s">
-        <v>106</v>
-      </c>
-      <c r="P8" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q8" s="55" t="s">
-        <v>108</v>
-      </c>
-      <c r="R8" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="S8" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A9" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="K9" s="55"/>
-      <c r="M9" s="55"/>
-      <c r="O9" s="55"/>
-      <c r="Q9" s="55"/>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A10" s="4"/>
-      <c r="B10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K10" s="56" t="s">
-        <v>17</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M10" s="56" t="s">
-        <v>17</v>
-      </c>
-      <c r="N10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="O10" s="56" t="s">
-        <v>17</v>
-      </c>
-      <c r="P10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q10" s="56" t="s">
-        <v>17</v>
-      </c>
-      <c r="R10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="S10" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A11" s="4"/>
-      <c r="B11" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G11" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="H11" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="I11" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="J11" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="K11" s="55" t="s">
-        <v>17</v>
-      </c>
-      <c r="L11" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="M11" s="55" t="s">
-        <v>17</v>
-      </c>
-      <c r="N11" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="O11" s="55" t="s">
-        <v>17</v>
-      </c>
-      <c r="P11" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q11" s="55" t="s">
-        <v>17</v>
-      </c>
-      <c r="R11" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="S11" s="25" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A12" s="4"/>
-      <c r="B12" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K12" s="56" t="s">
-        <v>17</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M12" s="56" t="s">
-        <v>17</v>
-      </c>
-      <c r="N12" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="O12" s="56" t="s">
-        <v>17</v>
-      </c>
-      <c r="P12" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q12" s="56" t="s">
-        <v>17</v>
-      </c>
-      <c r="R12" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="S12" s="25" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13" s="4"/>
-      <c r="B13" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="50" t="s">
-        <v>856</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F13" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="G13" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="H13" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="I13" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="J13" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="K13" s="55" t="s">
-        <v>17</v>
-      </c>
-      <c r="L13" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="M13" s="55" t="s">
-        <v>17</v>
-      </c>
-      <c r="N13" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="O13" s="55" t="s">
-        <v>17</v>
-      </c>
-      <c r="P13" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q13" s="55" t="s">
-        <v>17</v>
-      </c>
-      <c r="R13" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="S13" s="25" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A14" s="4"/>
-      <c r="B14" s="3" t="s">
-        <v>432</v>
-      </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F14" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="G14" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="H14" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="I14" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="J14" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="K14" s="55" t="s">
-        <v>17</v>
-      </c>
-      <c r="L14" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="M14" s="55" t="s">
-        <v>17</v>
-      </c>
-      <c r="N14" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="O14" s="55" t="s">
-        <v>17</v>
-      </c>
-      <c r="P14" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q14" s="55" t="s">
-        <v>17</v>
-      </c>
-      <c r="R14" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="S14" s="25" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A15" s="4"/>
-      <c r="B15" s="3" t="s">
-        <v>431</v>
-      </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F15" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="G15" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="H15" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="I15" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="J15" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="K15" s="55" t="s">
-        <v>17</v>
-      </c>
-      <c r="L15" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="M15" s="55" t="s">
-        <v>17</v>
-      </c>
-      <c r="N15" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="O15" s="55" t="s">
-        <v>17</v>
-      </c>
-      <c r="P15" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q15" s="55" t="s">
-        <v>17</v>
-      </c>
-      <c r="R15" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="S15" s="25" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A16" s="4"/>
-      <c r="B16" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F16" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="H16" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="I16" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="J16" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="K16" s="55" t="s">
-        <v>17</v>
-      </c>
-      <c r="L16" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="M16" s="55" t="s">
-        <v>17</v>
-      </c>
-      <c r="N16" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="O16" s="55" t="s">
-        <v>17</v>
-      </c>
-      <c r="P16" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q16" s="55" t="s">
-        <v>17</v>
-      </c>
-      <c r="R16" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="S16" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A17" s="4"/>
-      <c r="B17" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K17" s="56" t="s">
-        <v>17</v>
-      </c>
-      <c r="L17" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M17" s="56" t="s">
-        <v>17</v>
-      </c>
-      <c r="N17" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="O17" s="56" t="s">
-        <v>17</v>
-      </c>
-      <c r="P17" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q17" s="56" t="s">
-        <v>17</v>
-      </c>
-      <c r="R17" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="S17" s="25" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A18" s="4"/>
-      <c r="B18" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K18" s="56" t="s">
-        <v>17</v>
-      </c>
-      <c r="L18" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M18" s="56" t="s">
-        <v>17</v>
-      </c>
-      <c r="N18" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="O18" s="56" t="s">
-        <v>17</v>
-      </c>
-      <c r="P18" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q18" s="56" t="s">
-        <v>17</v>
-      </c>
-      <c r="R18" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="S18" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A19" s="4"/>
-      <c r="B19" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K19" s="56" t="s">
-        <v>17</v>
-      </c>
-      <c r="L19" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M19" s="56" t="s">
-        <v>17</v>
-      </c>
-      <c r="N19" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="O19" s="56" t="s">
-        <v>17</v>
-      </c>
-      <c r="P19" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q19" s="56" t="s">
-        <v>17</v>
-      </c>
-      <c r="R19" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="S19" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A20" s="4"/>
-      <c r="B20" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="C20" s="4"/>
-      <c r="D20" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K20" s="56" t="s">
-        <v>17</v>
-      </c>
-      <c r="L20" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M20" s="56" t="s">
-        <v>17</v>
-      </c>
-      <c r="N20" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="O20" s="56" t="s">
-        <v>17</v>
-      </c>
-      <c r="P20" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q20" s="56" t="s">
-        <v>17</v>
-      </c>
-      <c r="R20" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="S20" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A21" s="4"/>
-      <c r="B21" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="C21" s="4"/>
-      <c r="D21" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K21" s="56" t="s">
-        <v>17</v>
-      </c>
-      <c r="L21" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M21" s="56" t="s">
-        <v>17</v>
-      </c>
-      <c r="N21" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="O21" s="56" t="s">
-        <v>17</v>
-      </c>
-      <c r="P21" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q21" s="56" t="s">
-        <v>17</v>
-      </c>
-      <c r="R21" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="S21" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" ht="34" x14ac:dyDescent="0.2">
-      <c r="A22" s="4"/>
-      <c r="B22" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="C22" s="13" t="s">
-        <v>451</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="J22" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K22" s="56" t="s">
-        <v>17</v>
-      </c>
-      <c r="L22" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="M22" s="56" t="s">
-        <v>17</v>
-      </c>
-      <c r="N22" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="O22" s="56" t="s">
-        <v>17</v>
-      </c>
-      <c r="P22" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q22" s="56" t="s">
-        <v>17</v>
-      </c>
-      <c r="R22" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="S22" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A23" s="4"/>
-      <c r="B23" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="C23" s="4"/>
-      <c r="D23" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K23" s="55" t="s">
-        <v>17</v>
-      </c>
-      <c r="L23" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="M23" s="55" t="s">
-        <v>17</v>
-      </c>
-      <c r="N23" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="O23" s="55" t="s">
-        <v>17</v>
-      </c>
-      <c r="P23" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q23" s="55" t="s">
-        <v>17</v>
-      </c>
-      <c r="R23" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="S23" s="25" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A24" s="4"/>
-      <c r="B24" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="C24" s="4"/>
-      <c r="D24" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K24" s="55" t="s">
-        <v>17</v>
-      </c>
-      <c r="L24" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="M24" s="55" t="s">
-        <v>17</v>
-      </c>
-      <c r="N24" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="O24" s="55" t="s">
-        <v>17</v>
-      </c>
-      <c r="P24" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q24" s="55" t="s">
-        <v>17</v>
-      </c>
-      <c r="R24" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="S24" s="25" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A25" s="4"/>
-      <c r="B25" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C25" s="4"/>
-      <c r="D25" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="J25" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K25" s="55" t="s">
-        <v>17</v>
-      </c>
-      <c r="L25" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="M25" s="55" t="s">
-        <v>17</v>
-      </c>
-      <c r="N25" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="O25" s="55" t="s">
-        <v>17</v>
-      </c>
-      <c r="P25" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q25" s="55" t="s">
-        <v>17</v>
-      </c>
-      <c r="R25" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="S25" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A26" s="4"/>
-      <c r="B26" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="C26" s="4"/>
-      <c r="D26" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K26" s="55" t="s">
-        <v>17</v>
-      </c>
-      <c r="L26" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="M26" s="55" t="s">
-        <v>17</v>
-      </c>
-      <c r="N26" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="O26" s="55" t="s">
-        <v>17</v>
-      </c>
-      <c r="P26" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q26" s="55" t="s">
-        <v>17</v>
-      </c>
-      <c r="R26" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S26" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A27" s="4"/>
-      <c r="B27" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>450</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K27" s="55" t="s">
-        <v>17</v>
-      </c>
-      <c r="L27" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="M27" s="55" t="s">
-        <v>17</v>
-      </c>
-      <c r="N27" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="O27" s="55" t="s">
-        <v>17</v>
-      </c>
-      <c r="P27" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q27" s="55" t="s">
-        <v>17</v>
-      </c>
-      <c r="R27" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S27" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A28" s="4"/>
-      <c r="B28" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C28" s="4"/>
-      <c r="D28" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="J28" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K28" s="55" t="s">
-        <v>17</v>
-      </c>
-      <c r="L28" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="M28" s="55" t="s">
-        <v>17</v>
-      </c>
-      <c r="N28" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="O28" s="55" t="s">
-        <v>17</v>
-      </c>
-      <c r="P28" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q28" s="55" t="s">
-        <v>17</v>
-      </c>
-      <c r="R28" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="S28" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A29" s="4"/>
-      <c r="B29" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C29" s="4"/>
-      <c r="D29" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="J29" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K29" s="55" t="s">
-        <v>17</v>
-      </c>
-      <c r="L29" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="M29" s="55" t="s">
-        <v>17</v>
-      </c>
-      <c r="N29" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="O29" s="55" t="s">
-        <v>17</v>
-      </c>
-      <c r="P29" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q29" s="55" t="s">
-        <v>17</v>
-      </c>
-      <c r="R29" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="S29" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19" ht="102" x14ac:dyDescent="0.2">
-      <c r="A30" s="28"/>
-      <c r="B30" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C30" s="40" t="s">
-        <v>367</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I30" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="J30" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K30" s="55" t="s">
-        <v>17</v>
-      </c>
-      <c r="L30" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="M30" s="55" t="s">
-        <v>17</v>
-      </c>
-      <c r="N30" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="O30" s="55" t="s">
-        <v>17</v>
-      </c>
-      <c r="P30" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q30" s="55" t="s">
-        <v>17</v>
-      </c>
-      <c r="R30" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="S30" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A31" s="4"/>
-      <c r="B31" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="C31" s="4"/>
-      <c r="D31" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K31" s="55" t="s">
-        <v>17</v>
-      </c>
-      <c r="L31" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="M31" s="55" t="s">
-        <v>17</v>
-      </c>
-      <c r="N31" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="O31" s="55" t="s">
-        <v>17</v>
-      </c>
-      <c r="P31" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q31" s="55" t="s">
-        <v>17</v>
-      </c>
-      <c r="R31" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="S31" s="25" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19" ht="17" x14ac:dyDescent="0.2">
-      <c r="A32" s="4"/>
-      <c r="B32" s="5" t="s">
-        <v>376</v>
-      </c>
-      <c r="C32" s="4"/>
-      <c r="D32" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="E32" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I32" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K32" s="55" t="s">
-        <v>17</v>
-      </c>
-      <c r="L32" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="M32" s="55" t="s">
-        <v>17</v>
-      </c>
-      <c r="N32" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="O32" s="55" t="s">
-        <v>17</v>
-      </c>
-      <c r="P32" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q32" s="55" t="s">
-        <v>17</v>
-      </c>
-      <c r="R32" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="S32" s="25" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="33" spans="1:19" ht="17" x14ac:dyDescent="0.2">
-      <c r="A33" s="4"/>
-      <c r="B33" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="C33" s="27" t="s">
-        <v>197</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K33" s="55" t="s">
-        <v>17</v>
-      </c>
-      <c r="L33" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="M33" s="55" t="s">
-        <v>17</v>
-      </c>
-      <c r="N33" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="O33" s="55" t="s">
-        <v>17</v>
-      </c>
-      <c r="P33" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q33" s="55" t="s">
-        <v>17</v>
-      </c>
-      <c r="R33" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="S33" s="25" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="34" spans="1:19" ht="17" x14ac:dyDescent="0.2">
-      <c r="A34" s="4"/>
-      <c r="B34" s="5" t="s">
-        <v>375</v>
-      </c>
-      <c r="C34" s="4"/>
-      <c r="D34" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I34" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="J34" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K34" s="55" t="s">
-        <v>17</v>
-      </c>
-      <c r="L34" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="M34" s="55" t="s">
-        <v>17</v>
-      </c>
-      <c r="N34" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="O34" s="55" t="s">
-        <v>17</v>
-      </c>
-      <c r="P34" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q34" s="55" t="s">
-        <v>17</v>
-      </c>
-      <c r="R34" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="S34" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A35" s="4"/>
-      <c r="B35" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="C35" s="4"/>
-      <c r="D35" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I35" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J35" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K35" s="56" t="s">
-        <v>17</v>
-      </c>
-      <c r="L35" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M35" s="56" t="s">
-        <v>17</v>
-      </c>
-      <c r="N35" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="O35" s="56" t="s">
-        <v>17</v>
-      </c>
-      <c r="P35" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q35" s="56" t="s">
-        <v>17</v>
-      </c>
-      <c r="R35" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="S35" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A36" s="4"/>
-      <c r="B36" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="C36" s="4"/>
-      <c r="D36" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E36" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I36" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J36" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K36" s="56" t="s">
-        <v>17</v>
-      </c>
-      <c r="L36" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M36" s="56" t="s">
-        <v>17</v>
-      </c>
-      <c r="N36" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="O36" s="55" t="s">
-        <v>17</v>
-      </c>
-      <c r="P36" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q36" s="55" t="s">
-        <v>17</v>
-      </c>
-      <c r="R36" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="S36" s="25" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A37" s="4"/>
-      <c r="B37" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="C37" s="4"/>
-      <c r="D37" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E37" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G37" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="H37" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="I37" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="J37" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K37" s="55" t="s">
-        <v>17</v>
-      </c>
-      <c r="L37" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="M37" s="55" t="s">
-        <v>17</v>
-      </c>
-      <c r="N37" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="O37" s="55" t="s">
-        <v>17</v>
-      </c>
-      <c r="P37" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q37" s="55" t="s">
-        <v>17</v>
-      </c>
-      <c r="R37" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="S37" s="25" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A38" s="4"/>
-      <c r="B38" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="C38" s="4"/>
-      <c r="D38" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I38" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J38" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K38" s="56" t="s">
-        <v>17</v>
-      </c>
-      <c r="L38" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M38" s="56" t="s">
-        <v>17</v>
-      </c>
-      <c r="N38" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="O38" s="55" t="s">
-        <v>17</v>
-      </c>
-      <c r="P38" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q38" s="55" t="s">
-        <v>17</v>
-      </c>
-      <c r="R38" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="S38" s="25" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A39" s="53"/>
-      <c r="B39" s="54" t="s">
-        <v>169</v>
-      </c>
-      <c r="C39" s="53"/>
-      <c r="D39" s="55" t="s">
-        <v>1</v>
-      </c>
-      <c r="E39" s="56" t="s">
-        <v>17</v>
-      </c>
-      <c r="F39" s="55" t="s">
-        <v>1</v>
-      </c>
-      <c r="G39" s="56" t="s">
-        <v>1</v>
-      </c>
-      <c r="H39" s="56" t="s">
-        <v>1</v>
-      </c>
-      <c r="I39" s="56" t="s">
-        <v>1</v>
-      </c>
-      <c r="J39" s="56" t="s">
-        <v>1</v>
-      </c>
-      <c r="K39" s="56" t="s">
-        <v>1</v>
-      </c>
-      <c r="L39" s="56" t="s">
-        <v>1</v>
-      </c>
-      <c r="M39" s="56" t="s">
-        <v>1</v>
-      </c>
-      <c r="N39" s="56" t="s">
-        <v>1</v>
-      </c>
-      <c r="O39" s="56" t="s">
-        <v>1</v>
-      </c>
-      <c r="P39" s="56" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q39" s="56" t="s">
-        <v>1</v>
-      </c>
-      <c r="R39" s="56" t="s">
-        <v>1</v>
-      </c>
-      <c r="S39" s="55" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A40" s="4"/>
-      <c r="C40" s="4"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
-      <c r="I40" s="2"/>
-      <c r="J40" s="2"/>
-      <c r="K40" s="2"/>
-      <c r="L40" s="2"/>
-      <c r="M40" s="2"/>
-      <c r="N40" s="2"/>
-      <c r="O40" s="2"/>
-      <c r="P40" s="2"/>
-      <c r="Q40" s="2"/>
-      <c r="R40" s="2"/>
-      <c r="S40" s="25"/>
-    </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A41" s="4"/>
-      <c r="C41" s="4"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
-      <c r="I41" s="2"/>
-      <c r="J41" s="2"/>
-      <c r="K41" s="2"/>
-      <c r="L41" s="2"/>
-      <c r="M41" s="2"/>
-      <c r="N41" s="2"/>
-      <c r="O41" s="2"/>
-      <c r="P41" s="2"/>
-      <c r="Q41" s="2"/>
-      <c r="R41" s="2"/>
-      <c r="S41" s="25"/>
-    </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A42" s="4"/>
-      <c r="C42" s="4"/>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
-      <c r="I42" s="2"/>
-      <c r="J42" s="2"/>
-      <c r="K42" s="2"/>
-      <c r="L42" s="2"/>
-      <c r="M42" s="2"/>
-      <c r="N42" s="2"/>
-      <c r="O42" s="2"/>
-      <c r="P42" s="2"/>
-      <c r="Q42" s="2"/>
-      <c r="R42" s="2"/>
-      <c r="S42" s="25"/>
-    </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A43" s="4"/>
-      <c r="C43" s="4"/>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
-      <c r="I43" s="2"/>
-      <c r="J43" s="2"/>
-      <c r="K43" s="2"/>
-      <c r="L43" s="2"/>
-      <c r="M43" s="2"/>
-      <c r="N43" s="2"/>
-      <c r="O43" s="2"/>
-      <c r="P43" s="2"/>
-      <c r="Q43" s="2"/>
-      <c r="R43" s="2"/>
-      <c r="S43" s="25"/>
-    </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A44" s="4"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
-      <c r="I44" s="2"/>
-      <c r="J44" s="2"/>
-      <c r="K44" s="2"/>
-      <c r="L44" s="2"/>
-      <c r="M44" s="2"/>
-      <c r="N44" s="2"/>
-      <c r="O44" s="2"/>
-      <c r="P44" s="2"/>
-      <c r="Q44" s="2"/>
-      <c r="R44" s="2"/>
-      <c r="S44" s="2"/>
-    </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A45" s="4"/>
-      <c r="C45" s="4"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
-      <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
-      <c r="I45" s="2"/>
-      <c r="J45" s="2"/>
-      <c r="K45" s="2"/>
-      <c r="L45" s="2"/>
-      <c r="M45" s="2"/>
-      <c r="N45" s="2"/>
-      <c r="O45" s="2"/>
-      <c r="P45" s="2"/>
-      <c r="Q45" s="2"/>
-      <c r="R45" s="2"/>
-      <c r="S45" s="2"/>
-    </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A46" s="4"/>
-      <c r="C46" s="4"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
-      <c r="G46" s="2"/>
-      <c r="H46" s="2"/>
-      <c r="I46" s="2"/>
-      <c r="J46" s="2"/>
-      <c r="K46" s="2"/>
-      <c r="L46" s="2"/>
-      <c r="M46" s="2"/>
-      <c r="N46" s="2"/>
-      <c r="O46" s="2"/>
-      <c r="P46" s="2"/>
-      <c r="Q46" s="2"/>
-      <c r="R46" s="2"/>
-      <c r="S46" s="2"/>
-    </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A47" s="4"/>
-      <c r="C47" s="4"/>
-      <c r="F47" s="2"/>
-      <c r="G47" s="2"/>
-      <c r="H47" s="2"/>
-      <c r="I47" s="2"/>
-      <c r="J47" s="2"/>
-      <c r="K47" s="2"/>
-      <c r="L47" s="2"/>
-      <c r="M47" s="2"/>
-      <c r="N47" s="2"/>
-      <c r="O47" s="2"/>
-      <c r="P47" s="2"/>
-      <c r="Q47" s="2"/>
-      <c r="R47" s="2"/>
-      <c r="S47" s="2"/>
-    </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A48" s="4"/>
-      <c r="C48" s="4"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
-      <c r="G48" s="2"/>
-      <c r="H48" s="2"/>
-      <c r="I48" s="2"/>
-      <c r="J48" s="2"/>
-      <c r="K48" s="2"/>
-      <c r="L48" s="2"/>
-      <c r="M48" s="2"/>
-      <c r="N48" s="2"/>
-      <c r="O48" s="2"/>
-      <c r="P48" s="2"/>
-      <c r="Q48" s="2"/>
-      <c r="R48" s="2"/>
-      <c r="S48" s="2"/>
-    </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A49" s="4"/>
-      <c r="C49" s="4"/>
-      <c r="F49" s="2"/>
-      <c r="G49" s="2"/>
-      <c r="H49" s="2"/>
-      <c r="I49" s="2"/>
-      <c r="J49" s="2"/>
-      <c r="K49" s="2"/>
-      <c r="L49" s="2"/>
-      <c r="M49" s="2"/>
-      <c r="N49" s="2"/>
-      <c r="O49" s="2"/>
-      <c r="P49" s="2"/>
-      <c r="Q49" s="2"/>
-      <c r="R49" s="2"/>
-      <c r="S49" s="2"/>
-    </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A50" s="4"/>
-      <c r="C50" s="4"/>
-      <c r="F50" s="2"/>
-      <c r="G50" s="2"/>
-      <c r="H50" s="2"/>
-      <c r="I50" s="2"/>
-      <c r="J50" s="2"/>
-      <c r="K50" s="2"/>
-      <c r="L50" s="2"/>
-      <c r="M50" s="2"/>
-      <c r="N50" s="2"/>
-      <c r="O50" s="2"/>
-      <c r="P50" s="2"/>
-      <c r="Q50" s="2"/>
-      <c r="R50" s="2"/>
-      <c r="S50" s="2"/>
-    </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A51" s="4"/>
-      <c r="C51" s="4"/>
-      <c r="F51" s="2"/>
-      <c r="G51" s="2"/>
-      <c r="H51" s="2"/>
-      <c r="I51" s="2"/>
-      <c r="J51" s="2"/>
-      <c r="K51" s="2"/>
-      <c r="L51" s="2"/>
-      <c r="M51" s="2"/>
-      <c r="N51" s="2"/>
-      <c r="O51" s="2"/>
-      <c r="P51" s="2"/>
-      <c r="Q51" s="2"/>
-      <c r="R51" s="2"/>
-      <c r="S51" s="2"/>
-    </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A52" s="4"/>
-      <c r="C52" s="4"/>
-      <c r="F52" s="2"/>
-      <c r="G52" s="2"/>
-      <c r="H52" s="2"/>
-      <c r="I52" s="2"/>
-      <c r="J52" s="2"/>
-      <c r="K52" s="2"/>
-      <c r="L52" s="2"/>
-      <c r="M52" s="2"/>
-      <c r="N52" s="2"/>
-      <c r="O52" s="2"/>
-      <c r="P52" s="2"/>
-      <c r="Q52" s="2"/>
-      <c r="R52" s="2"/>
-      <c r="S52" s="2"/>
-    </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A53" s="4"/>
-      <c r="C53" s="4"/>
-      <c r="F53" s="2"/>
-      <c r="G53" s="2"/>
-      <c r="H53" s="2"/>
-    </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A54" s="4"/>
-      <c r="C54" s="4"/>
-    </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A55" s="4"/>
-      <c r="C55" s="5"/>
-      <c r="I55" s="2"/>
-      <c r="J55" s="2"/>
-      <c r="K55" s="2"/>
-      <c r="L55" s="2"/>
-      <c r="M55" s="2"/>
-      <c r="N55" s="2"/>
-      <c r="O55" s="2"/>
-      <c r="P55" s="2"/>
-      <c r="Q55" s="2"/>
-      <c r="R55" s="2"/>
-      <c r="S55" s="2"/>
-    </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A56" s="4"/>
-      <c r="C56" s="4"/>
-      <c r="D56" s="2"/>
-      <c r="E56" s="2"/>
-      <c r="H56" s="2"/>
-    </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A57" s="4"/>
-      <c r="C57" s="4"/>
-      <c r="D57" s="2"/>
-      <c r="E57" s="2"/>
-      <c r="H57" s="2"/>
-    </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A58" s="4"/>
-      <c r="C58" s="4"/>
-      <c r="D58" s="2"/>
-      <c r="E58" s="2"/>
-      <c r="H58" s="2"/>
-    </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A59" s="4"/>
-      <c r="C59" s="4"/>
-      <c r="H59" s="2"/>
-      <c r="I59" s="2"/>
-      <c r="J59" s="2"/>
-      <c r="K59" s="2"/>
-      <c r="M59" s="2"/>
-      <c r="N59" s="2"/>
-      <c r="P59" s="2"/>
-      <c r="Q59" s="2"/>
-      <c r="R59" s="2"/>
-    </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A60" s="4"/>
-      <c r="C60" s="4"/>
-      <c r="H60" s="2"/>
-      <c r="I60" s="2"/>
-      <c r="J60" s="2"/>
-      <c r="K60" s="2"/>
-      <c r="M60" s="2"/>
-      <c r="N60" s="2"/>
-      <c r="P60" s="2"/>
-      <c r="Q60" s="2"/>
-      <c r="R60" s="2"/>
-    </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A61" s="4"/>
-      <c r="C61" s="4"/>
-      <c r="D61" s="2"/>
-      <c r="E61" s="2"/>
-      <c r="G61" s="2"/>
-      <c r="H61" s="2"/>
-      <c r="I61" s="2"/>
-      <c r="J61" s="2"/>
-      <c r="K61" s="2"/>
-      <c r="L61" s="2"/>
-      <c r="M61" s="2"/>
-      <c r="N61" s="2"/>
-      <c r="O61" s="2"/>
-      <c r="P61" s="2"/>
-      <c r="Q61" s="2"/>
-      <c r="R61" s="2"/>
-      <c r="S61" s="2"/>
-    </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A62" s="3"/>
-      <c r="C62" s="4"/>
-      <c r="D62" s="2"/>
-      <c r="E62" s="2"/>
-      <c r="I62" s="2"/>
-      <c r="J62" s="2"/>
-      <c r="K62" s="2"/>
-      <c r="M62" s="2"/>
-      <c r="N62" s="2"/>
-      <c r="O62" s="2"/>
-      <c r="P62" s="2"/>
-      <c r="Q62" s="2"/>
-      <c r="R62" s="2"/>
-    </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A63" s="4"/>
-      <c r="C63" s="4"/>
-      <c r="D63" s="2"/>
-      <c r="E63" s="2"/>
-      <c r="I63" s="2"/>
-      <c r="J63" s="2"/>
-      <c r="K63" s="2"/>
-      <c r="M63" s="2"/>
-      <c r="N63" s="2"/>
-      <c r="O63" s="2"/>
-      <c r="P63" s="2"/>
-      <c r="Q63" s="2"/>
-      <c r="R63" s="2"/>
-    </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A64" s="4"/>
-      <c r="C64" s="4"/>
-      <c r="D64" s="2"/>
-      <c r="E64" s="2"/>
-      <c r="H64" s="2"/>
-      <c r="I64" s="2"/>
-      <c r="J64" s="2"/>
-      <c r="K64" s="2"/>
-      <c r="M64" s="2"/>
-      <c r="N64" s="2"/>
-      <c r="O64" s="2"/>
-      <c r="P64" s="2"/>
-      <c r="Q64" s="2"/>
-      <c r="R64" s="2"/>
-    </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A65" s="4"/>
-      <c r="C65" s="4"/>
-      <c r="D65" s="2"/>
-      <c r="E65" s="2"/>
-      <c r="H65" s="2"/>
-      <c r="M65" s="2"/>
-      <c r="N65" s="2"/>
-      <c r="P65" s="2"/>
-      <c r="Q65" s="2"/>
-      <c r="R65" s="2"/>
-    </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A66" s="4"/>
-      <c r="C66" s="4"/>
-      <c r="D66" s="2"/>
-      <c r="E66" s="2"/>
-      <c r="G66" s="2"/>
-      <c r="H66" s="2"/>
-      <c r="I66" s="2"/>
-      <c r="J66" s="2"/>
-      <c r="K66" s="2"/>
-      <c r="L66" s="2"/>
-      <c r="M66" s="2"/>
-      <c r="N66" s="2"/>
-      <c r="O66" s="2"/>
-      <c r="P66" s="2"/>
-      <c r="Q66" s="2"/>
-      <c r="R66" s="2"/>
-      <c r="S66" s="2"/>
-    </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A67" s="4"/>
-      <c r="C67" s="4"/>
-      <c r="D67" s="2"/>
-      <c r="E67" s="2"/>
-      <c r="H67" s="2"/>
-      <c r="I67" s="2"/>
-      <c r="J67" s="2"/>
-      <c r="K67" s="2"/>
-      <c r="L67" s="2"/>
-      <c r="M67" s="2"/>
-      <c r="N67" s="2"/>
-      <c r="O67" s="2"/>
-      <c r="P67" s="2"/>
-      <c r="Q67" s="2"/>
-      <c r="R67" s="2"/>
-    </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A68" s="4"/>
-      <c r="C68" s="4"/>
-      <c r="D68" s="2"/>
-      <c r="E68" s="2"/>
-      <c r="G68" s="2"/>
-      <c r="H68" s="2"/>
-      <c r="I68" s="2"/>
-      <c r="J68" s="2"/>
-      <c r="K68" s="2"/>
-      <c r="M68" s="2"/>
-      <c r="N68" s="2"/>
-      <c r="O68" s="2"/>
-      <c r="P68" s="2"/>
-      <c r="Q68" s="2"/>
-      <c r="R68" s="2"/>
-      <c r="S68" s="2"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="98eacbea-7562-4a40-a7f2-e999cdc0cec5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="75bf9804-c18d-470a-a27f-eeaf4abcd247" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -20909,7 +21098,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D47D794EB48E7144959FE534A5ED3D9A" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e2a26abefe6b107b571df4f2e43af2ce">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="98eacbea-7562-4a40-a7f2-e999cdc0cec5" xmlns:ns3="75bf9804-c18d-470a-a27f-eeaf4abcd247" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5806404ce956f9af473b927dc8d5ee33" ns2:_="" ns3:_="">
     <xsd:import namespace="98eacbea-7562-4a40-a7f2-e999cdc0cec5"/>
@@ -21110,18 +21299,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="98eacbea-7562-4a40-a7f2-e999cdc0cec5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="75bf9804-c18d-470a-a27f-eeaf4abcd247" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5AE94761-8578-4804-B593-FBFFCD1EC013}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="98eacbea-7562-4a40-a7f2-e999cdc0cec5"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="75bf9804-c18d-470a-a27f-eeaf4abcd247"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0D2739C-381D-470B-B6E1-B86FD5C25B2E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -21129,7 +21324,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{028E3775-7751-44E5-835D-F091B807F690}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -21146,21 +21341,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5AE94761-8578-4804-B593-FBFFCD1EC013}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="98eacbea-7562-4a40-a7f2-e999cdc0cec5"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="75bf9804-c18d-470a-a27f-eeaf4abcd247"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Documents/Examples/CDISC_Pilot/CDISC_Pilot_Study.xlsx
+++ b/Documents/Examples/CDISC_Pilot/CDISC_Pilot_Study.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm_data/source_data/protocols/CDISC_Pilot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{928A572D-702C-FC4B-85DD-63F546A97E09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{655AB133-EDF1-B144-B825-753EEF7C0135}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60700" yWindow="500" windowWidth="41180" windowHeight="27240" activeTab="7" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="52920" yWindow="500" windowWidth="41180" windowHeight="27240" firstSheet="11" activeTab="22" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3220" uniqueCount="1524">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3263" uniqueCount="1553">
   <si>
     <t>Screening</t>
   </si>
@@ -6764,12 +6764,99 @@
   <si>
     <t>GBR</t>
   </si>
+  <si>
+    <t>template</t>
+  </si>
+  <si>
+    <t>lilly</t>
+  </si>
+  <si>
+    <t>populationSubset</t>
+  </si>
+  <si>
+    <t>intercurrentEventText</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Patients with Mild to Moderate Alzheimer’s Disease. </t>
+  </si>
+  <si>
+    <t>EST1</t>
+  </si>
+  <si>
+    <t>DISTRUPTION</t>
+  </si>
+  <si>
+    <t>Temporary Treatment Interruption </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Treatment Policy – Continue to measure effect of treatment assignment regardless of interruption. </t>
+  </si>
+  <si>
+    <t>Group mean changes from baseline in the primary efficacy parameters</t>
+  </si>
+  <si>
+    <t>The disruption of treatment to the subject</t>
+  </si>
+  <si>
+    <t>Experimental Intervention</t>
+  </si>
+  <si>
+    <t>DRUG</t>
+  </si>
+  <si>
+    <t>FDA: A=B</t>
+  </si>
+  <si>
+    <t>IMP</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1 Day</t>
+  </si>
+  <si>
+    <t>ORAL</t>
+  </si>
+  <si>
+    <t>QD</t>
+  </si>
+  <si>
+    <t>Need reason</t>
+  </si>
+  <si>
+    <t>Xinomiline</t>
+  </si>
+  <si>
+    <t>SPONSOR: XIN = XIN</t>
+  </si>
+  <si>
+    <t>PATCH_50</t>
+  </si>
+  <si>
+    <t>PATCH_75</t>
+  </si>
+  <si>
+    <t>50 cm2 Patch</t>
+  </si>
+  <si>
+    <t>75 cm2 Patch</t>
+  </si>
+  <si>
+    <t>54mg</t>
+  </si>
+  <si>
+    <t>81mg</t>
+  </si>
+  <si>
+    <t>24 weeks</t>
+  </si>
+  <si>
+    <t>XINONILINE</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -6858,8 +6945,21 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF444444"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6888,6 +6988,11 @@
         <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -6898,7 +7003,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -6906,8 +7011,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -7113,8 +7219,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="5" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="6">
+    <cellStyle name="Bad" xfId="5" builtinId="27"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -13292,19 +13405,19 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{807AE9D8-8C9D-644F-8552-6E66F0115CF1}">
-  <dimension ref="A1:S1"/>
+  <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView topLeftCell="K1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.1640625" customWidth="1"/>
     <col min="2" max="2" width="13.33203125" customWidth="1"/>
     <col min="3" max="3" width="13.5" customWidth="1"/>
-    <col min="4" max="4" width="14.5" customWidth="1"/>
-    <col min="5" max="5" width="16.83203125" customWidth="1"/>
+    <col min="4" max="4" width="30.5" customWidth="1"/>
+    <col min="5" max="5" width="24.1640625" customWidth="1"/>
     <col min="6" max="6" width="8.6640625" customWidth="1"/>
     <col min="7" max="7" width="23.5" customWidth="1"/>
     <col min="8" max="8" width="21" customWidth="1"/>
@@ -13380,6 +13493,97 @@
         <v>475</v>
       </c>
     </row>
+    <row r="2" spans="1:19" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>1543</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>1543</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>1544</v>
+      </c>
+      <c r="E2" s="73" t="s">
+        <v>1535</v>
+      </c>
+      <c r="F2" s="73" t="s">
+        <v>1536</v>
+      </c>
+      <c r="G2" s="54" t="s">
+        <v>1537</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>1538</v>
+      </c>
+      <c r="I2" s="74" t="s">
+        <v>1539</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>1545</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>1547</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>1540</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>1541</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>1551</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="R2" s="74" t="s">
+        <v>1542</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>1551</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="17" x14ac:dyDescent="0.2">
+      <c r="J3" s="3" t="s">
+        <v>1546</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>1548</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>1540</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>1541</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>1551</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="R3" s="74" t="s">
+        <v>1542</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>1551</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -13387,23 +13591,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A36B6E2-81ED-B543-A330-D9502D2DF96E}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
     <col min="2" max="2" width="23.1640625" customWidth="1"/>
-    <col min="3" max="3" width="28" customWidth="1"/>
-    <col min="4" max="5" width="28.33203125" customWidth="1"/>
-    <col min="6" max="6" width="40" customWidth="1"/>
+    <col min="3" max="3" width="19.1640625" customWidth="1"/>
+    <col min="4" max="4" width="28.33203125" customWidth="1"/>
+    <col min="5" max="5" width="19" customWidth="1"/>
+    <col min="6" max="6" width="21.5" customWidth="1"/>
     <col min="7" max="7" width="16.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="36" t="s">
         <v>253</v>
       </c>
@@ -13425,8 +13630,11 @@
       <c r="G1" s="37" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H1" s="37" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -13447,6 +13655,9 @@
       </c>
       <c r="G2" s="11" t="s">
         <v>1510</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>1525</v>
       </c>
     </row>
   </sheetData>
@@ -13603,7 +13814,7 @@
   <dimension ref="A1:O22"/>
   <sheetViews>
     <sheetView topLeftCell="D1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14057,23 +14268,26 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D036654E-7FF8-D440-BC0A-D74BC57BB3C9}">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.83203125" customWidth="1"/>
-    <col min="2" max="2" width="22.5" customWidth="1"/>
-    <col min="3" max="4" width="23" customWidth="1"/>
-    <col min="5" max="5" width="28.1640625" customWidth="1"/>
-    <col min="6" max="6" width="61.83203125" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" customWidth="1"/>
+    <col min="3" max="3" width="28" customWidth="1"/>
+    <col min="4" max="4" width="17.1640625" customWidth="1"/>
+    <col min="5" max="5" width="23" customWidth="1"/>
+    <col min="6" max="6" width="28.1640625" customWidth="1"/>
     <col min="7" max="8" width="17" customWidth="1"/>
+    <col min="9" max="9" width="23.5" customWidth="1"/>
+    <col min="10" max="10" width="22.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
         <v>55</v>
       </c>
@@ -14084,19 +14298,57 @@
         <v>39</v>
       </c>
       <c r="D1" s="16" t="s">
+        <v>1526</v>
+      </c>
+      <c r="E1" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="F1" s="16" t="s">
         <v>52</v>
-      </c>
-      <c r="F1" s="16" t="s">
-        <v>51</v>
       </c>
       <c r="G1" s="16" t="s">
         <v>50</v>
       </c>
       <c r="H1" s="16" t="s">
         <v>49</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="J1" s="16" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="85" x14ac:dyDescent="0.2">
+      <c r="A2" s="11" t="s">
+        <v>1529</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>1533</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>1528</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>334</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>1530</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>1534</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>1532</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>1531</v>
       </c>
     </row>
   </sheetData>
@@ -14877,7 +15129,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2976DC75-5A85-2A48-9FBD-A6539815E624}">
   <dimension ref="A1:F77"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView topLeftCell="A18" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
@@ -16489,7 +16741,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E75AA97-4922-F248-8DDB-BFD2366D5770}">
   <dimension ref="A1:F156"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="B121" sqref="B121"/>
     </sheetView>
   </sheetViews>
@@ -20598,7 +20850,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8F64EF6-8042-354A-A83C-45CB3F03F5FE}">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
       <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>

--- a/Documents/Examples/CDISC_Pilot/CDISC_Pilot_Study.xlsx
+++ b/Documents/Examples/CDISC_Pilot/CDISC_Pilot_Study.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm_data/source_data/protocols/CDISC_Pilot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{868EDFC1-533A-2845-B6D6-C883D3DAB509}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F1D8F6E-44EB-BA4C-B580-4F591F0F6866}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8340" yWindow="500" windowWidth="41180" windowHeight="27240" activeTab="7" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="8340" yWindow="500" windowWidth="41180" windowHeight="27240" firstSheet="20" activeTab="27" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -1629,12 +1629,6 @@
   </si>
   <si>
     <t>COND1</t>
-  </si>
-  <si>
-    <t>@plannedAge/Range/@minValue</t>
-  </si>
-  <si>
-    <t>@plannedAge/Range/@maxValue</t>
   </si>
   <si>
     <t>SPONSOR: MILD_MOD_ALZ=Mild to Moderate Alzheimer's Disease, SNOMED: 26929004=Alzheimer's disease</t>
@@ -6834,6 +6828,12 @@
   <si>
     <t>trialSubTypes</t>
   </si>
+  <si>
+    <t>@plannedAge/Range/@minValue/Quantity/@value</t>
+  </si>
+  <si>
+    <t>@plannedAge/Range/@maxValue/Quantity/@value</t>
+  </si>
 </sst>
 </file>
 
@@ -7195,16 +7195,16 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -7774,13 +7774,13 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="11" t="s">
-        <v>1499</v>
+        <v>1497</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>1498</v>
+        <v>1496</v>
       </c>
       <c r="C16" t="s">
-        <v>1509</v>
+        <v>1507</v>
       </c>
       <c r="D16" t="s">
         <v>242</v>
@@ -7805,8 +7805,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CB1EE44-0F6C-474B-8770-DA2A14736511}">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView topLeftCell="C6" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView topLeftCell="D1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7851,13 +7851,13 @@
         <v>319</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="G2" s="11" t="s">
         <v>320</v>
@@ -7871,13 +7871,13 @@
         <v>426</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="G3" s="11" t="s">
         <v>320</v>
@@ -7891,13 +7891,13 @@
         <v>427</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="G4" s="11" t="s">
         <v>420</v>
@@ -7908,16 +7908,16 @@
         <v>318</v>
       </c>
       <c r="B5" s="31" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="F5" s="50" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="G5" s="51" t="s">
         <v>420</v>
@@ -7928,16 +7928,16 @@
         <v>318</v>
       </c>
       <c r="B6" s="31" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="34" x14ac:dyDescent="0.2">
@@ -7945,16 +7945,16 @@
         <v>318</v>
       </c>
       <c r="B7" s="31" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -7962,16 +7962,16 @@
         <v>318</v>
       </c>
       <c r="B8" s="31" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="68" x14ac:dyDescent="0.2">
@@ -7979,16 +7979,16 @@
         <v>318</v>
       </c>
       <c r="B9" s="31" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="34" x14ac:dyDescent="0.2">
@@ -7999,13 +7999,13 @@
         <v>429</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="34" x14ac:dyDescent="0.2">
@@ -8016,13 +8016,13 @@
         <v>220</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -8033,13 +8033,13 @@
         <v>221</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="204" x14ac:dyDescent="0.2">
@@ -8050,13 +8050,13 @@
         <v>222</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -8067,13 +8067,13 @@
         <v>223</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="102" x14ac:dyDescent="0.2">
@@ -8084,13 +8084,13 @@
         <v>224</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -8101,13 +8101,13 @@
         <v>225</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="F16" s="13" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="170" x14ac:dyDescent="0.2">
@@ -8115,16 +8115,16 @@
         <v>428</v>
       </c>
       <c r="B17" s="31" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="F17" s="13" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="153" x14ac:dyDescent="0.2">
@@ -8132,16 +8132,16 @@
         <v>428</v>
       </c>
       <c r="B18" s="31" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="F18" s="13" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="153" x14ac:dyDescent="0.2">
@@ -8149,16 +8149,16 @@
         <v>428</v>
       </c>
       <c r="B19" s="31" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="F19" s="13" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="136" x14ac:dyDescent="0.2">
@@ -8166,16 +8166,16 @@
         <v>428</v>
       </c>
       <c r="B20" s="31" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="F20" s="13" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="85" x14ac:dyDescent="0.2">
@@ -8183,16 +8183,16 @@
         <v>428</v>
       </c>
       <c r="B21" s="31" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="F21" s="13" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="85" x14ac:dyDescent="0.2">
@@ -8200,16 +8200,16 @@
         <v>428</v>
       </c>
       <c r="B22" s="31" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="F22" s="13" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="102" x14ac:dyDescent="0.2">
@@ -8217,16 +8217,16 @@
         <v>428</v>
       </c>
       <c r="B23" s="31" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="F23" s="13" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -8234,16 +8234,16 @@
         <v>428</v>
       </c>
       <c r="B24" s="31" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="F24" s="13" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="102" x14ac:dyDescent="0.2">
@@ -8251,16 +8251,16 @@
         <v>428</v>
       </c>
       <c r="B25" s="31" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="F25" s="13" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="51" x14ac:dyDescent="0.2">
@@ -8268,16 +8268,16 @@
         <v>428</v>
       </c>
       <c r="B26" s="31" t="s">
+        <v>551</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>569</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>803</v>
+      </c>
+      <c r="F26" s="13" t="s">
         <v>553</v>
-      </c>
-      <c r="C26" s="11" t="s">
-        <v>571</v>
-      </c>
-      <c r="E26" s="13" t="s">
-        <v>805</v>
-      </c>
-      <c r="F26" s="13" t="s">
-        <v>555</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -8285,16 +8285,16 @@
         <v>428</v>
       </c>
       <c r="B27" s="31" t="s">
+        <v>552</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>570</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>804</v>
+      </c>
+      <c r="F27" s="13" t="s">
         <v>554</v>
-      </c>
-      <c r="C27" s="11" t="s">
-        <v>572</v>
-      </c>
-      <c r="E27" s="13" t="s">
-        <v>806</v>
-      </c>
-      <c r="F27" s="13" t="s">
-        <v>556</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="102" x14ac:dyDescent="0.2">
@@ -8302,16 +8302,16 @@
         <v>428</v>
       </c>
       <c r="B28" s="31" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="E28" s="13" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="F28" s="13" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
@@ -8319,16 +8319,16 @@
         <v>428</v>
       </c>
       <c r="B29" s="31" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="F29" s="13" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="68" x14ac:dyDescent="0.2">
@@ -8336,16 +8336,16 @@
         <v>428</v>
       </c>
       <c r="B30" s="31" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="E30" s="13" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="F30" s="13" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -8353,16 +8353,16 @@
         <v>428</v>
       </c>
       <c r="B31" s="31" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="E31" s="13" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="F31" s="13" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
@@ -8370,16 +8370,16 @@
         <v>428</v>
       </c>
       <c r="B32" s="31" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="E32" s="13" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="F32" s="13" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
     </row>
   </sheetData>
@@ -9217,7 +9217,7 @@
         <v>6</v>
       </c>
       <c r="C13" s="49" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>1</v>
@@ -13414,13 +13414,13 @@
         <v>519</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>290</v>
@@ -13431,22 +13431,22 @@
     </row>
     <row r="3" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A3" s="48" t="s">
+        <v>836</v>
+      </c>
+      <c r="B3" s="48" t="s">
         <v>838</v>
       </c>
-      <c r="B3" s="48" t="s">
-        <v>840</v>
-      </c>
       <c r="C3" s="48" t="s">
+        <v>837</v>
+      </c>
+      <c r="D3" s="49" t="s">
         <v>839</v>
-      </c>
-      <c r="D3" s="49" t="s">
-        <v>841</v>
       </c>
       <c r="E3" s="48" t="s">
         <v>290</v>
       </c>
       <c r="F3" s="48" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -13661,7 +13661,7 @@
         <v>5</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -13685,7 +13685,7 @@
         <v>425</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -13974,7 +13974,7 @@
         <v>250</v>
       </c>
       <c r="E1" s="33" t="s">
-        <v>1497</v>
+        <v>1495</v>
       </c>
       <c r="F1" s="36" t="s">
         <v>251</v>
@@ -13983,7 +13983,7 @@
         <v>234</v>
       </c>
       <c r="H1" s="36" t="s">
-        <v>1511</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -14006,10 +14006,10 @@
         <v>450</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>1498</v>
+        <v>1496</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>1512</v>
+        <v>1510</v>
       </c>
     </row>
   </sheetData>
@@ -14109,93 +14109,93 @@
     </row>
     <row r="2" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>1539</v>
+        <v>1537</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>1528</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>1529</v>
+      </c>
+      <c r="E2" s="68" t="s">
+        <v>1520</v>
+      </c>
+      <c r="F2" s="68" t="s">
+        <v>1521</v>
+      </c>
+      <c r="G2" s="53" t="s">
+        <v>1522</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>1523</v>
+      </c>
+      <c r="I2" s="69" t="s">
+        <v>1524</v>
+      </c>
+      <c r="J2" s="3" t="s">
         <v>1530</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>1530</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>1531</v>
-      </c>
-      <c r="E2" s="68" t="s">
-        <v>1522</v>
-      </c>
-      <c r="F2" s="68" t="s">
-        <v>1523</v>
-      </c>
-      <c r="G2" s="53" t="s">
-        <v>1524</v>
-      </c>
-      <c r="H2" s="3" t="s">
+      <c r="K2" s="5" t="s">
+        <v>1532</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>1534</v>
+      </c>
+      <c r="M2" s="3" t="s">
         <v>1525</v>
       </c>
-      <c r="I2" s="69" t="s">
+      <c r="N2" s="3" t="s">
+        <v>1534</v>
+      </c>
+      <c r="O2" s="3" t="s">
         <v>1526</v>
       </c>
-      <c r="J2" s="3" t="s">
-        <v>1532</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>1534</v>
-      </c>
-      <c r="L2" s="3" t="s">
+      <c r="P2" s="5" t="s">
         <v>1536</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>1527</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>1536</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>1528</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>1538</v>
       </c>
       <c r="Q2" s="3" t="s">
         <v>493</v>
       </c>
       <c r="R2" s="69" t="s">
-        <v>1529</v>
+        <v>1527</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="J3" s="3" t="s">
+        <v>1531</v>
+      </c>
+      <c r="K3" s="5" t="s">
         <v>1533</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="L3" s="3" t="s">
         <v>1535</v>
       </c>
-      <c r="L3" s="3" t="s">
-        <v>1537</v>
-      </c>
       <c r="M3" s="3" t="s">
-        <v>1527</v>
+        <v>1525</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>1537</v>
+        <v>1535</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>1528</v>
+        <v>1526</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="Q3" s="3" t="s">
         <v>493</v>
       </c>
       <c r="R3" s="69" t="s">
-        <v>1529</v>
+        <v>1527</v>
       </c>
       <c r="S3" s="3" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
     </row>
   </sheetData>
@@ -14323,7 +14323,7 @@
         <v>328</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="E2" s="3">
         <v>300</v>
@@ -14419,7 +14419,7 @@
         <v>339</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="F2" s="11" t="s">
         <v>42</v>
@@ -14464,7 +14464,7 @@
         <v>341</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="F4" s="11" t="s">
         <v>54</v>
@@ -14527,7 +14527,7 @@
         <v>340</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="F7" s="11" t="s">
         <v>183</v>
@@ -14577,19 +14577,19 @@
     </row>
     <row r="10" spans="1:15" ht="68" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="K10" s="11" t="s">
         <v>41</v>
@@ -14600,23 +14600,23 @@
     </row>
     <row r="11" spans="1:15" ht="85" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="13" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
       <c r="I11" s="11" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="K11" s="11" t="s">
         <v>41</v>
@@ -14627,23 +14627,23 @@
     </row>
     <row r="12" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="13" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
       <c r="I12" s="11" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="K12" s="11" t="s">
         <v>41</v>
@@ -14836,7 +14836,7 @@
         <v>33</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c r="E1" s="16" t="s">
         <v>47</v>
@@ -14854,39 +14854,39 @@
         <v>45</v>
       </c>
       <c r="J1" s="16" t="s">
-        <v>1514</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="85" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
-        <v>1516</v>
+        <v>1514</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>1520</v>
+        <v>1518</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>1515</v>
+        <v>1513</v>
       </c>
       <c r="D2" s="13" t="s">
         <v>328</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>1517</v>
+        <v>1515</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>1521</v>
+        <v>1519</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>1539</v>
+        <v>1537</v>
       </c>
       <c r="H2" s="11" t="s">
         <v>42</v>
       </c>
       <c r="I2" s="13" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="J2" s="13" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
     </row>
   </sheetData>
@@ -15468,8 +15468,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{989384DC-1C54-514A-8A1E-ADD84D891BA4}">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:G6"/>
+    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15479,7 +15479,7 @@
     <col min="4" max="4" width="16.6640625" customWidth="1"/>
     <col min="5" max="5" width="23.6640625" customWidth="1"/>
     <col min="6" max="6" width="9.6640625" customWidth="1"/>
-    <col min="7" max="7" width="31.1640625" customWidth="1"/>
+    <col min="7" max="7" width="64.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -15525,7 +15525,7 @@
         <v>328</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>520</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -15539,7 +15539,7 @@
         <v>328</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>521</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -15584,7 +15584,7 @@
       <c r="B6" s="51"/>
       <c r="C6" s="51"/>
       <c r="D6" s="51" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="E6" s="51" t="s">
         <v>301</v>
@@ -15626,7 +15626,7 @@
         <v>233</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>1490</v>
+        <v>1488</v>
       </c>
       <c r="E1" s="16" t="s">
         <v>513</v>
@@ -15635,27 +15635,27 @@
         <v>456</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>1490</v>
+      </c>
+      <c r="B2" t="s">
         <v>1492</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>1493</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1491</v>
+      </c>
+      <c r="F2" t="s">
         <v>1494</v>
       </c>
-      <c r="C2" t="s">
-        <v>1495</v>
-      </c>
-      <c r="E2" t="s">
-        <v>1493</v>
-      </c>
-      <c r="F2" t="s">
-        <v>1496</v>
-      </c>
       <c r="G2" t="s">
-        <v>1540</v>
+        <v>1538</v>
       </c>
     </row>
   </sheetData>
@@ -15681,13 +15681,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
-        <v>1499</v>
+        <v>1497</v>
       </c>
       <c r="B1" s="33" t="s">
         <v>218</v>
       </c>
       <c r="C1" s="33" t="s">
-        <v>1500</v>
+        <v>1498</v>
       </c>
       <c r="D1" s="33" t="s">
         <v>30</v>
@@ -15695,16 +15695,16 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="B2" t="s">
-        <v>1502</v>
+        <v>1500</v>
       </c>
       <c r="C2" t="s">
         <v>493</v>
       </c>
       <c r="D2" t="s">
-        <v>1501</v>
+        <v>1499</v>
       </c>
     </row>
   </sheetData>
@@ -15737,61 +15737,61 @@
         <v>215</v>
       </c>
       <c r="C1" s="61" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="D1" s="62" t="s">
         <v>217</v>
       </c>
       <c r="E1" s="61" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="F1" s="62" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="B2" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>493</v>
       </c>
       <c r="D2" s="44" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="E2" s="63" t="s">
         <v>493</v>
       </c>
       <c r="F2" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="B3" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D3" s="44" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="E3" s="63" t="s">
         <v>253</v>
       </c>
       <c r="F3" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="B4" t="s">
         <v>219</v>
@@ -15800,541 +15800,541 @@
         <v>253</v>
       </c>
       <c r="D4" s="44" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="E4" s="63" t="s">
         <v>253</v>
       </c>
       <c r="F4" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="B5" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D5" s="44" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="E5" s="63" t="s">
         <v>253</v>
       </c>
       <c r="F5" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="B6" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D6" s="44" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="E6" s="63" t="s">
         <v>253</v>
       </c>
       <c r="F6" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="B7" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D7" s="44" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="E7" s="63" t="s">
         <v>253</v>
       </c>
       <c r="F7" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="B8" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D8" s="44" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="E8" s="63" t="s">
         <v>253</v>
       </c>
       <c r="F8" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="B9" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D9" s="44" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="E9" s="63" t="s">
         <v>253</v>
       </c>
       <c r="F9" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
       <c r="B10" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D10" s="44" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="E10" s="63" t="s">
         <v>253</v>
       </c>
       <c r="F10" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
       <c r="B11" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D11" s="44" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="E11" s="63" t="s">
         <v>253</v>
       </c>
       <c r="F11" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="B12" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D12" s="44" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="E12" s="63" t="s">
         <v>253</v>
       </c>
       <c r="F12" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="B13" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D13" s="44" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="E13" s="63" t="s">
         <v>253</v>
       </c>
       <c r="F13" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="B14" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D14" s="44" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="E14" s="63" t="s">
         <v>253</v>
       </c>
       <c r="F14" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="B15" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D15" s="44" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="E15" s="63" t="s">
         <v>253</v>
       </c>
       <c r="F15" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="B16" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D16" s="44" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="E16" s="63" t="s">
         <v>253</v>
       </c>
       <c r="F16" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
       <c r="B17" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D17" s="44" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="E17" s="63" t="s">
         <v>253</v>
       </c>
       <c r="F17" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
       <c r="B18" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D18" s="44" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="E18" s="63" t="s">
         <v>253</v>
       </c>
       <c r="F18" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="B19" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D19" s="44" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="E19" s="63" t="s">
         <v>253</v>
       </c>
       <c r="F19" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
       <c r="B20" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D20" s="44" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="E20" s="63" t="s">
         <v>253</v>
       </c>
       <c r="F20" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
       <c r="B21" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D21" s="44" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="E21" s="63" t="s">
         <v>253</v>
       </c>
       <c r="F21" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
       <c r="B22" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D22" s="44" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="E22" s="63" t="s">
         <v>253</v>
       </c>
       <c r="F22" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
       <c r="B23" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D23" s="44" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="E23" s="63" t="s">
         <v>253</v>
       </c>
       <c r="F23" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
       <c r="B24" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D24" s="44" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="E24" s="63" t="s">
         <v>253</v>
       </c>
       <c r="F24" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
       <c r="B25" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D25" s="44" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="E25" s="63" t="s">
         <v>253</v>
       </c>
       <c r="F25" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
       <c r="B26" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D26" s="44" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="E26" s="63" t="s">
         <v>253</v>
       </c>
       <c r="F26" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
       <c r="B27" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D27" s="44" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="E27" s="63" t="s">
         <v>253</v>
       </c>
       <c r="F27" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
       <c r="B28" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D28" s="44" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="E28" s="63" t="s">
         <v>253</v>
       </c>
       <c r="F28" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="B29" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D29" s="44" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="E29" s="63" t="s">
         <v>253</v>
       </c>
       <c r="F29" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
       <c r="B30" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D30" s="44" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="E30" s="63" t="s">
         <v>253</v>
       </c>
       <c r="F30" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>1274</v>
+        <v>1272</v>
       </c>
       <c r="B31" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>253</v>
@@ -16346,927 +16346,927 @@
         <v>253</v>
       </c>
       <c r="F31" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
       <c r="B32" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D32" s="44" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="E32" s="63" t="s">
         <v>253</v>
       </c>
       <c r="F32" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>1276</v>
+        <v>1274</v>
       </c>
       <c r="B33" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D33" s="44" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="E33" s="63" t="s">
         <v>253</v>
       </c>
       <c r="F33" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="B34" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D34" s="44" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="E34" s="63" t="s">
         <v>253</v>
       </c>
       <c r="F34" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
       <c r="B35" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D35" s="44" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="E35" s="63" t="s">
         <v>253</v>
       </c>
       <c r="F35" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
       <c r="B36" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D36" s="44" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="E36" s="63" t="s">
         <v>253</v>
       </c>
       <c r="F36" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
       <c r="B37" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D37" s="44" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="E37" s="63" t="s">
         <v>253</v>
       </c>
       <c r="F37" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
       <c r="B38" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D38" s="44" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="E38" s="63" t="s">
         <v>253</v>
       </c>
       <c r="F38" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="B39" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D39" s="44" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="E39" s="63" t="s">
         <v>253</v>
       </c>
       <c r="F39" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
       <c r="B40" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D40" s="44" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="E40" s="63" t="s">
         <v>253</v>
       </c>
       <c r="F40" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="B41" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D41" s="44" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="E41" s="63" t="s">
         <v>253</v>
       </c>
       <c r="F41" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>1285</v>
+        <v>1283</v>
       </c>
       <c r="B42" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D42" s="44" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="E42" s="63" t="s">
         <v>253</v>
       </c>
       <c r="F42" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
       <c r="B43" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D43" s="44" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="E43" s="63" t="s">
         <v>253</v>
       </c>
       <c r="F43" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="B44" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D44" s="44" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="E44" s="63" t="s">
         <v>253</v>
       </c>
       <c r="F44" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
       <c r="B45" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D45" s="44" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="E45" s="63" t="s">
         <v>253</v>
       </c>
       <c r="F45" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
       <c r="B46" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D46" s="44" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E46" s="63" t="s">
         <v>253</v>
       </c>
       <c r="F46" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="B47" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D47" s="44" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="E47" s="63" t="s">
         <v>253</v>
       </c>
       <c r="F47" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
       <c r="B48" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D48" s="44" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="E48" s="63" t="s">
         <v>253</v>
       </c>
       <c r="F48" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>1292</v>
+        <v>1290</v>
       </c>
       <c r="B49" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D49" s="44" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="E49" s="63" t="s">
         <v>253</v>
       </c>
       <c r="F49" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
       <c r="B50" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D50" s="44" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="E50" s="63" t="s">
         <v>253</v>
       </c>
       <c r="F50" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
       <c r="B51" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D51" s="45" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
       <c r="E51" s="63" t="s">
         <v>253</v>
       </c>
       <c r="F51" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
       <c r="B52" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D52" s="44" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="E52" s="63" t="s">
         <v>253</v>
       </c>
       <c r="F52" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
       <c r="B53" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D53" s="44" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="E53" s="63" t="s">
         <v>253</v>
       </c>
       <c r="F53" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
       <c r="B54" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D54" s="44" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="E54" s="63" t="s">
         <v>253</v>
       </c>
       <c r="F54" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
       <c r="B55" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D55" s="44" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="E55" s="63" t="s">
         <v>253</v>
       </c>
       <c r="F55" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="B56" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D56" s="44" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="E56" s="63" t="s">
         <v>253</v>
       </c>
       <c r="F56" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
       <c r="B57" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D57" s="44" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="E57" s="63" t="s">
         <v>253</v>
       </c>
       <c r="F57" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>1302</v>
+        <v>1300</v>
       </c>
       <c r="B58" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D58" s="44" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="E58" s="63" t="s">
         <v>253</v>
       </c>
       <c r="F58" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
       <c r="B59" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D59" s="44" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="E59" s="63" t="s">
         <v>253</v>
       </c>
       <c r="F59" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>1304</v>
+        <v>1302</v>
       </c>
       <c r="B60" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D60" s="44" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="E60" s="63" t="s">
         <v>253</v>
       </c>
       <c r="F60" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>1305</v>
+        <v>1303</v>
       </c>
       <c r="B61" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D61" s="44" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="E61" s="63" t="s">
         <v>253</v>
       </c>
       <c r="F61" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="B62" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D62" s="44" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="E62" s="63" t="s">
         <v>253</v>
       </c>
       <c r="F62" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="B63" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D63" s="45" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
       <c r="E63" s="63" t="s">
         <v>253</v>
       </c>
       <c r="F63" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
       <c r="B64" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D64" s="44" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="E64" s="63" t="s">
         <v>253</v>
       </c>
       <c r="F64" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
       <c r="B65" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D65" s="44" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="E65" s="63" t="s">
         <v>253</v>
       </c>
       <c r="F65" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>1311</v>
+        <v>1309</v>
       </c>
       <c r="B66" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D66" s="44" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="E66" s="63" t="s">
         <v>253</v>
       </c>
       <c r="F66" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
       <c r="B67" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D67" s="44" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="E67" s="63" t="s">
         <v>253</v>
       </c>
       <c r="F67" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
       <c r="B68" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D68" s="44" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="E68" s="63" t="s">
         <v>253</v>
       </c>
       <c r="F68" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>1314</v>
+        <v>1312</v>
       </c>
       <c r="B69" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D69" s="44" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="E69" s="63" t="s">
         <v>253</v>
       </c>
       <c r="F69" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
       <c r="B70" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D70" s="44" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="E70" s="63" t="s">
         <v>253</v>
       </c>
       <c r="F70" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>1316</v>
+        <v>1314</v>
       </c>
       <c r="B71" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D71" s="44" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="E71" s="63" t="s">
         <v>253</v>
       </c>
       <c r="F71" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
       <c r="B72" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D72" s="44" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="E72" s="63" t="s">
         <v>253</v>
       </c>
       <c r="F72" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="B73" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D73" s="44" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="E73" s="63" t="s">
         <v>253</v>
       </c>
       <c r="F73" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="B74" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D74" s="44" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="E74" s="63" t="s">
         <v>253</v>
       </c>
       <c r="F74" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="B75" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D75" s="44" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="E75" s="63" t="s">
         <v>253</v>
       </c>
       <c r="F75" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>1321</v>
+        <v>1319</v>
       </c>
       <c r="B76" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D76" s="44" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="E76" s="63" t="s">
         <v>253</v>
       </c>
       <c r="F76" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>1322</v>
+        <v>1320</v>
       </c>
       <c r="B77" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D77" s="44" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="E77" s="63" t="s">
         <v>253</v>
       </c>
       <c r="F77" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
     </row>
   </sheetData>
@@ -17300,50 +17300,50 @@
         <v>215</v>
       </c>
       <c r="C1" s="61" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="D1" s="62" t="s">
         <v>217</v>
       </c>
       <c r="E1" s="61" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="F1" s="62" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
       <c r="B2" s="64" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>493</v>
       </c>
       <c r="D2" s="45" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="E2" s="63" t="s">
         <v>493</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
       <c r="B3" s="46" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D3" s="45" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="E3" s="63" t="s">
         <v>253</v>
@@ -17352,16 +17352,16 @@
     </row>
     <row r="4" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="B4" s="45" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D4" s="45" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>253</v>
@@ -17369,16 +17369,16 @@
     </row>
     <row r="5" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>1335</v>
+        <v>1333</v>
       </c>
       <c r="B5" s="45" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D5" s="45" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>253</v>
@@ -17387,67 +17387,67 @@
     </row>
     <row r="6" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
       <c r="B6" s="45" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D6" s="45" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>253</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>1324</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>1337</v>
+        <v>1335</v>
       </c>
       <c r="B7" s="45" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D7" s="45" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>253</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
       <c r="B8" s="45" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D8" s="45" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>253</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>1326</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="B9" s="45" t="s">
         <v>219</v>
@@ -17456,7 +17456,7 @@
         <v>253</v>
       </c>
       <c r="D9" s="45" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>253</v>
@@ -17465,16 +17465,16 @@
     </row>
     <row r="10" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
       <c r="B10" s="45" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D10" s="45" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>253</v>
@@ -17483,16 +17483,16 @@
     </row>
     <row r="11" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>1341</v>
+        <v>1339</v>
       </c>
       <c r="B11" s="45" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D11" s="45" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>253</v>
@@ -17501,16 +17501,16 @@
     </row>
     <row r="12" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>1342</v>
+        <v>1340</v>
       </c>
       <c r="B12" s="45" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D12" s="45" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>253</v>
@@ -17519,16 +17519,16 @@
     </row>
     <row r="13" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>1343</v>
+        <v>1341</v>
       </c>
       <c r="B13" s="45" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D13" s="45" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>253</v>
@@ -17537,16 +17537,16 @@
     </row>
     <row r="14" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="B14" s="45" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D14" s="45" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>253</v>
@@ -17555,16 +17555,16 @@
     </row>
     <row r="15" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>1345</v>
+        <v>1343</v>
       </c>
       <c r="B15" s="45" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D15" s="45" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>253</v>
@@ -17573,36 +17573,36 @@
     </row>
     <row r="16" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>1346</v>
+        <v>1344</v>
       </c>
       <c r="B16" s="45" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D16" s="45" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>253</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
       <c r="B17" s="45" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D17" s="45" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>253</v>
@@ -17611,36 +17611,36 @@
     </row>
     <row r="18" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>1348</v>
+        <v>1346</v>
       </c>
       <c r="B18" s="45" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D18" s="45" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>253</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>1349</v>
+        <v>1347</v>
       </c>
       <c r="B19" s="45" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D19" s="45" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>253</v>
@@ -17649,16 +17649,16 @@
     </row>
     <row r="20" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>1350</v>
+        <v>1348</v>
       </c>
       <c r="B20" s="45" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D20" s="45" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>253</v>
@@ -17667,36 +17667,36 @@
     </row>
     <row r="21" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="B21" s="45" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D21" s="45" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>253</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>1329</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>1352</v>
+        <v>1350</v>
       </c>
       <c r="B22" s="45" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D22" s="45" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>253</v>
@@ -17705,16 +17705,16 @@
     </row>
     <row r="23" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
       <c r="B23" s="45" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D23" s="45" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>253</v>
@@ -17723,16 +17723,16 @@
     </row>
     <row r="24" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>1354</v>
+        <v>1352</v>
       </c>
       <c r="B24" s="45" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D24" s="45" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>253</v>
@@ -17741,16 +17741,16 @@
     </row>
     <row r="25" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="B25" s="45" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D25" s="45" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>253</v>
@@ -17759,16 +17759,16 @@
     </row>
     <row r="26" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
       <c r="B26" s="45" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D26" s="45" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>253</v>
@@ -17777,16 +17777,16 @@
     </row>
     <row r="27" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>1357</v>
+        <v>1355</v>
       </c>
       <c r="B27" s="45" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D27" s="45" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>253</v>
@@ -17795,16 +17795,16 @@
     </row>
     <row r="28" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>1358</v>
+        <v>1356</v>
       </c>
       <c r="B28" s="45" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D28" s="45" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>253</v>
@@ -17813,16 +17813,16 @@
     </row>
     <row r="29" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>1359</v>
+        <v>1357</v>
       </c>
       <c r="B29" s="45" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D29" s="45" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>253</v>
@@ -17831,16 +17831,16 @@
     </row>
     <row r="30" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>1360</v>
+        <v>1358</v>
       </c>
       <c r="B30" s="45" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D30" s="45" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>253</v>
@@ -17849,16 +17849,16 @@
     </row>
     <row r="31" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>1361</v>
+        <v>1359</v>
       </c>
       <c r="B31" s="45" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D31" s="45" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>253</v>
@@ -17867,16 +17867,16 @@
     </row>
     <row r="32" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>1362</v>
+        <v>1360</v>
       </c>
       <c r="B32" s="45" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D32" s="45" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>253</v>
@@ -17885,16 +17885,16 @@
     </row>
     <row r="33" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>1363</v>
+        <v>1361</v>
       </c>
       <c r="B33" s="45" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D33" s="45" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>253</v>
@@ -17903,16 +17903,16 @@
     </row>
     <row r="34" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
       <c r="B34" s="45" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D34" s="45" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>253</v>
@@ -17921,16 +17921,16 @@
     </row>
     <row r="35" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
       <c r="B35" s="45" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D35" s="45" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>253</v>
@@ -17939,56 +17939,56 @@
     </row>
     <row r="36" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>1366</v>
+        <v>1364</v>
       </c>
       <c r="B36" s="45" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D36" s="45" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>253</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>1367</v>
+        <v>1365</v>
       </c>
       <c r="B37" s="45" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D37" s="45" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>253</v>
       </c>
       <c r="F37" s="11" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>1368</v>
+        <v>1366</v>
       </c>
       <c r="B38" s="45" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D38" s="45" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>253</v>
@@ -17997,16 +17997,16 @@
     </row>
     <row r="39" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>1369</v>
+        <v>1367</v>
       </c>
       <c r="B39" s="45" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D39" s="45" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>253</v>
@@ -18015,16 +18015,16 @@
     </row>
     <row r="40" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="B40" s="45" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D40" s="45" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>253</v>
@@ -18033,16 +18033,16 @@
     </row>
     <row r="41" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="B41" s="45" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D41" s="45" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>253</v>
@@ -18051,16 +18051,16 @@
     </row>
     <row r="42" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>1372</v>
+        <v>1370</v>
       </c>
       <c r="B42" s="45" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D42" s="45" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>253</v>
@@ -18069,16 +18069,16 @@
     </row>
     <row r="43" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>1373</v>
+        <v>1371</v>
       </c>
       <c r="B43" s="45" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D43" s="45" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>253</v>
@@ -18087,16 +18087,16 @@
     </row>
     <row r="44" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>1374</v>
+        <v>1372</v>
       </c>
       <c r="B44" s="45" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D44" s="45" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>253</v>
@@ -18105,16 +18105,16 @@
     </row>
     <row r="45" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>1375</v>
+        <v>1373</v>
       </c>
       <c r="B45" s="45" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D45" s="45" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>253</v>
@@ -18123,16 +18123,16 @@
     </row>
     <row r="46" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
       <c r="B46" s="45" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D46" s="45" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>253</v>
@@ -18141,16 +18141,16 @@
     </row>
     <row r="47" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
       <c r="B47" s="45" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D47" s="45" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>253</v>
@@ -18159,16 +18159,16 @@
     </row>
     <row r="48" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
       <c r="B48" s="45" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D48" s="45" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>253</v>
@@ -18177,16 +18177,16 @@
     </row>
     <row r="49" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
       <c r="B49" s="45" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D49" s="45" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>253</v>
@@ -18195,16 +18195,16 @@
     </row>
     <row r="50" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
       <c r="B50" s="45" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D50" s="45" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>253</v>
@@ -18213,16 +18213,16 @@
     </row>
     <row r="51" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>1381</v>
+        <v>1379</v>
       </c>
       <c r="B51" s="45" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D51" s="45" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>253</v>
@@ -18231,16 +18231,16 @@
     </row>
     <row r="52" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>1382</v>
+        <v>1380</v>
       </c>
       <c r="B52" s="45" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D52" s="45" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>253</v>
@@ -18249,16 +18249,16 @@
     </row>
     <row r="53" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>1383</v>
+        <v>1381</v>
       </c>
       <c r="B53" s="45" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D53" s="45" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>253</v>
@@ -18267,16 +18267,16 @@
     </row>
     <row r="54" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>1384</v>
+        <v>1382</v>
       </c>
       <c r="B54" s="45" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D54" s="45" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>253</v>
@@ -18285,16 +18285,16 @@
     </row>
     <row r="55" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="B55" s="45" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D55" s="45" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>253</v>
@@ -18303,16 +18303,16 @@
     </row>
     <row r="56" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
       <c r="B56" s="45" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D56" s="45" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>253</v>
@@ -18321,16 +18321,16 @@
     </row>
     <row r="57" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>1387</v>
+        <v>1385</v>
       </c>
       <c r="B57" s="45" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D57" s="45" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>253</v>
@@ -18339,16 +18339,16 @@
     </row>
     <row r="58" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>1388</v>
+        <v>1386</v>
       </c>
       <c r="B58" s="45" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D58" s="45" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>253</v>
@@ -18357,16 +18357,16 @@
     </row>
     <row r="59" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>1389</v>
+        <v>1387</v>
       </c>
       <c r="B59" s="45" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D59" s="45" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>253</v>
@@ -18375,16 +18375,16 @@
     </row>
     <row r="60" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>1390</v>
+        <v>1388</v>
       </c>
       <c r="B60" s="45" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D60" s="45" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>253</v>
@@ -18393,16 +18393,16 @@
     </row>
     <row r="61" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>1391</v>
+        <v>1389</v>
       </c>
       <c r="B61" s="45" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D61" s="45" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>253</v>
@@ -18411,16 +18411,16 @@
     </row>
     <row r="62" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
       <c r="B62" s="45" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D62" s="45" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>253</v>
@@ -18429,16 +18429,16 @@
     </row>
     <row r="63" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="B63" s="45" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D63" s="45" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>253</v>
@@ -18447,16 +18447,16 @@
     </row>
     <row r="64" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>1394</v>
+        <v>1392</v>
       </c>
       <c r="B64" s="45" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D64" s="45" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>253</v>
@@ -18465,16 +18465,16 @@
     </row>
     <row r="65" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>1395</v>
+        <v>1393</v>
       </c>
       <c r="B65" s="45" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D65" s="45" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>253</v>
@@ -18483,16 +18483,16 @@
     </row>
     <row r="66" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
       <c r="B66" s="45" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D66" s="45" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>253</v>
@@ -18501,16 +18501,16 @@
     </row>
     <row r="67" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
       <c r="B67" s="45" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D67" s="45" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>253</v>
@@ -18519,16 +18519,16 @@
     </row>
     <row r="68" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
       <c r="B68" s="45" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D68" s="45" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>253</v>
@@ -18537,16 +18537,16 @@
     </row>
     <row r="69" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>1399</v>
+        <v>1397</v>
       </c>
       <c r="B69" s="45" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D69" s="45" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>253</v>
@@ -18555,16 +18555,16 @@
     </row>
     <row r="70" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>1400</v>
+        <v>1398</v>
       </c>
       <c r="B70" s="45" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D70" s="45" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>253</v>
@@ -18573,16 +18573,16 @@
     </row>
     <row r="71" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
       <c r="B71" s="45" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D71" s="45" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>253</v>
@@ -18591,16 +18591,16 @@
     </row>
     <row r="72" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
       <c r="B72" s="45" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D72" s="45" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>253</v>
@@ -18609,16 +18609,16 @@
     </row>
     <row r="73" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>1403</v>
+        <v>1401</v>
       </c>
       <c r="B73" s="45" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D73" s="45" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>253</v>
@@ -18627,16 +18627,16 @@
     </row>
     <row r="74" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>1404</v>
+        <v>1402</v>
       </c>
       <c r="B74" s="45" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D74" s="45" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>253</v>
@@ -18645,16 +18645,16 @@
     </row>
     <row r="75" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
       <c r="B75" s="45" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D75" s="45" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>253</v>
@@ -18663,16 +18663,16 @@
     </row>
     <row r="76" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>1406</v>
+        <v>1404</v>
       </c>
       <c r="B76" s="45" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D76" s="45" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>253</v>
@@ -18681,16 +18681,16 @@
     </row>
     <row r="77" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>1407</v>
+        <v>1405</v>
       </c>
       <c r="B77" s="45" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D77" s="45" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="E77" s="1" t="s">
         <v>253</v>
@@ -18699,16 +18699,16 @@
     </row>
     <row r="78" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
       <c r="B78" s="45" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D78" s="45" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="E78" s="1" t="s">
         <v>253</v>
@@ -18717,16 +18717,16 @@
     </row>
     <row r="79" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>1409</v>
+        <v>1407</v>
       </c>
       <c r="B79" s="45" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D79" s="45" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="E79" s="1" t="s">
         <v>253</v>
@@ -18735,16 +18735,16 @@
     </row>
     <row r="80" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>1410</v>
+        <v>1408</v>
       </c>
       <c r="B80" s="45" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D80" s="45" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="E80" s="1" t="s">
         <v>253</v>
@@ -18753,16 +18753,16 @@
     </row>
     <row r="81" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>1411</v>
+        <v>1409</v>
       </c>
       <c r="B81" s="45" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D81" s="45" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="E81" s="1" t="s">
         <v>253</v>
@@ -18771,16 +18771,16 @@
     </row>
     <row r="82" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>1412</v>
+        <v>1410</v>
       </c>
       <c r="B82" s="45" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D82" s="45" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="E82" s="1" t="s">
         <v>253</v>
@@ -18789,16 +18789,16 @@
     </row>
     <row r="83" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>1413</v>
+        <v>1411</v>
       </c>
       <c r="B83" s="45" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D83" s="45" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="E83" s="1" t="s">
         <v>253</v>
@@ -18807,16 +18807,16 @@
     </row>
     <row r="84" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>1414</v>
+        <v>1412</v>
       </c>
       <c r="B84" s="45" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D84" s="45" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="E84" s="1" t="s">
         <v>253</v>
@@ -18825,16 +18825,16 @@
     </row>
     <row r="85" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>1415</v>
+        <v>1413</v>
       </c>
       <c r="B85" s="45" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D85" s="45" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="E85" s="1" t="s">
         <v>253</v>
@@ -18843,16 +18843,16 @@
     </row>
     <row r="86" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>1416</v>
+        <v>1414</v>
       </c>
       <c r="B86" s="45" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D86" s="45" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="E86" s="1" t="s">
         <v>253</v>
@@ -18861,16 +18861,16 @@
     </row>
     <row r="87" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>1417</v>
+        <v>1415</v>
       </c>
       <c r="B87" s="45" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D87" s="45" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="E87" s="1" t="s">
         <v>253</v>
@@ -18879,16 +18879,16 @@
     </row>
     <row r="88" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>1418</v>
+        <v>1416</v>
       </c>
       <c r="B88" s="45" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D88" s="45" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="E88" s="1" t="s">
         <v>253</v>
@@ -18897,16 +18897,16 @@
     </row>
     <row r="89" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>1419</v>
+        <v>1417</v>
       </c>
       <c r="B89" s="45" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D89" s="45" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="E89" s="1" t="s">
         <v>253</v>
@@ -18915,16 +18915,16 @@
     </row>
     <row r="90" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
       <c r="B90" s="45" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D90" s="45" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="E90" s="1" t="s">
         <v>253</v>
@@ -18933,16 +18933,16 @@
     </row>
     <row r="91" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="B91" s="45" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D91" s="45" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="E91" s="1" t="s">
         <v>253</v>
@@ -18951,16 +18951,16 @@
     </row>
     <row r="92" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>1422</v>
+        <v>1420</v>
       </c>
       <c r="B92" s="45" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D92" s="45" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="E92" s="1" t="s">
         <v>253</v>
@@ -18969,16 +18969,16 @@
     </row>
     <row r="93" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
       <c r="B93" s="45" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D93" s="45" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="E93" s="1" t="s">
         <v>253</v>
@@ -18987,16 +18987,16 @@
     </row>
     <row r="94" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>1424</v>
+        <v>1422</v>
       </c>
       <c r="B94" s="45" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D94" s="45" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="E94" s="1" t="s">
         <v>253</v>
@@ -19005,16 +19005,16 @@
     </row>
     <row r="95" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>1425</v>
+        <v>1423</v>
       </c>
       <c r="B95" s="45" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D95" s="45" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="E95" s="1" t="s">
         <v>253</v>
@@ -19023,16 +19023,16 @@
     </row>
     <row r="96" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>1426</v>
+        <v>1424</v>
       </c>
       <c r="B96" s="45" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D96" s="45" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="E96" s="1" t="s">
         <v>253</v>
@@ -19041,16 +19041,16 @@
     </row>
     <row r="97" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
       <c r="B97" s="45" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D97" s="45" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="E97" s="1" t="s">
         <v>253</v>
@@ -19059,16 +19059,16 @@
     </row>
     <row r="98" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>1428</v>
+        <v>1426</v>
       </c>
       <c r="B98" s="45" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D98" s="45" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="E98" s="1" t="s">
         <v>253</v>
@@ -19077,16 +19077,16 @@
     </row>
     <row r="99" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
       <c r="B99" s="45" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D99" s="45" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="E99" s="1" t="s">
         <v>253</v>
@@ -19095,16 +19095,16 @@
     </row>
     <row r="100" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
       <c r="B100" s="45" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D100" s="45" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="E100" s="1" t="s">
         <v>253</v>
@@ -19113,16 +19113,16 @@
     </row>
     <row r="101" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>1431</v>
+        <v>1429</v>
       </c>
       <c r="B101" s="45" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D101" s="45" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="E101" s="1" t="s">
         <v>253</v>
@@ -19131,16 +19131,16 @@
     </row>
     <row r="102" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>1432</v>
+        <v>1430</v>
       </c>
       <c r="B102" s="45" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D102" s="45" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="E102" s="1" t="s">
         <v>253</v>
@@ -19149,16 +19149,16 @@
     </row>
     <row r="103" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>1433</v>
+        <v>1431</v>
       </c>
       <c r="B103" s="45" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D103" s="45" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="E103" s="1" t="s">
         <v>253</v>
@@ -19167,16 +19167,16 @@
     </row>
     <row r="104" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>1434</v>
+        <v>1432</v>
       </c>
       <c r="B104" s="45" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D104" s="45" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="E104" s="1" t="s">
         <v>253</v>
@@ -19185,16 +19185,16 @@
     </row>
     <row r="105" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>1435</v>
+        <v>1433</v>
       </c>
       <c r="B105" s="45" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D105" s="45" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="E105" s="1" t="s">
         <v>253</v>
@@ -19203,16 +19203,16 @@
     </row>
     <row r="106" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>1436</v>
+        <v>1434</v>
       </c>
       <c r="B106" s="45" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D106" s="45" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="E106" s="1" t="s">
         <v>253</v>
@@ -19221,16 +19221,16 @@
     </row>
     <row r="107" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>1437</v>
+        <v>1435</v>
       </c>
       <c r="B107" s="45" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D107" s="45" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="E107" s="1" t="s">
         <v>253</v>
@@ -19239,16 +19239,16 @@
     </row>
     <row r="108" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>1438</v>
+        <v>1436</v>
       </c>
       <c r="B108" s="45" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D108" s="45" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="E108" s="1" t="s">
         <v>253</v>
@@ -19257,16 +19257,16 @@
     </row>
     <row r="109" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>1439</v>
+        <v>1437</v>
       </c>
       <c r="B109" s="45" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D109" s="45" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="E109" s="1" t="s">
         <v>253</v>
@@ -19275,16 +19275,16 @@
     </row>
     <row r="110" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>1440</v>
+        <v>1438</v>
       </c>
       <c r="B110" s="45" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D110" s="45" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="E110" s="1" t="s">
         <v>253</v>
@@ -19293,16 +19293,16 @@
     </row>
     <row r="111" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="B111" s="45" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D111" s="45" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="E111" s="1" t="s">
         <v>253</v>
@@ -19311,16 +19311,16 @@
     </row>
     <row r="112" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>1442</v>
+        <v>1440</v>
       </c>
       <c r="B112" s="45" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D112" s="45" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="E112" s="1" t="s">
         <v>253</v>
@@ -19329,16 +19329,16 @@
     </row>
     <row r="113" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>1443</v>
+        <v>1441</v>
       </c>
       <c r="B113" s="45" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D113" s="45" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="E113" s="1" t="s">
         <v>253</v>
@@ -19347,7 +19347,7 @@
     </row>
     <row r="114" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>1444</v>
+        <v>1442</v>
       </c>
       <c r="B114" s="45" t="s">
         <v>220</v>
@@ -19356,7 +19356,7 @@
         <v>253</v>
       </c>
       <c r="D114" s="45" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="E114" s="1" t="s">
         <v>253</v>
@@ -19365,16 +19365,16 @@
     </row>
     <row r="115" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>1445</v>
+        <v>1443</v>
       </c>
       <c r="B115" s="45" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D115" s="45" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="E115" s="1" t="s">
         <v>253</v>
@@ -19383,16 +19383,16 @@
     </row>
     <row r="116" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="B116" s="45" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D116" s="45" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="E116" s="1" t="s">
         <v>253</v>
@@ -19401,16 +19401,16 @@
     </row>
     <row r="117" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>1447</v>
+        <v>1445</v>
       </c>
       <c r="B117" s="45" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D117" s="45" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="E117" s="1" t="s">
         <v>253</v>
@@ -19419,16 +19419,16 @@
     </row>
     <row r="118" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>1448</v>
+        <v>1446</v>
       </c>
       <c r="B118" s="45" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D118" s="45" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="E118" s="1" t="s">
         <v>253</v>
@@ -19437,16 +19437,16 @@
     </row>
     <row r="119" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>1449</v>
+        <v>1447</v>
       </c>
       <c r="B119" s="45" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D119" s="45" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="E119" s="1" t="s">
         <v>253</v>
@@ -19455,16 +19455,16 @@
     </row>
     <row r="120" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>1450</v>
+        <v>1448</v>
       </c>
       <c r="B120" s="45" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D120" s="45" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="E120" s="1" t="s">
         <v>253</v>
@@ -19473,16 +19473,16 @@
     </row>
     <row r="121" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="B121" s="45" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D121" s="45" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="E121" s="1" t="s">
         <v>253</v>
@@ -19491,16 +19491,16 @@
     </row>
     <row r="122" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="B122" s="45" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D122" s="45" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="E122" s="1" t="s">
         <v>253</v>
@@ -19509,16 +19509,16 @@
     </row>
     <row r="123" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>1453</v>
+        <v>1451</v>
       </c>
       <c r="B123" s="45" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D123" s="45" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="E123" s="1" t="s">
         <v>253</v>
@@ -19527,16 +19527,16 @@
     </row>
     <row r="124" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>1454</v>
+        <v>1452</v>
       </c>
       <c r="B124" s="45" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D124" s="45" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="E124" s="1" t="s">
         <v>253</v>
@@ -19545,16 +19545,16 @@
     </row>
     <row r="125" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>1455</v>
+        <v>1453</v>
       </c>
       <c r="B125" s="45" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D125" s="45" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="E125" s="1" t="s">
         <v>253</v>
@@ -19563,16 +19563,16 @@
     </row>
     <row r="126" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>1456</v>
+        <v>1454</v>
       </c>
       <c r="B126" s="45" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D126" s="45" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="E126" s="1" t="s">
         <v>253</v>
@@ -19581,16 +19581,16 @@
     </row>
     <row r="127" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="B127" s="45" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D127" s="45" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="E127" s="1" t="s">
         <v>253</v>
@@ -19599,16 +19599,16 @@
     </row>
     <row r="128" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="B128" s="45" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D128" s="45" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="E128" s="1" t="s">
         <v>253</v>
@@ -19617,16 +19617,16 @@
     </row>
     <row r="129" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>1459</v>
+        <v>1457</v>
       </c>
       <c r="B129" s="45" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D129" s="45" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="E129" s="1" t="s">
         <v>253</v>
@@ -19635,16 +19635,16 @@
     </row>
     <row r="130" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
       <c r="B130" s="45" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D130" s="45" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="E130" s="1" t="s">
         <v>253</v>
@@ -19653,16 +19653,16 @@
     </row>
     <row r="131" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>1461</v>
+        <v>1459</v>
       </c>
       <c r="B131" s="45" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D131" s="45" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="E131" s="1" t="s">
         <v>253</v>
@@ -19671,16 +19671,16 @@
     </row>
     <row r="132" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>1462</v>
+        <v>1460</v>
       </c>
       <c r="B132" s="45" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D132" s="45" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="E132" s="1" t="s">
         <v>253</v>
@@ -19689,16 +19689,16 @@
     </row>
     <row r="133" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>1463</v>
+        <v>1461</v>
       </c>
       <c r="B133" s="45" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D133" s="45" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="E133" s="1" t="s">
         <v>253</v>
@@ -19707,16 +19707,16 @@
     </row>
     <row r="134" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
       <c r="B134" s="45" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="C134" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D134" s="45" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="E134" s="1" t="s">
         <v>253</v>
@@ -19725,16 +19725,16 @@
     </row>
     <row r="135" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>1465</v>
+        <v>1463</v>
       </c>
       <c r="B135" s="45" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D135" s="45" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="E135" s="1" t="s">
         <v>253</v>
@@ -19743,7 +19743,7 @@
     </row>
     <row r="136" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>1466</v>
+        <v>1464</v>
       </c>
       <c r="B136" s="45" t="s">
         <v>221</v>
@@ -19752,7 +19752,7 @@
         <v>253</v>
       </c>
       <c r="D136" s="45" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="E136" s="1" t="s">
         <v>253</v>
@@ -19761,16 +19761,16 @@
     </row>
     <row r="137" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>1467</v>
+        <v>1465</v>
       </c>
       <c r="B137" s="45" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D137" s="45" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="E137" s="1" t="s">
         <v>253</v>
@@ -19779,16 +19779,16 @@
     </row>
     <row r="138" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>1468</v>
+        <v>1466</v>
       </c>
       <c r="B138" s="45" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D138" s="45" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="E138" s="1" t="s">
         <v>253</v>
@@ -19797,16 +19797,16 @@
     </row>
     <row r="139" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>1469</v>
+        <v>1467</v>
       </c>
       <c r="B139" s="45" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="C139" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D139" s="45" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="E139" s="1" t="s">
         <v>253</v>
@@ -19815,16 +19815,16 @@
     </row>
     <row r="140" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>1470</v>
+        <v>1468</v>
       </c>
       <c r="B140" s="45" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D140" s="45" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="E140" s="1" t="s">
         <v>253</v>
@@ -19833,16 +19833,16 @@
     </row>
     <row r="141" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>1471</v>
+        <v>1469</v>
       </c>
       <c r="B141" s="45" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="C141" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D141" s="45" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="E141" s="1" t="s">
         <v>253</v>
@@ -19851,16 +19851,16 @@
     </row>
     <row r="142" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>1472</v>
+        <v>1470</v>
       </c>
       <c r="B142" s="45" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="C142" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D142" s="45" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="E142" s="1" t="s">
         <v>253</v>
@@ -19869,16 +19869,16 @@
     </row>
     <row r="143" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>1473</v>
+        <v>1471</v>
       </c>
       <c r="B143" s="45" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D143" s="45" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="E143" s="1" t="s">
         <v>253</v>
@@ -19887,16 +19887,16 @@
     </row>
     <row r="144" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>1474</v>
+        <v>1472</v>
       </c>
       <c r="B144" s="45" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D144" s="45" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="E144" s="1" t="s">
         <v>253</v>
@@ -19905,16 +19905,16 @@
     </row>
     <row r="145" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>1475</v>
+        <v>1473</v>
       </c>
       <c r="B145" s="45" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="C145" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D145" s="45" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="E145" s="1" t="s">
         <v>253</v>
@@ -19923,16 +19923,16 @@
     </row>
     <row r="146" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
       <c r="B146" s="45" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="C146" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D146" s="45" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
       <c r="E146" s="1" t="s">
         <v>253</v>
@@ -19941,16 +19941,16 @@
     </row>
     <row r="147" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
       <c r="B147" s="45" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
       <c r="C147" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D147" s="45" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
       <c r="E147" s="1" t="s">
         <v>253</v>
@@ -19959,16 +19959,16 @@
     </row>
     <row r="148" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>1478</v>
+        <v>1476</v>
       </c>
       <c r="B148" s="45" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="C148" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D148" s="45" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="E148" s="1" t="s">
         <v>253</v>
@@ -19977,16 +19977,16 @@
     </row>
     <row r="149" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>1479</v>
+        <v>1477</v>
       </c>
       <c r="B149" s="45" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="C149" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D149" s="45" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="E149" s="1" t="s">
         <v>253</v>
@@ -19995,16 +19995,16 @@
     </row>
     <row r="150" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>1480</v>
+        <v>1478</v>
       </c>
       <c r="B150" s="45" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="C150" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D150" s="45" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="E150" s="1" t="s">
         <v>253</v>
@@ -20013,7 +20013,7 @@
     </row>
     <row r="151" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>1481</v>
+        <v>1479</v>
       </c>
       <c r="B151" s="45" t="s">
         <v>222</v>
@@ -20022,7 +20022,7 @@
         <v>253</v>
       </c>
       <c r="D151" s="45" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="E151" s="1" t="s">
         <v>253</v>
@@ -20031,16 +20031,16 @@
     </row>
     <row r="152" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>1482</v>
+        <v>1480</v>
       </c>
       <c r="B152" s="45" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="C152" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D152" s="45" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="E152" s="1" t="s">
         <v>253</v>
@@ -20049,16 +20049,16 @@
     </row>
     <row r="153" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>1483</v>
+        <v>1481</v>
       </c>
       <c r="B153" s="45" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="C153" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D153" s="45" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="E153" s="1" t="s">
         <v>253</v>
@@ -20067,16 +20067,16 @@
     </row>
     <row r="154" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>1484</v>
+        <v>1482</v>
       </c>
       <c r="B154" s="45" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
       <c r="C154" s="1" t="s">
         <v>253</v>
       </c>
       <c r="D154" s="45" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="E154" s="1" t="s">
         <v>253</v>
@@ -20085,7 +20085,7 @@
     </row>
     <row r="155" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>1485</v>
+        <v>1483</v>
       </c>
       <c r="B155" s="45" t="s">
         <v>223</v>
@@ -20094,7 +20094,7 @@
         <v>253</v>
       </c>
       <c r="D155" s="45" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="E155" s="1" t="s">
         <v>253</v>
@@ -20103,7 +20103,7 @@
     </row>
     <row r="156" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>1486</v>
+        <v>1484</v>
       </c>
       <c r="B156" s="45" t="s">
         <v>224</v>
@@ -20112,7 +20112,7 @@
         <v>253</v>
       </c>
       <c r="D156" s="45" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="E156" s="1" t="s">
         <v>253</v>
@@ -20149,664 +20149,664 @@
     </row>
     <row r="2" spans="1:2" ht="388" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="B2" s="45" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="323" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
       <c r="B3" s="45" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="B4" s="13"/>
     </row>
     <row r="5" spans="1:2" ht="85" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="B5" s="45" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="119" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="B6" s="45" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="B7" s="13"/>
     </row>
     <row r="8" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="B8" s="45" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="289" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="B9" s="45" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="85" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
       <c r="B10" s="45" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="85" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
       <c r="B11" s="45" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
       <c r="B12" s="13"/>
     </row>
     <row r="13" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
       <c r="B13" s="45" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="B14" s="45" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
       <c r="B15" s="45" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A16" s="11" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
       <c r="B16" s="45" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="102" x14ac:dyDescent="0.2">
       <c r="A17" s="11" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="B17" s="45" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="238" x14ac:dyDescent="0.2">
       <c r="A18" s="11" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="B18" s="45" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="102" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
       <c r="B19" s="45" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="85" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
       <c r="B20" s="45" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="11" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
       <c r="B21" s="13"/>
     </row>
     <row r="22" spans="1:2" ht="306" x14ac:dyDescent="0.2">
       <c r="A22" s="11" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="B22" s="45" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A23" s="11" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="B23" s="45" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="187" x14ac:dyDescent="0.2">
       <c r="A24" s="11" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="B24" s="45" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A25" s="11" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="B25" s="45" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="11" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
       <c r="B26" s="13"/>
     </row>
     <row r="27" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A27" s="11" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="B27" s="45" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A28" s="11" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
       <c r="B28" s="45" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="170" x14ac:dyDescent="0.2">
       <c r="A29" s="11" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="B29" s="45" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="372" x14ac:dyDescent="0.2">
       <c r="A30" s="11" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
       <c r="B30" s="45" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="85" x14ac:dyDescent="0.2">
       <c r="A31" s="11" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
       <c r="B31" s="45" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A32" s="11" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="B32" s="45" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="221" x14ac:dyDescent="0.2">
       <c r="A33" s="11" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="B33" s="45" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="323" x14ac:dyDescent="0.2">
       <c r="A34" s="11" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="B34" s="45" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="323" x14ac:dyDescent="0.2">
       <c r="A35" s="11" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="B35" s="45" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A36" s="11" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="B36" s="47" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A37" s="11" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
       <c r="B37" s="45" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="170" x14ac:dyDescent="0.2">
       <c r="A38" s="11" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="B38" s="45" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="356" x14ac:dyDescent="0.2">
       <c r="A39" s="11" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
       <c r="B39" s="45" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A40" s="11" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="B40" s="45" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A41" s="11" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="B41" s="45" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="11" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="B42" s="13"/>
     </row>
     <row r="43" spans="1:2" ht="340" x14ac:dyDescent="0.2">
       <c r="A43" s="11" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="B43" s="45" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A44" s="11" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="B44" s="45" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="68" x14ac:dyDescent="0.2">
       <c r="A45" s="11" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="B45" s="45" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="102" x14ac:dyDescent="0.2">
       <c r="A46" s="11" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="B46" s="45" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="340" x14ac:dyDescent="0.2">
       <c r="A47" s="11" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="B47" s="45" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="404" x14ac:dyDescent="0.2">
       <c r="A48" s="11" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="B48" s="45" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="11" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="B49" s="13"/>
     </row>
     <row r="50" spans="1:2" ht="204" x14ac:dyDescent="0.2">
       <c r="A50" s="11" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="B50" s="45" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="153" x14ac:dyDescent="0.2">
       <c r="A51" s="11" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="B51" s="45" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="11" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="B52" s="13"/>
     </row>
     <row r="53" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A53" s="11" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="B53" s="45" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="404" x14ac:dyDescent="0.2">
       <c r="A54" s="11" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
       <c r="B54" s="45" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A55" s="11" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
       <c r="B55" s="45" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A56" s="11" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
       <c r="B56" s="45" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A57" s="11" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="B57" s="45" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="404" x14ac:dyDescent="0.2">
       <c r="A58" s="11" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="B58" s="45" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="136" x14ac:dyDescent="0.2">
       <c r="A59" s="11" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="B59" s="45" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="323" x14ac:dyDescent="0.2">
       <c r="A60" s="11" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="B60" s="45" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="170" x14ac:dyDescent="0.2">
       <c r="A61" s="11" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
       <c r="B61" s="45" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="170" x14ac:dyDescent="0.2">
       <c r="A62" s="11" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="B62" s="45" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="11" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="B63" s="13"/>
     </row>
     <row r="64" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A64" s="11" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="B64" s="45" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="170" x14ac:dyDescent="0.2">
       <c r="A65" s="11" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="B65" s="45" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="85" x14ac:dyDescent="0.2">
       <c r="A66" s="11" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="B66" s="45" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A67" s="11" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="B67" s="45" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A68" s="11" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="B68" s="45" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A69" s="11" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="B69" s="45" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A70" s="11" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="B70" s="45" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A71" s="11" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="B71" s="45" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A72" s="11" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="B72" s="45" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A73" s="11" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="B73" s="45" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A74" s="11" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="B74" s="45" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A75" s="11" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
       <c r="B75" s="45" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A76" s="11" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
       <c r="B76" s="45" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A77" s="11" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
       <c r="B77" s="45" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A78" s="11" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="B78" s="45" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="119" x14ac:dyDescent="0.2">
       <c r="A79" s="11" t="s">
-        <v>1324</v>
+        <v>1322</v>
       </c>
       <c r="B79" s="45" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A80" s="11" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
       <c r="B80" s="45" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A81" s="11" t="s">
-        <v>1326</v>
+        <v>1324</v>
       </c>
       <c r="B81" s="45" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="85" x14ac:dyDescent="0.2">
       <c r="A82" s="11" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="B82" s="45" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="119" x14ac:dyDescent="0.2">
       <c r="A83" s="11" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
       <c r="B83" s="45" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="306" x14ac:dyDescent="0.2">
       <c r="A84" s="11" t="s">
-        <v>1329</v>
+        <v>1327</v>
       </c>
       <c r="B84" s="45" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
     </row>
     <row r="85" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A85" s="11" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
       <c r="B85" s="45" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A86" s="11" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
       <c r="B86" s="45" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
   </sheetData>
@@ -20869,18 +20869,18 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="17" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="B5" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="B6" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
     </row>
   </sheetData>
@@ -20910,7 +20910,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
-        <v>1499</v>
+        <v>1497</v>
       </c>
       <c r="B1" s="33" t="s">
         <v>216</v>
@@ -20922,30 +20922,30 @@
         <v>233</v>
       </c>
       <c r="E1" s="33" t="s">
-        <v>1503</v>
+        <v>1501</v>
       </c>
       <c r="F1" s="33" t="s">
         <v>248</v>
       </c>
       <c r="G1" s="33" t="s">
-        <v>1504</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="B2" t="s">
+        <v>1503</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1504</v>
+      </c>
+      <c r="F2" t="s">
         <v>1505</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>1506</v>
-      </c>
-      <c r="F2" t="s">
-        <v>1507</v>
-      </c>
-      <c r="G2" t="s">
-        <v>1508</v>
       </c>
     </row>
   </sheetData>
@@ -21003,10 +21003,10 @@
         <v>121</v>
       </c>
       <c r="C2" t="s">
-        <v>1540</v>
+        <v>1538</v>
       </c>
       <c r="D2" t="s">
-        <v>1495</v>
+        <v>1493</v>
       </c>
       <c r="E2" t="s">
         <v>120</v>
@@ -21029,7 +21029,7 @@
         <v>257</v>
       </c>
       <c r="D3" t="s">
-        <v>1541</v>
+        <v>1539</v>
       </c>
       <c r="E3" t="s">
         <v>258</v>
@@ -21038,7 +21038,7 @@
         <v>259</v>
       </c>
       <c r="G3" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -21052,10 +21052,10 @@
         <v>508</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>1543</v>
+        <v>1541</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="F4" s="70" t="s">
         <v>71</v>
@@ -21089,7 +21089,7 @@
         <v>21</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -21097,7 +21097,7 @@
         <v>190</v>
       </c>
       <c r="B2" t="s">
-        <v>1540</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -21137,21 +21137,21 @@
         <v>21</v>
       </c>
       <c r="B1" s="67" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
       <c r="C1" s="67" t="s">
-        <v>1487</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1488</v>
+        <v>1486</v>
       </c>
       <c r="B2" t="s">
-        <v>1540</v>
+        <v>1538</v>
       </c>
       <c r="C2" t="s">
-        <v>1489</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -21167,7 +21167,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57AA03AF-8646-874D-935F-A73550A0FA0C}">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+    <sheetView topLeftCell="P1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
       <selection activeCell="X25" sqref="X25"/>
     </sheetView>
   </sheetViews>
@@ -21183,169 +21183,169 @@
       <c r="A1" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="B1" s="71" t="s">
+      <c r="B1" s="73" t="s">
         <v>113</v>
       </c>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="B2" s="71" t="s">
+      <c r="B2" s="73" t="s">
         <v>115</v>
       </c>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="72" t="s">
-        <v>522</v>
-      </c>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
+      <c r="B3" s="74" t="s">
+        <v>520</v>
+      </c>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="73" t="s">
+      <c r="B4" s="71" t="s">
         <v>117</v>
       </c>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="73" t="s">
+      <c r="B5" s="71" t="s">
         <v>122</v>
       </c>
-      <c r="C5" s="73"/>
-      <c r="D5" s="73"/>
-      <c r="E5" s="73"/>
-      <c r="F5" s="73"/>
+      <c r="C5" s="71"/>
+      <c r="D5" s="71"/>
+      <c r="E5" s="71"/>
+      <c r="F5" s="71"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="73" t="s">
+      <c r="B6" s="71" t="s">
         <v>123</v>
       </c>
-      <c r="C6" s="73"/>
-      <c r="D6" s="73"/>
-      <c r="E6" s="73"/>
-      <c r="F6" s="73"/>
+      <c r="C6" s="71"/>
+      <c r="D6" s="71"/>
+      <c r="E6" s="71"/>
+      <c r="F6" s="71"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
-        <v>1546</v>
-      </c>
-      <c r="B7" s="73" t="s">
+        <v>1544</v>
+      </c>
+      <c r="B7" s="71" t="s">
         <v>412</v>
       </c>
-      <c r="C7" s="73"/>
-      <c r="D7" s="73"/>
-      <c r="E7" s="73"/>
-      <c r="F7" s="73"/>
+      <c r="C7" s="71"/>
+      <c r="D7" s="71"/>
+      <c r="E7" s="71"/>
+      <c r="F7" s="71"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="73" t="s">
+      <c r="B8" s="71" t="s">
         <v>67</v>
       </c>
-      <c r="C8" s="73"/>
-      <c r="D8" s="73"/>
-      <c r="E8" s="73"/>
-      <c r="F8" s="73"/>
+      <c r="C8" s="71"/>
+      <c r="D8" s="71"/>
+      <c r="E8" s="71"/>
+      <c r="F8" s="71"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
         <v>513</v>
       </c>
-      <c r="B9" s="73" t="s">
+      <c r="B9" s="71" t="s">
         <v>514</v>
       </c>
-      <c r="C9" s="73"/>
-      <c r="D9" s="73"/>
-      <c r="E9" s="73"/>
-      <c r="F9" s="73"/>
+      <c r="C9" s="71"/>
+      <c r="D9" s="71"/>
+      <c r="E9" s="71"/>
+      <c r="F9" s="71"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
         <v>515</v>
       </c>
-      <c r="B10" s="73" t="s">
+      <c r="B10" s="71" t="s">
         <v>516</v>
       </c>
-      <c r="C10" s="73"/>
-      <c r="D10" s="73"/>
-      <c r="E10" s="73"/>
-      <c r="F10" s="73"/>
+      <c r="C10" s="71"/>
+      <c r="D10" s="71"/>
+      <c r="E10" s="71"/>
+      <c r="F10" s="71"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="B11" s="73" t="s">
+      <c r="B11" s="71" t="s">
         <v>72</v>
       </c>
-      <c r="C11" s="73"/>
-      <c r="D11" s="73"/>
-      <c r="E11" s="73"/>
-      <c r="F11" s="73"/>
+      <c r="C11" s="71"/>
+      <c r="D11" s="71"/>
+      <c r="E11" s="71"/>
+      <c r="F11" s="71"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="B12" s="74" t="s">
+      <c r="B12" s="72" t="s">
         <v>430</v>
       </c>
-      <c r="C12" s="74"/>
-      <c r="D12" s="74"/>
-      <c r="E12" s="74"/>
-      <c r="F12" s="74"/>
+      <c r="C12" s="72"/>
+      <c r="D12" s="72"/>
+      <c r="E12" s="72"/>
+      <c r="F12" s="72"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="73" t="s">
+      <c r="B13" s="71" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="73"/>
-      <c r="D13" s="73"/>
-      <c r="E13" s="73"/>
-      <c r="F13" s="73"/>
+      <c r="C13" s="71"/>
+      <c r="D13" s="71"/>
+      <c r="E13" s="71"/>
+      <c r="F13" s="71"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="73" t="s">
+      <c r="B14" s="71" t="s">
         <v>116</v>
       </c>
-      <c r="C14" s="73"/>
-      <c r="D14" s="73"/>
-      <c r="E14" s="73"/>
-      <c r="F14" s="73"/>
+      <c r="C14" s="71"/>
+      <c r="D14" s="71"/>
+      <c r="E14" s="71"/>
+      <c r="F14" s="71"/>
       <c r="H14" s="12"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
@@ -21437,6 +21437,10 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F4"/>
     <mergeCell ref="B13:F13"/>
     <mergeCell ref="B14:F14"/>
     <mergeCell ref="B5:F5"/>
@@ -21447,10 +21451,6 @@
     <mergeCell ref="B10:F10"/>
     <mergeCell ref="B11:F11"/>
     <mergeCell ref="B12:F12"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:F4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -21477,7 +21477,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
       <c r="B1" s="16" t="s">
         <v>216</v>
@@ -21489,7 +21489,7 @@
         <v>233</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>1545</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -21506,7 +21506,7 @@
         <v>512</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>1510</v>
+        <v>1508</v>
       </c>
     </row>
   </sheetData>
@@ -21515,15 +21515,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D47D794EB48E7144959FE534A5ED3D9A" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e2a26abefe6b107b571df4f2e43af2ce">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="98eacbea-7562-4a40-a7f2-e999cdc0cec5" xmlns:ns3="75bf9804-c18d-470a-a27f-eeaf4abcd247" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5806404ce956f9af473b927dc8d5ee33" ns2:_="" ns3:_="">
     <xsd:import namespace="98eacbea-7562-4a40-a7f2-e999cdc0cec5"/>
@@ -21724,6 +21715,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -21736,14 +21736,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0D2739C-381D-470B-B6E1-B86FD5C25B2E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{028E3775-7751-44E5-835D-F091B807F690}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -21758,6 +21750,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0D2739C-381D-470B-B6E1-B86FD5C25B2E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Documents/Examples/CDISC_Pilot/CDISC_Pilot_Study.xlsx
+++ b/Documents/Examples/CDISC_Pilot/CDISC_Pilot_Study.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm_data/source_data/protocols/CDISC_Pilot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F1D8F6E-44EB-BA4C-B580-4F591F0F6866}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4E9D117-1D67-C24E-9A5A-8F5FC1EB86F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8340" yWindow="500" windowWidth="41180" windowHeight="27240" firstSheet="20" activeTab="27" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="8320" yWindow="500" windowWidth="41180" windowHeight="27240" firstSheet="20" activeTab="28" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3257" uniqueCount="1547">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3264" uniqueCount="1550">
   <si>
     <t>Screening</t>
   </si>
@@ -6834,6 +6834,15 @@
   <si>
     <t>@plannedAge/Range/@maxValue/Quantity/@value</t>
   </si>
+  <si>
+    <t>AMEND_1</t>
+  </si>
+  <si>
+    <t>The first amendment</t>
+  </si>
+  <si>
+    <t>notes</t>
+  </si>
 </sst>
 </file>
 
@@ -7195,16 +7204,16 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -13943,72 +13952,91 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A36B6E2-81ED-B543-A330-D9502D2DF96E}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="23.1640625" customWidth="1"/>
-    <col min="3" max="3" width="19.1640625" customWidth="1"/>
-    <col min="4" max="4" width="28.33203125" customWidth="1"/>
-    <col min="5" max="5" width="19" customWidth="1"/>
-    <col min="6" max="6" width="21.5" customWidth="1"/>
-    <col min="7" max="7" width="16.83203125" customWidth="1"/>
+    <col min="1" max="3" width="20.1640625" customWidth="1"/>
+    <col min="4" max="4" width="12" customWidth="1"/>
+    <col min="5" max="5" width="23.1640625" customWidth="1"/>
+    <col min="6" max="6" width="19.1640625" customWidth="1"/>
+    <col min="7" max="7" width="28.33203125" customWidth="1"/>
+    <col min="8" max="8" width="19" customWidth="1"/>
+    <col min="9" max="9" width="21.5" customWidth="1"/>
+    <col min="10" max="10" width="16.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="35" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="16" t="s">
+        <v>216</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="D1" s="35" t="s">
         <v>247</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="E1" s="33" t="s">
         <v>248</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="F1" s="33" t="s">
         <v>249</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="G1" s="33" t="s">
         <v>250</v>
       </c>
-      <c r="E1" s="33" t="s">
+      <c r="H1" s="33" t="s">
         <v>1495</v>
       </c>
-      <c r="F1" s="36" t="s">
+      <c r="I1" s="36" t="s">
         <v>251</v>
       </c>
-      <c r="G1" s="36" t="s">
+      <c r="J1" s="36" t="s">
         <v>234</v>
       </c>
-      <c r="H1" s="36" t="s">
+      <c r="K1" s="36" t="s">
         <v>1509</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="32" t="s">
+        <v>1547</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>1548</v>
+      </c>
+      <c r="C2" s="32" t="s">
+        <v>1500</v>
+      </c>
+      <c r="D2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="E2" s="11" t="s">
         <v>252</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="F2" s="11" t="s">
         <v>254</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="G2" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="H2" s="11" t="s">
         <v>244</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="I2" s="11" t="s">
         <v>450</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="J2" s="11" t="s">
         <v>1496</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="K2" s="11" t="s">
         <v>1510</v>
       </c>
     </row>
@@ -15468,7 +15496,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{989384DC-1C54-514A-8A1E-ADD84D891BA4}">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
@@ -15603,10 +15631,10 @@
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{666D5CD6-DF98-6447-9150-7AA4E8F8C9F3}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15615,7 +15643,7 @@
     <col min="7" max="7" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
         <v>216</v>
       </c>
@@ -15637,8 +15665,11 @@
       <c r="G1" s="16" t="s">
         <v>1489</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H1" s="16" t="s">
+        <v>1549</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1490</v>
       </c>
@@ -21183,169 +21214,169 @@
       <c r="A1" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="B1" s="73" t="s">
+      <c r="B1" s="71" t="s">
         <v>113</v>
       </c>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="B2" s="73" t="s">
+      <c r="B2" s="71" t="s">
         <v>115</v>
       </c>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="74" t="s">
+      <c r="B3" s="72" t="s">
         <v>520</v>
       </c>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="71" t="s">
+      <c r="B4" s="73" t="s">
         <v>117</v>
       </c>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="71" t="s">
+      <c r="B5" s="73" t="s">
         <v>122</v>
       </c>
-      <c r="C5" s="71"/>
-      <c r="D5" s="71"/>
-      <c r="E5" s="71"/>
-      <c r="F5" s="71"/>
+      <c r="C5" s="73"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="73"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="71" t="s">
+      <c r="B6" s="73" t="s">
         <v>123</v>
       </c>
-      <c r="C6" s="71"/>
-      <c r="D6" s="71"/>
-      <c r="E6" s="71"/>
-      <c r="F6" s="71"/>
+      <c r="C6" s="73"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="73"/>
+      <c r="F6" s="73"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
         <v>1544</v>
       </c>
-      <c r="B7" s="71" t="s">
+      <c r="B7" s="73" t="s">
         <v>412</v>
       </c>
-      <c r="C7" s="71"/>
-      <c r="D7" s="71"/>
-      <c r="E7" s="71"/>
-      <c r="F7" s="71"/>
+      <c r="C7" s="73"/>
+      <c r="D7" s="73"/>
+      <c r="E7" s="73"/>
+      <c r="F7" s="73"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="71" t="s">
+      <c r="B8" s="73" t="s">
         <v>67</v>
       </c>
-      <c r="C8" s="71"/>
-      <c r="D8" s="71"/>
-      <c r="E8" s="71"/>
-      <c r="F8" s="71"/>
+      <c r="C8" s="73"/>
+      <c r="D8" s="73"/>
+      <c r="E8" s="73"/>
+      <c r="F8" s="73"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
         <v>513</v>
       </c>
-      <c r="B9" s="71" t="s">
+      <c r="B9" s="73" t="s">
         <v>514</v>
       </c>
-      <c r="C9" s="71"/>
-      <c r="D9" s="71"/>
-      <c r="E9" s="71"/>
-      <c r="F9" s="71"/>
+      <c r="C9" s="73"/>
+      <c r="D9" s="73"/>
+      <c r="E9" s="73"/>
+      <c r="F9" s="73"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
         <v>515</v>
       </c>
-      <c r="B10" s="71" t="s">
+      <c r="B10" s="73" t="s">
         <v>516</v>
       </c>
-      <c r="C10" s="71"/>
-      <c r="D10" s="71"/>
-      <c r="E10" s="71"/>
-      <c r="F10" s="71"/>
+      <c r="C10" s="73"/>
+      <c r="D10" s="73"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="73"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="B11" s="71" t="s">
+      <c r="B11" s="73" t="s">
         <v>72</v>
       </c>
-      <c r="C11" s="71"/>
-      <c r="D11" s="71"/>
-      <c r="E11" s="71"/>
-      <c r="F11" s="71"/>
+      <c r="C11" s="73"/>
+      <c r="D11" s="73"/>
+      <c r="E11" s="73"/>
+      <c r="F11" s="73"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="B12" s="72" t="s">
+      <c r="B12" s="74" t="s">
         <v>430</v>
       </c>
-      <c r="C12" s="72"/>
-      <c r="D12" s="72"/>
-      <c r="E12" s="72"/>
-      <c r="F12" s="72"/>
+      <c r="C12" s="74"/>
+      <c r="D12" s="74"/>
+      <c r="E12" s="74"/>
+      <c r="F12" s="74"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="71" t="s">
+      <c r="B13" s="73" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="71"/>
-      <c r="D13" s="71"/>
-      <c r="E13" s="71"/>
-      <c r="F13" s="71"/>
+      <c r="C13" s="73"/>
+      <c r="D13" s="73"/>
+      <c r="E13" s="73"/>
+      <c r="F13" s="73"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="71" t="s">
+      <c r="B14" s="73" t="s">
         <v>116</v>
       </c>
-      <c r="C14" s="71"/>
-      <c r="D14" s="71"/>
-      <c r="E14" s="71"/>
-      <c r="F14" s="71"/>
+      <c r="C14" s="73"/>
+      <c r="D14" s="73"/>
+      <c r="E14" s="73"/>
+      <c r="F14" s="73"/>
       <c r="H14" s="12"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
@@ -21437,11 +21468,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B13:F13"/>
     <mergeCell ref="B14:F14"/>
     <mergeCell ref="B5:F5"/>
     <mergeCell ref="B6:F6"/>
@@ -21451,6 +21477,11 @@
     <mergeCell ref="B10:F10"/>
     <mergeCell ref="B11:F11"/>
     <mergeCell ref="B12:F12"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B13:F13"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -21515,6 +21546,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D47D794EB48E7144959FE534A5ED3D9A" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e2a26abefe6b107b571df4f2e43af2ce">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="98eacbea-7562-4a40-a7f2-e999cdc0cec5" xmlns:ns3="75bf9804-c18d-470a-a27f-eeaf4abcd247" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5806404ce956f9af473b927dc8d5ee33" ns2:_="" ns3:_="">
     <xsd:import namespace="98eacbea-7562-4a40-a7f2-e999cdc0cec5"/>
@@ -21715,15 +21755,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -21736,6 +21767,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0D2739C-381D-470B-B6E1-B86FD5C25B2E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{028E3775-7751-44E5-835D-F091B807F690}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -21750,14 +21789,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0D2739C-381D-470B-B6E1-B86FD5C25B2E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
